--- a/tetris-4k-archive.xlsx
+++ b/tetris-4k-archive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/493d989091475df7/Personal/GitHub/tetris4karchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73B61696-910D-C645-AD37-B5C32EB9D4DF}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFF2FAF8-6171-9E4A-976A-67888B1337A1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{F4EAB821-2EDC-3446-8812-752F41EB9B28}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>Gravity</t>
   </si>
   <si>
-    <t>https://github.com/pellsson/tinytris</t>
-  </si>
-  <si>
     <t>Pellsson</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Music</t>
   </si>
   <si>
-    <t>https://board.flatassembler.net/topic.php?p=211564#211831</t>
-  </si>
-  <si>
     <t>Arek Michowski</t>
   </si>
   <si>
@@ -188,12 +182,6 @@
     <t>Andrew March</t>
   </si>
   <si>
-    <t>https://codegolf.stackexchange.com/a/121622/120787</t>
-  </si>
-  <si>
-    <t>https://github.com/veu/mini-tetris</t>
-  </si>
-  <si>
     <t>http://www.p01.org/256b_tetris_theme</t>
   </si>
   <si>
@@ -389,7 +377,19 @@
     <t>Bytes per feature</t>
   </si>
   <si>
-    <t>https://gist.github.com/aemkei/1672254</t>
+    <t>https://nineteendo.github.io/tetris4karchive/binary-tetris</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/tetros105</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/mini-tetris</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/binary-tetris-2</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/tinytris</t>
   </si>
 </sst>
 </file>
@@ -923,7 +923,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:R1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,46 +946,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>12</v>
@@ -994,34 +994,34 @@
         <v>10</v>
       </c>
       <c r="R1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="X1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="V1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="AB1" s="9" t="s">
         <v>9</v>
@@ -1030,88 +1030,88 @@
         <v>11</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AM1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AO1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AV1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AX1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AV1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="BB1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="BA1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="BD1" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE1" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="BF1" s="2"/>
     </row>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="3" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
@@ -1357,19 +1357,19 @@
         <v>1</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="7" t="b">
         <v>0</v>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="4" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="5" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -1709,19 +1709,19 @@
         <v>1</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="b">
         <v>1</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="6" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -1885,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="b">
         <v>0</v>
@@ -2025,12 +2025,12 @@
         <v>34.25</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="8" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>7</v>
@@ -2382,7 +2382,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="10" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>2</v>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="11" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -2907,10 +2907,10 @@
     </row>
     <row r="12" spans="1:58" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
@@ -3083,10 +3083,10 @@
     </row>
     <row r="13" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>4</v>
@@ -3117,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M13" s="7" t="b">
         <v>0</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O13" s="7" t="b">
         <v>0</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="7" t="b">
         <v>0</v>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="14" spans="1:58" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
@@ -3435,13 +3435,13 @@
     </row>
     <row r="15" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="6">
         <v>457</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O15" s="7" t="b">
         <v>1</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="16" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -3645,19 +3645,19 @@
         <v>1</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O16" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="7" t="b">
         <v>1</v>
@@ -3787,10 +3787,10 @@
     </row>
     <row r="17" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>7</v>
@@ -3963,10 +3963,10 @@
     </row>
     <row r="18" spans="1:57" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>7</v>
@@ -4139,10 +4139,10 @@
     </row>
     <row r="19" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>4</v>
@@ -4173,19 +4173,19 @@
         <v>1</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M19" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O19" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="7" t="b">
         <v>1</v>
@@ -4315,10 +4315,10 @@
     </row>
     <row r="20" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4</v>
@@ -4352,16 +4352,16 @@
         <v>1</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="7" t="b">
         <v>1</v>
@@ -4491,10 +4491,10 @@
     </row>
     <row r="21" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>7</v>
@@ -4667,13 +4667,13 @@
     </row>
     <row r="22" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" s="6">
         <v>2738</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O22" s="7" t="b">
         <v>0</v>
@@ -4843,13 +4843,13 @@
     </row>
     <row r="23" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D23" s="6">
         <v>3998</v>
@@ -4877,13 +4877,13 @@
         <v>1</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M23" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O23" s="7" t="b">
         <v>1</v>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
@@ -5195,10 +5195,10 @@
     </row>
     <row r="25" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>4</v>
@@ -5229,19 +5229,19 @@
         <v>1</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O25" s="7" t="b">
         <v>1</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="7" t="b">
         <v>1</v>
@@ -5371,13 +5371,13 @@
     </row>
     <row r="26" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D26" s="6">
         <v>4095</v>
@@ -5405,13 +5405,13 @@
         <v>1</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O26" s="7" t="b">
         <v>0</v>
@@ -5547,13 +5547,13 @@
     </row>
     <row r="27" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D27" s="6">
         <v>2882</v>
@@ -5581,13 +5581,13 @@
         <v>1</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O27" s="7" t="b">
         <v>0</v>
@@ -5723,13 +5723,13 @@
     </row>
     <row r="28" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D28" s="6">
         <v>4002</v>
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O28" s="7" t="b">
         <v>1</v>
@@ -5971,7 +5971,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" location="211831" xr:uid="{76EB020E-CC71-B148-9424-BB7A1349A5E9}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{76EB020E-CC71-B148-9424-BB7A1349A5E9}"/>
     <hyperlink ref="A7" r:id="rId2" xr:uid="{022DC04F-D95A-7246-8451-7C3BA522CD1C}"/>
     <hyperlink ref="A9" r:id="rId3" xr:uid="{2766802B-21EA-A840-BA76-FAB4AC15193F}"/>
     <hyperlink ref="A12" r:id="rId4" xr:uid="{8DAB0B02-5401-BF46-90F9-B2B728905C99}"/>

--- a/tetris-4k-archive.xlsx
+++ b/tetris-4k-archive.xlsx
@@ -923,7 +923,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="A1:BE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tetris-4k-archive.xlsx
+++ b/tetris-4k-archive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/493d989091475df7/Personal/GitHub/tetris4karchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96FA9B2F-E718-4E41-9853-F1A38531CF25}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A62669B1-C19F-9847-86C3-43CD01DF2B45}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{F4EAB821-2EDC-3446-8812-752F41EB9B28}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21140" xr2:uid="{F4EAB821-2EDC-3446-8812-752F41EB9B28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,22 +536,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="135"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,7 +923,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,11 +1141,11 @@
         <v>23</v>
       </c>
       <c r="K2" s="6">
-        <f>COUNTIF(K$3:K$28, "SYS")+COUNTIF(K$3:K$28, TRUE)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="L2" s="6">
-        <f>COUNTIF(L$3:L$28, "SYS")+COUNTIF(L$3:L$28, TRUE)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="M2" s="6">
@@ -1153,67 +1153,67 @@
         <v>16</v>
       </c>
       <c r="N2" s="6">
-        <f>COUNTIF(N$3:N$28, "SYS")+COUNTIF(N$3:N$28, TRUE)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="O2" s="6">
-        <f>COUNTIF(O$3:O$28, "SYS")+COUNTIF(O$3:O$28, TRUE)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="P2" s="6">
-        <f t="shared" ref="P2:AC2" si="1">COUNTIF(P$3:P$28, "SYS")+COUNTIF(P$3:P$28, TRUE)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="Q2" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="R2" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="S2" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="T2" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="U2" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="V2" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="W2" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="X2" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y2" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z2" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AA2" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AB2" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AC2" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AD2" s="6">
@@ -1225,11 +1225,11 @@
         <v>5</v>
       </c>
       <c r="AF2" s="6">
-        <f>COUNTIF(AF$3:AF$28, "SYS")+COUNTIF(AF$3:AF$28, TRUE)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AG2" s="6">
-        <f>COUNTIF(AG$3:AG$28, "SYS")+COUNTIF(AG$3:AG$28, TRUE)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AH2" s="6">
@@ -1265,15 +1265,15 @@
         <v>3</v>
       </c>
       <c r="AP2" s="6">
-        <f>COUNTIF(AP$3:AP$28, "SYS")+COUNTIF(AP$3:AP$28, TRUE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AQ2" s="6">
-        <f>COUNTIF(AQ$3:AQ$28, "SYS")+COUNTIF(AQ$3:AQ$28, TRUE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AR2" s="6">
-        <f>COUNTIF(AR$3:AR$28, "SYS")+COUNTIF(AR$3:AR$28, TRUE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AS2" s="6">
@@ -1305,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="AZ2" s="6">
-        <f>COUNTIF(AZ$3:AZ$28, "SYS")+COUNTIF(AZ$3:AZ$28, TRUE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BA2" s="6">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 3:3))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 3:3))</f>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 3:3)+_xlfn.XLOOKUP("Extra size", $1:$1, 3:3)</f>
         <v>331</v>
       </c>
       <c r="G3" s="10" t="b">
@@ -1491,11 +1491,11 @@
         <v>0</v>
       </c>
       <c r="BD3" s="9">
-        <f>COUNTIF($G3:$BC3, "SYS")+COUNTIF($G3:$BC3, TRUE)</f>
+        <f t="shared" ref="BD3:BD28" si="1">COUNTIF($G3:$BC3, "SYS")+COUNTIF($G3:$BC3, TRUE)</f>
         <v>10</v>
       </c>
       <c r="BE3" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 3:3))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 3:3))</f>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 3:3)/_xlfn.XLOOKUP("Feature count", $1:$1, 3:3)</f>
         <v>30.4</v>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 4:4))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 4:4))</f>
+        <f t="shared" ref="F4:F28" si="2">_xlfn.XLOOKUP("Main size", $1:$1, 4:4)+_xlfn.XLOOKUP("Extra size", $1:$1, 4:4)</f>
         <v>512</v>
       </c>
       <c r="G4" s="10" t="b">
@@ -1667,11 +1667,11 @@
         <v>0</v>
       </c>
       <c r="BD4" s="9">
-        <f>COUNTIF($G4:$BC4, "SYS")+COUNTIF($G4:$BC4, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="BE4" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 4:4))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 4:4))</f>
+        <f t="shared" ref="BE4:BE28" si="3">_xlfn.XLOOKUP("Main size", $1:$1, 4:4)/_xlfn.XLOOKUP("Feature count", $1:$1, 4:4)</f>
         <v>31.75</v>
       </c>
     </row>
@@ -1686,14 +1686,14 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E5" s="3">
         <v>42</v>
       </c>
       <c r="F5" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 5:5))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 5:5))</f>
-        <v>509</v>
+        <f t="shared" si="2"/>
+        <v>506</v>
       </c>
       <c r="G5" s="10" t="b">
         <v>1</v>
@@ -1843,12 +1843,12 @@
         <v>0</v>
       </c>
       <c r="BD5" s="9">
-        <f>COUNTIF($G5:$BC5, "SYS")+COUNTIF($G5:$BC5, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="BE5" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 5:5))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 5:5))</f>
-        <v>33.357142857142854</v>
+        <f t="shared" si="3"/>
+        <v>33.142857142857146</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="34" x14ac:dyDescent="0.2">
@@ -1868,7 +1868,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 6:6))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 6:6))</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="G6" s="10" t="b">
@@ -2019,11 +2019,11 @@
         <v>0</v>
       </c>
       <c r="BD6" s="9">
-        <f>COUNTIF($G6:$BC6, "SYS")+COUNTIF($G6:$BC6, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="BE6" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 6:6))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 6:6))</f>
+        <f t="shared" si="3"/>
         <v>34.25</v>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 7:7))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 7:7))</f>
+        <f t="shared" si="2"/>
         <v>471</v>
       </c>
       <c r="G7" s="10" t="b">
@@ -2195,11 +2195,11 @@
         <v>0</v>
       </c>
       <c r="BD7" s="9">
-        <f>COUNTIF($G7:$BC7, "SYS")+COUNTIF($G7:$BC7, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="BE7" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 7:7))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 7:7))</f>
+        <f t="shared" si="3"/>
         <v>36.230769230769234</v>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 8:8))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 8:8))</f>
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
       <c r="G8" s="10" t="b">
@@ -2371,11 +2371,11 @@
         <v>0</v>
       </c>
       <c r="BD8" s="9">
-        <f>COUNTIF($G8:$BC8, "SYS")+COUNTIF($G8:$BC8, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="BE8" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 8:8))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 8:8))</f>
+        <f t="shared" si="3"/>
         <v>41.833333333333336</v>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
         <v>66</v>
       </c>
       <c r="F9" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 9:9))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 9:9))</f>
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
       <c r="G9" s="10" t="b">
@@ -2547,11 +2547,11 @@
         <v>0</v>
       </c>
       <c r="BD9" s="9">
-        <f>COUNTIF($G9:$BC9, "SYS")+COUNTIF($G9:$BC9, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="BE9" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 9:9))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 9:9))</f>
+        <f t="shared" si="3"/>
         <v>49.555555555555557</v>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
         <v>91</v>
       </c>
       <c r="F10" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 10:10))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 10:10))</f>
+        <f t="shared" si="2"/>
         <v>1550</v>
       </c>
       <c r="G10" s="10" t="b">
@@ -2723,11 +2723,11 @@
         <v>0</v>
       </c>
       <c r="BD10" s="9">
-        <f>COUNTIF($G10:$BC10, "SYS")+COUNTIF($G10:$BC10, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="BE10" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 10:10))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 10:10))</f>
+        <f t="shared" si="3"/>
         <v>50.310344827586206</v>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 11:11))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 11:11))</f>
+        <f t="shared" si="2"/>
         <v>510</v>
       </c>
       <c r="G11" s="10" t="b">
@@ -2899,11 +2899,11 @@
         <v>0</v>
       </c>
       <c r="BD11" s="9">
-        <f>COUNTIF($G11:$BC11, "SYS")+COUNTIF($G11:$BC11, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="BE11" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 11:11))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 11:11))</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 12:12))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 12:12))</f>
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
       <c r="G12" s="10" t="b">
@@ -3075,11 +3075,11 @@
         <v>0</v>
       </c>
       <c r="BD12" s="9">
-        <f>COUNTIF($G12:$BC12, "SYS")+COUNTIF($G12:$BC12, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="BE12" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 12:12))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 12:12))</f>
+        <f t="shared" si="3"/>
         <v>54.555555555555557</v>
       </c>
     </row>
@@ -3100,7 +3100,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 13:13))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 13:13))</f>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="G13" s="10" t="b">
@@ -3251,11 +3251,11 @@
         <v>0</v>
       </c>
       <c r="BD13" s="9">
-        <f>COUNTIF($G13:$BC13, "SYS")+COUNTIF($G13:$BC13, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="BE13" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 13:13))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 13:13))</f>
+        <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 14:14))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 14:14))</f>
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
       <c r="G14" s="10" t="b">
@@ -3427,11 +3427,11 @@
         <v>0</v>
       </c>
       <c r="BD14" s="9">
-        <f>COUNTIF($G14:$BC14, "SYS")+COUNTIF($G14:$BC14, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BE14" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 14:14))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 14:14))</f>
+        <f t="shared" si="3"/>
         <v>63.714285714285715</v>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 15:15))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 15:15))</f>
+        <f t="shared" si="2"/>
         <v>457</v>
       </c>
       <c r="G15" s="10" t="b">
@@ -3603,11 +3603,11 @@
         <v>0</v>
       </c>
       <c r="BD15" s="9">
-        <f>COUNTIF($G15:$BC15, "SYS")+COUNTIF($G15:$BC15, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="BE15" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 15:15))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 15:15))</f>
+        <f t="shared" si="3"/>
         <v>65.285714285714292</v>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
         <v>234</v>
       </c>
       <c r="F16" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 16:16))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 16:16))</f>
+        <f t="shared" si="2"/>
         <v>1506</v>
       </c>
       <c r="G16" s="10" t="b">
@@ -3779,11 +3779,11 @@
         <v>0</v>
       </c>
       <c r="BD16" s="9">
-        <f>COUNTIF($G16:$BC16, "SYS")+COUNTIF($G16:$BC16, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="BE16" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 16:16))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 16:16))</f>
+        <f t="shared" si="3"/>
         <v>70.666666666666671</v>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 17:17))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 17:17))</f>
+        <f t="shared" si="2"/>
         <v>1358</v>
       </c>
       <c r="G17" s="10" t="b">
@@ -3955,11 +3955,11 @@
         <v>0</v>
       </c>
       <c r="BD17" s="9">
-        <f>COUNTIF($G17:$BC17, "SYS")+COUNTIF($G17:$BC17, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="BE17" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 17:17))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 17:17))</f>
+        <f t="shared" si="3"/>
         <v>84.875</v>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 18:18))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 18:18))</f>
+        <f t="shared" si="2"/>
         <v>2048</v>
       </c>
       <c r="G18" s="10" t="b">
@@ -4131,11 +4131,11 @@
         <v>0</v>
       </c>
       <c r="BD18" s="9">
-        <f>COUNTIF($G18:$BC18, "SYS")+COUNTIF($G18:$BC18, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="BE18" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 18:18))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 18:18))</f>
+        <f t="shared" si="3"/>
         <v>97.523809523809518</v>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
         <v>123</v>
       </c>
       <c r="F19" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 19:19))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 19:19))</f>
+        <f t="shared" si="2"/>
         <v>1931</v>
       </c>
       <c r="G19" s="10" t="b">
@@ -4307,11 +4307,11 @@
         <v>0</v>
       </c>
       <c r="BD19" s="9">
-        <f>COUNTIF($G19:$BC19, "SYS")+COUNTIF($G19:$BC19, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="BE19" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 19:19))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 19:19))</f>
+        <f t="shared" si="3"/>
         <v>129.14285714285714</v>
       </c>
     </row>
@@ -4332,7 +4332,7 @@
         <v>1024</v>
       </c>
       <c r="F20" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 20:20))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 20:20))</f>
+        <f t="shared" si="2"/>
         <v>5040</v>
       </c>
       <c r="G20" s="10" t="b">
@@ -4483,11 +4483,11 @@
         <v>0</v>
       </c>
       <c r="BD20" s="9">
-        <f>COUNTIF($G20:$BC20, "SYS")+COUNTIF($G20:$BC20, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="BE20" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 20:20))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 20:20))</f>
+        <f t="shared" si="3"/>
         <v>133.86666666666667</v>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 21:21))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 21:21))</f>
+        <f t="shared" si="2"/>
         <v>1896</v>
       </c>
       <c r="G21" s="10" t="b">
@@ -4659,11 +4659,11 @@
         <v>0</v>
       </c>
       <c r="BD21" s="9">
-        <f>COUNTIF($G21:$BC21, "SYS")+COUNTIF($G21:$BC21, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="BE21" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 21:21))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 21:21))</f>
+        <f t="shared" si="3"/>
         <v>135.42857142857142</v>
       </c>
     </row>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 22:22))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 22:22))</f>
+        <f t="shared" si="2"/>
         <v>2738</v>
       </c>
       <c r="G22" s="10" t="b">
@@ -4835,11 +4835,11 @@
         <v>0</v>
       </c>
       <c r="BD22" s="9">
-        <f>COUNTIF($G22:$BC22, "SYS")+COUNTIF($G22:$BC22, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="BE22" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 22:22))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 22:22))</f>
+        <f t="shared" si="3"/>
         <v>152.11111111111111</v>
       </c>
     </row>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 23:23))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 23:23))</f>
+        <f t="shared" si="2"/>
         <v>3998</v>
       </c>
       <c r="G23" s="10" t="b">
@@ -5011,11 +5011,11 @@
         <v>0</v>
       </c>
       <c r="BD23" s="9">
-        <f>COUNTIF($G23:$BC23, "SYS")+COUNTIF($G23:$BC23, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="BE23" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 23:23))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 23:23))</f>
+        <f t="shared" si="3"/>
         <v>159.91999999999999</v>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 24:24))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 24:24))</f>
+        <f t="shared" si="2"/>
         <v>2824</v>
       </c>
       <c r="G24" s="10" t="b">
@@ -5187,11 +5187,11 @@
         <v>0</v>
       </c>
       <c r="BD24" s="9">
-        <f>COUNTIF($G24:$BC24, "SYS")+COUNTIF($G24:$BC24, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="BE24" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 24:24))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 24:24))</f>
+        <f t="shared" si="3"/>
         <v>166.11764705882354</v>
       </c>
     </row>
@@ -5212,7 +5212,7 @@
         <v>100</v>
       </c>
       <c r="F25" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 25:25))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 25:25))</f>
+        <f t="shared" si="2"/>
         <v>2810</v>
       </c>
       <c r="G25" s="10" t="b">
@@ -5363,11 +5363,11 @@
         <v>0</v>
       </c>
       <c r="BD25" s="9">
-        <f>COUNTIF($G25:$BC25, "SYS")+COUNTIF($G25:$BC25, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="BE25" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 25:25))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 25:25))</f>
+        <f t="shared" si="3"/>
         <v>169.375</v>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 26:26))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 26:26))</f>
+        <f t="shared" si="2"/>
         <v>4095</v>
       </c>
       <c r="G26" s="10" t="b">
@@ -5539,11 +5539,11 @@
         <v>0</v>
       </c>
       <c r="BD26" s="9">
-        <f>COUNTIF($G26:$BC26, "SYS")+COUNTIF($G26:$BC26, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="BE26" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 26:26))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 26:26))</f>
+        <f t="shared" si="3"/>
         <v>178.04347826086956</v>
       </c>
     </row>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 27:27))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 27:27))</f>
+        <f t="shared" si="2"/>
         <v>2882</v>
       </c>
       <c r="G27" s="10" t="b">
@@ -5715,11 +5715,11 @@
         <v>0</v>
       </c>
       <c r="BD27" s="9">
-        <f>COUNTIF($G27:$BC27, "SYS")+COUNTIF($G27:$BC27, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="BE27" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 27:27))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 27:27))</f>
+        <f t="shared" si="3"/>
         <v>180.125</v>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 28:28))+_xlfn.SINGLE(_xlfn.XLOOKUP("Extra Size", $1:$1, 28:28))</f>
+        <f t="shared" si="2"/>
         <v>4002</v>
       </c>
       <c r="G28" s="10" t="b">
@@ -5891,11 +5891,11 @@
         <v>1</v>
       </c>
       <c r="BD28" s="9">
-        <f>COUNTIF($G28:$BC28, "SYS")+COUNTIF($G28:$BC28, TRUE)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="BE28" s="4">
-        <f>_xlfn.SINGLE(_xlfn.XLOOKUP("Main Size", $1:$1, 28:28))/_xlfn.SINGLE(_xlfn.XLOOKUP("Feature Count", $1:$1, 28:28))</f>
+        <f t="shared" si="3"/>
         <v>190.57142857142858</v>
       </c>
     </row>

--- a/tetris-4k-archive.xlsx
+++ b/tetris-4k-archive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/493d989091475df7/Personal/GitHub/tetris4karchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A62669B1-C19F-9847-86C3-43CD01DF2B45}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B0F1385-463D-CB48-AA2F-AC09E5997C7E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21140" xr2:uid="{F4EAB821-2EDC-3446-8812-752F41EB9B28}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>notjagan</t>
   </si>
   <si>
-    <t>https://codegolf.stackexchange.com/a/121396/120787</t>
-  </si>
-  <si>
     <t>https://codegolf.stackexchange.com/a/11650/120787</t>
   </si>
   <si>
@@ -161,21 +158,12 @@
     <t>shikhin</t>
   </si>
   <si>
-    <t>https://github.com/shikhin/tetranglix</t>
-  </si>
-  <si>
     <t>https://codegolf.stackexchange.com/a/167445/120787</t>
   </si>
   <si>
     <t>Andrew March</t>
   </si>
   <si>
-    <t>http://www.p01.org/256b_tetris_theme</t>
-  </si>
-  <si>
-    <t>https://joriszwart.nl/games/javascript-tetris-1.5kb</t>
-  </si>
-  <si>
     <t>https://github.com/michowski/tetris-light</t>
   </si>
   <si>
@@ -203,9 +191,6 @@
     <t>wiesi</t>
   </si>
   <si>
-    <t>https://github.com/netspooky/hardcode/tree/master/02048/dos/1.32kb%20tetris</t>
-  </si>
-  <si>
     <t>Vzub Pnukem</t>
   </si>
   <si>
@@ -371,9 +356,6 @@
     <t>https://playdosgames.com/online/smalltetris</t>
   </si>
   <si>
-    <t>https://nineteendo.github.io/tetris4karchive/tinytetris</t>
-  </si>
-  <si>
     <t>Daniel Etzold</t>
   </si>
   <si>
@@ -390,6 +372,24 @@
   </si>
   <si>
     <t>https://nineteendo.github.io/tetris4karchive/tetranglix</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/tiny-tetris</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/256b-tetris-theme</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/tetranglix-2</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/binary-tetris-3</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/1.5kb-tetris</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/1.32kb-tetris</t>
   </si>
 </sst>
 </file>
@@ -922,8 +922,8 @@
   <dimension ref="A1:BF28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,46 +948,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>11</v>
@@ -996,34 +996,34 @@
         <v>9</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>8</v>
@@ -1035,85 +1035,85 @@
         <v>24</v>
       </c>
       <c r="AE1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="AO1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AP1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="AV1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AW1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="BF1" s="2"/>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="S2" s="6">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T2" s="6">
         <f t="shared" si="0"/>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="W2" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X2" s="6">
         <f t="shared" si="0"/>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="3" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="BD3" s="9">
-        <f t="shared" ref="BD3:BD28" si="1">COUNTIF($G3:$BC3, "SYS")+COUNTIF($G3:$BC3, TRUE)</f>
+        <f>COUNTIF($G3:$BC3, "SYS")+COUNTIF($G3:$BC3, TRUE)</f>
         <v>10</v>
       </c>
       <c r="BE3" s="4">
@@ -1501,7 +1501,7 @@
     </row>
     <row r="4" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>15</v>
@@ -1516,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F28" si="2">_xlfn.XLOOKUP("Main size", $1:$1, 4:4)+_xlfn.XLOOKUP("Extra size", $1:$1, 4:4)</f>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 4:4)+_xlfn.XLOOKUP("Extra size", $1:$1, 4:4)</f>
         <v>512</v>
       </c>
       <c r="G4" s="10" t="b">
@@ -1667,17 +1667,17 @@
         <v>0</v>
       </c>
       <c r="BD4" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G4:$BC4, "SYS")+COUNTIF($G4:$BC4, TRUE)</f>
         <v>16</v>
       </c>
       <c r="BE4" s="4">
-        <f t="shared" ref="BE4:BE28" si="3">_xlfn.XLOOKUP("Main size", $1:$1, 4:4)/_xlfn.XLOOKUP("Feature count", $1:$1, 4:4)</f>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 4:4)/_xlfn.XLOOKUP("Feature count", $1:$1, 4:4)</f>
         <v>31.75</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -1692,7 +1692,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 5:5)+_xlfn.XLOOKUP("Extra size", $1:$1, 5:5)</f>
         <v>506</v>
       </c>
       <c r="G5" s="10" t="b">
@@ -1843,17 +1843,17 @@
         <v>0</v>
       </c>
       <c r="BD5" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G5:$BC5, "SYS")+COUNTIF($G5:$BC5, TRUE)</f>
         <v>14</v>
       </c>
       <c r="BE5" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 5:5)/_xlfn.XLOOKUP("Feature count", $1:$1, 5:5)</f>
         <v>33.142857142857146</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>3</v>
@@ -1868,7 +1868,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 6:6)+_xlfn.XLOOKUP("Extra size", $1:$1, 6:6)</f>
         <v>300</v>
       </c>
       <c r="G6" s="10" t="b">
@@ -2019,20 +2019,20 @@
         <v>0</v>
       </c>
       <c r="BD6" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G6:$BC6, "SYS")+COUNTIF($G6:$BC6, TRUE)</f>
         <v>8</v>
       </c>
       <c r="BE6" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 6:6)/_xlfn.XLOOKUP("Feature count", $1:$1, 6:6)</f>
         <v>34.25</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 7:7)+_xlfn.XLOOKUP("Extra size", $1:$1, 7:7)</f>
         <v>471</v>
       </c>
       <c r="G7" s="10" t="b">
@@ -2195,17 +2195,17 @@
         <v>0</v>
       </c>
       <c r="BD7" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G7:$BC7, "SYS")+COUNTIF($G7:$BC7, TRUE)</f>
         <v>13</v>
       </c>
       <c r="BE7" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 7:7)/_xlfn.XLOOKUP("Feature count", $1:$1, 7:7)</f>
         <v>36.230769230769234</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>14</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 8:8)+_xlfn.XLOOKUP("Extra size", $1:$1, 8:8)</f>
         <v>251</v>
       </c>
       <c r="G8" s="10" t="b">
@@ -2371,20 +2371,20 @@
         <v>0</v>
       </c>
       <c r="BD8" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G8:$BC8, "SYS")+COUNTIF($G8:$BC8, TRUE)</f>
         <v>6</v>
       </c>
       <c r="BE8" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 8:8)/_xlfn.XLOOKUP("Feature count", $1:$1, 8:8)</f>
         <v>41.833333333333336</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>6</v>
@@ -2396,7 +2396,7 @@
         <v>66</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 9:9)+_xlfn.XLOOKUP("Extra size", $1:$1, 9:9)</f>
         <v>512</v>
       </c>
       <c r="G9" s="10" t="b">
@@ -2547,17 +2547,17 @@
         <v>0</v>
       </c>
       <c r="BD9" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G9:$BC9, "SYS")+COUNTIF($G9:$BC9, TRUE)</f>
         <v>9</v>
       </c>
       <c r="BE9" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 9:9)/_xlfn.XLOOKUP("Feature count", $1:$1, 9:9)</f>
         <v>49.555555555555557</v>
       </c>
     </row>
     <row r="10" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>2</v>
@@ -2572,7 +2572,7 @@
         <v>91</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 10:10)+_xlfn.XLOOKUP("Extra size", $1:$1, 10:10)</f>
         <v>1550</v>
       </c>
       <c r="G10" s="10" t="b">
@@ -2723,20 +2723,20 @@
         <v>0</v>
       </c>
       <c r="BD10" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G10:$BC10, "SYS")+COUNTIF($G10:$BC10, TRUE)</f>
         <v>29</v>
       </c>
       <c r="BE10" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 10:10)/_xlfn.XLOOKUP("Feature count", $1:$1, 10:10)</f>
         <v>50.310344827586206</v>
       </c>
     </row>
     <row r="11" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>6</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 11:11)+_xlfn.XLOOKUP("Extra size", $1:$1, 11:11)</f>
         <v>510</v>
       </c>
       <c r="G11" s="10" t="b">
@@ -2899,20 +2899,20 @@
         <v>0</v>
       </c>
       <c r="BD11" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G11:$BC11, "SYS")+COUNTIF($G11:$BC11, TRUE)</f>
         <v>10</v>
       </c>
       <c r="BE11" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 11:11)/_xlfn.XLOOKUP("Feature count", $1:$1, 11:11)</f>
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>6</v>
@@ -2924,7 +2924,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 12:12)+_xlfn.XLOOKUP("Extra size", $1:$1, 12:12)</f>
         <v>512</v>
       </c>
       <c r="G12" s="10" t="b">
@@ -3075,17 +3075,17 @@
         <v>0</v>
       </c>
       <c r="BD12" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G12:$BC12, "SYS")+COUNTIF($G12:$BC12, TRUE)</f>
         <v>9</v>
       </c>
       <c r="BE12" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 12:12)/_xlfn.XLOOKUP("Feature count", $1:$1, 12:12)</f>
         <v>54.555555555555557</v>
       </c>
     </row>
     <row r="13" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>21</v>
@@ -3094,14 +3094,14 @@
         <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E13" s="3">
         <v>25</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="2"/>
-        <v>255</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 13:13)+_xlfn.XLOOKUP("Extra size", $1:$1, 13:13)</f>
+        <v>252</v>
       </c>
       <c r="G13" s="10" t="b">
         <v>0</v>
@@ -3251,20 +3251,20 @@
         <v>0</v>
       </c>
       <c r="BD13" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G13:$BC13, "SYS")+COUNTIF($G13:$BC13, TRUE)</f>
         <v>4</v>
       </c>
       <c r="BE13" s="4">
-        <f t="shared" si="3"/>
-        <v>57.5</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 13:13)/_xlfn.XLOOKUP("Feature count", $1:$1, 13:13)</f>
+        <v>56.75</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>6</v>
@@ -3276,7 +3276,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 14:14)+_xlfn.XLOOKUP("Extra size", $1:$1, 14:14)</f>
         <v>512</v>
       </c>
       <c r="G14" s="10" t="b">
@@ -3427,17 +3427,17 @@
         <v>0</v>
       </c>
       <c r="BD14" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G14:$BC14, "SYS")+COUNTIF($G14:$BC14, TRUE)</f>
         <v>7</v>
       </c>
       <c r="BE14" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 14:14)/_xlfn.XLOOKUP("Feature count", $1:$1, 14:14)</f>
         <v>63.714285714285715</v>
       </c>
     </row>
     <row r="15" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>30</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 15:15)+_xlfn.XLOOKUP("Extra size", $1:$1, 15:15)</f>
         <v>457</v>
       </c>
       <c r="G15" s="10" t="b">
@@ -3603,17 +3603,17 @@
         <v>0</v>
       </c>
       <c r="BD15" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G15:$BC15, "SYS")+COUNTIF($G15:$BC15, TRUE)</f>
         <v>7</v>
       </c>
       <c r="BE15" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 15:15)/_xlfn.XLOOKUP("Feature count", $1:$1, 15:15)</f>
         <v>65.285714285714292</v>
       </c>
     </row>
     <row r="16" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>12</v>
@@ -3622,14 +3622,14 @@
         <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="E16" s="3">
         <v>234</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="2"/>
-        <v>1506</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 16:16)+_xlfn.XLOOKUP("Extra size", $1:$1, 16:16)</f>
+        <v>1503</v>
       </c>
       <c r="G16" s="10" t="b">
         <v>1</v>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="10" t="b">
         <v>1</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="10" t="b">
         <v>0</v>
@@ -3779,20 +3779,20 @@
         <v>0</v>
       </c>
       <c r="BD16" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G16:$BC16, "SYS")+COUNTIF($G16:$BC16, TRUE)</f>
         <v>18</v>
       </c>
       <c r="BE16" s="4">
-        <f t="shared" si="3"/>
-        <v>70.666666666666671</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 16:16)/_xlfn.XLOOKUP("Feature count", $1:$1, 16:16)</f>
+        <v>70.5</v>
       </c>
     </row>
     <row r="17" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>6</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 17:17)+_xlfn.XLOOKUP("Extra size", $1:$1, 17:17)</f>
         <v>1358</v>
       </c>
       <c r="G17" s="10" t="b">
@@ -3955,20 +3955,20 @@
         <v>0</v>
       </c>
       <c r="BD17" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G17:$BC17, "SYS")+COUNTIF($G17:$BC17, TRUE)</f>
         <v>16</v>
       </c>
       <c r="BE17" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 17:17)/_xlfn.XLOOKUP("Feature count", $1:$1, 17:17)</f>
         <v>84.875</v>
       </c>
     </row>
     <row r="18" spans="1:57" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>6</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 18:18)+_xlfn.XLOOKUP("Extra size", $1:$1, 18:18)</f>
         <v>2048</v>
       </c>
       <c r="G18" s="10" t="b">
@@ -4131,17 +4131,17 @@
         <v>0</v>
       </c>
       <c r="BD18" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G18:$BC18, "SYS")+COUNTIF($G18:$BC18, TRUE)</f>
         <v>21</v>
       </c>
       <c r="BE18" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 18:18)/_xlfn.XLOOKUP("Feature count", $1:$1, 18:18)</f>
         <v>97.523809523809518</v>
       </c>
     </row>
     <row r="19" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>17</v>
@@ -4150,14 +4150,14 @@
         <v>4</v>
       </c>
       <c r="D19" s="3">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="E19" s="3">
         <v>123</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="2"/>
-        <v>1931</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 19:19)+_xlfn.XLOOKUP("Extra size", $1:$1, 19:19)</f>
+        <v>1928</v>
       </c>
       <c r="G19" s="10" t="b">
         <v>1</v>
@@ -4307,20 +4307,20 @@
         <v>0</v>
       </c>
       <c r="BD19" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G19:$BC19, "SYS")+COUNTIF($G19:$BC19, TRUE)</f>
         <v>14</v>
       </c>
       <c r="BE19" s="4">
-        <f t="shared" si="3"/>
-        <v>129.14285714285714</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 19:19)/_xlfn.XLOOKUP("Feature count", $1:$1, 19:19)</f>
+        <v>128.92857142857142</v>
       </c>
     </row>
     <row r="20" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>4</v>
@@ -4332,7 +4332,7 @@
         <v>1024</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 20:20)+_xlfn.XLOOKUP("Extra size", $1:$1, 20:20)</f>
         <v>5040</v>
       </c>
       <c r="G20" s="10" t="b">
@@ -4483,11 +4483,11 @@
         <v>0</v>
       </c>
       <c r="BD20" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G20:$BC20, "SYS")+COUNTIF($G20:$BC20, TRUE)</f>
         <v>30</v>
       </c>
       <c r="BE20" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 20:20)/_xlfn.XLOOKUP("Feature count", $1:$1, 20:20)</f>
         <v>133.86666666666667</v>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 21:21)+_xlfn.XLOOKUP("Extra size", $1:$1, 21:21)</f>
         <v>1896</v>
       </c>
       <c r="G21" s="10" t="b">
@@ -4659,11 +4659,11 @@
         <v>0</v>
       </c>
       <c r="BD21" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G21:$BC21, "SYS")+COUNTIF($G21:$BC21, TRUE)</f>
         <v>14</v>
       </c>
       <c r="BE21" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 21:21)/_xlfn.XLOOKUP("Feature count", $1:$1, 21:21)</f>
         <v>135.42857142857142</v>
       </c>
     </row>
@@ -4672,7 +4672,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>27</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 22:22)+_xlfn.XLOOKUP("Extra size", $1:$1, 22:22)</f>
         <v>2738</v>
       </c>
       <c r="G22" s="10" t="b">
@@ -4835,23 +4835,23 @@
         <v>0</v>
       </c>
       <c r="BD22" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G22:$BC22, "SYS")+COUNTIF($G22:$BC22, TRUE)</f>
         <v>18</v>
       </c>
       <c r="BE22" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 22:22)/_xlfn.XLOOKUP("Feature count", $1:$1, 22:22)</f>
         <v>152.11111111111111</v>
       </c>
     </row>
     <row r="23" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D23" s="3">
         <v>3998</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 23:23)+_xlfn.XLOOKUP("Extra size", $1:$1, 23:23)</f>
         <v>3998</v>
       </c>
       <c r="G23" s="10" t="b">
@@ -5011,11 +5011,11 @@
         <v>0</v>
       </c>
       <c r="BD23" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G23:$BC23, "SYS")+COUNTIF($G23:$BC23, TRUE)</f>
         <v>25</v>
       </c>
       <c r="BE23" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 23:23)/_xlfn.XLOOKUP("Feature count", $1:$1, 23:23)</f>
         <v>159.91999999999999</v>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>5</v>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 24:24)+_xlfn.XLOOKUP("Extra size", $1:$1, 24:24)</f>
         <v>2824</v>
       </c>
       <c r="G24" s="10" t="b">
@@ -5187,20 +5187,20 @@
         <v>0</v>
       </c>
       <c r="BD24" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G24:$BC24, "SYS")+COUNTIF($G24:$BC24, TRUE)</f>
         <v>17</v>
       </c>
       <c r="BE24" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 24:24)/_xlfn.XLOOKUP("Feature count", $1:$1, 24:24)</f>
         <v>166.11764705882354</v>
       </c>
     </row>
     <row r="25" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>4</v>
@@ -5212,7 +5212,7 @@
         <v>100</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 25:25)+_xlfn.XLOOKUP("Extra size", $1:$1, 25:25)</f>
         <v>2810</v>
       </c>
       <c r="G25" s="10" t="b">
@@ -5363,23 +5363,23 @@
         <v>0</v>
       </c>
       <c r="BD25" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G25:$BC25, "SYS")+COUNTIF($G25:$BC25, TRUE)</f>
         <v>16</v>
       </c>
       <c r="BE25" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 25:25)/_xlfn.XLOOKUP("Feature count", $1:$1, 25:25)</f>
         <v>169.375</v>
       </c>
     </row>
     <row r="26" spans="1:57" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D26" s="3">
         <v>4095</v>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)+_xlfn.XLOOKUP("Extra size", $1:$1, 26:26)</f>
         <v>4095</v>
       </c>
       <c r="G26" s="10" t="b">
@@ -5539,23 +5539,23 @@
         <v>0</v>
       </c>
       <c r="BD26" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G26:$BC26, "SYS")+COUNTIF($G26:$BC26, TRUE)</f>
         <v>23</v>
       </c>
       <c r="BE26" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)/_xlfn.XLOOKUP("Feature count", $1:$1, 26:26)</f>
         <v>178.04347826086956</v>
       </c>
     </row>
     <row r="27" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="D27" s="3">
         <v>2882</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 27:27)+_xlfn.XLOOKUP("Extra size", $1:$1, 27:27)</f>
         <v>2882</v>
       </c>
       <c r="G27" s="10" t="b">
@@ -5715,23 +5715,23 @@
         <v>0</v>
       </c>
       <c r="BD27" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G27:$BC27, "SYS")+COUNTIF($G27:$BC27, TRUE)</f>
         <v>16</v>
       </c>
       <c r="BE27" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 27:27)/_xlfn.XLOOKUP("Feature count", $1:$1, 27:27)</f>
         <v>180.125</v>
       </c>
     </row>
     <row r="28" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D28" s="3">
         <v>4002</v>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 28:28)+_xlfn.XLOOKUP("Extra size", $1:$1, 28:28)</f>
         <v>4002</v>
       </c>
       <c r="G28" s="10" t="b">
@@ -5891,11 +5891,11 @@
         <v>1</v>
       </c>
       <c r="BD28" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($G28:$BC28, "SYS")+COUNTIF($G28:$BC28, TRUE)</f>
         <v>21</v>
       </c>
       <c r="BE28" s="4">
-        <f t="shared" si="3"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 28:28)/_xlfn.XLOOKUP("Feature count", $1:$1, 28:28)</f>
         <v>190.57142857142858</v>
       </c>
     </row>
@@ -5981,23 +5981,23 @@
     <hyperlink ref="A5" r:id="rId6" xr:uid="{D6CABB3D-301E-5A48-8390-5B6D8D98891E}"/>
     <hyperlink ref="A6" r:id="rId7" xr:uid="{1EAE54DC-A089-B24E-A04A-825543C48D1A}"/>
     <hyperlink ref="A13" r:id="rId8" xr:uid="{65802411-1B8E-064F-A6D7-DAD404DC6F66}"/>
-    <hyperlink ref="A16" r:id="rId9" xr:uid="{7FBBD806-6032-6042-9A3F-9BB930A440B9}"/>
-    <hyperlink ref="A19" r:id="rId10" xr:uid="{B15F6BAD-35BC-2A4D-A9F9-E3397D6C9F57}"/>
-    <hyperlink ref="A20" r:id="rId11" xr:uid="{A76D4E5E-9C61-C846-BF68-39EA20E19271}"/>
-    <hyperlink ref="A25" r:id="rId12" xr:uid="{271A3F43-6A28-9044-9B77-55CB67E8E604}"/>
-    <hyperlink ref="A27" r:id="rId13" xr:uid="{3319FE9B-1572-7B45-A51A-8631F49908F5}"/>
-    <hyperlink ref="A22" r:id="rId14" xr:uid="{6A5AEB05-49D4-5A43-AC85-14DC910FF378}"/>
-    <hyperlink ref="A15" r:id="rId15" xr:uid="{F4CDBBC8-4471-9C45-8656-76234F7A7EE4}"/>
-    <hyperlink ref="A10" r:id="rId16" xr:uid="{0305B1A2-7666-264C-831F-82265021FFB7}"/>
-    <hyperlink ref="A24" r:id="rId17" xr:uid="{692BC8D6-C410-5A4C-9AC4-692F65427B7C}"/>
-    <hyperlink ref="A26" r:id="rId18" xr:uid="{BE81C522-7811-534B-B250-C27D6ED80E13}"/>
-    <hyperlink ref="A17" r:id="rId19" xr:uid="{080E4C73-46F1-F445-93A2-BDE904141286}"/>
-    <hyperlink ref="A11" r:id="rId20" xr:uid="{F2854865-7589-3148-9BD0-694117F0C02A}"/>
-    <hyperlink ref="A18" r:id="rId21" xr:uid="{7A0C5CE4-FDBB-C142-89E0-609051079143}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{B27A7A0A-1947-624B-A135-AC2E4FA9DCDF}"/>
-    <hyperlink ref="A7" r:id="rId23" xr:uid="{0C291FB0-BA8C-E141-98A4-91A6B6DD9884}"/>
-    <hyperlink ref="A9" r:id="rId24" xr:uid="{2F1BE129-94F7-DB45-B74A-D5DECFC8BD1F}"/>
-    <hyperlink ref="A12" r:id="rId25" xr:uid="{8DAB0B02-5401-BF46-90F9-B2B728905C99}"/>
+    <hyperlink ref="A19" r:id="rId9" xr:uid="{B15F6BAD-35BC-2A4D-A9F9-E3397D6C9F57}"/>
+    <hyperlink ref="A20" r:id="rId10" xr:uid="{A76D4E5E-9C61-C846-BF68-39EA20E19271}"/>
+    <hyperlink ref="A25" r:id="rId11" xr:uid="{271A3F43-6A28-9044-9B77-55CB67E8E604}"/>
+    <hyperlink ref="A27" r:id="rId12" xr:uid="{3319FE9B-1572-7B45-A51A-8631F49908F5}"/>
+    <hyperlink ref="A22" r:id="rId13" xr:uid="{6A5AEB05-49D4-5A43-AC85-14DC910FF378}"/>
+    <hyperlink ref="A10" r:id="rId14" xr:uid="{0305B1A2-7666-264C-831F-82265021FFB7}"/>
+    <hyperlink ref="A24" r:id="rId15" xr:uid="{692BC8D6-C410-5A4C-9AC4-692F65427B7C}"/>
+    <hyperlink ref="A26" r:id="rId16" xr:uid="{BE81C522-7811-534B-B250-C27D6ED80E13}"/>
+    <hyperlink ref="A11" r:id="rId17" xr:uid="{F2854865-7589-3148-9BD0-694117F0C02A}"/>
+    <hyperlink ref="A18" r:id="rId18" xr:uid="{7A0C5CE4-FDBB-C142-89E0-609051079143}"/>
+    <hyperlink ref="A23" r:id="rId19" xr:uid="{B27A7A0A-1947-624B-A135-AC2E4FA9DCDF}"/>
+    <hyperlink ref="A7" r:id="rId20" xr:uid="{0C291FB0-BA8C-E141-98A4-91A6B6DD9884}"/>
+    <hyperlink ref="A9" r:id="rId21" xr:uid="{2F1BE129-94F7-DB45-B74A-D5DECFC8BD1F}"/>
+    <hyperlink ref="A12" r:id="rId22" xr:uid="{8DAB0B02-5401-BF46-90F9-B2B728905C99}"/>
+    <hyperlink ref="A15" r:id="rId23" xr:uid="{BBFDB1C2-F4D5-9F4F-9AB4-84F69F8E341F}"/>
+    <hyperlink ref="A16" r:id="rId24" xr:uid="{47C1315B-4443-9B43-9DB9-33643DFA677C}"/>
+    <hyperlink ref="A17" r:id="rId25" xr:uid="{C77570FF-B176-1F4E-AC94-8C167340C676}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tetris-4k-archive.xlsx
+++ b/tetris-4k-archive.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/493d989091475df7/Personal/GitHub/tetris4karchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="397" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B0F1385-463D-CB48-AA2F-AC09E5997C7E}"/>
+  <xr:revisionPtr revIDLastSave="526" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33611244-5C0C-EC42-AD36-B52C09D9A1CA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21140" xr2:uid="{F4EAB821-2EDC-3446-8812-752F41EB9B28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{F4EAB821-2EDC-3446-8812-752F41EB9B28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$BE$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$BF$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
   <si>
     <t>Url</t>
   </si>
   <si>
-    <t>https://ticalc.org/archives/files/fileinfo/371/37183.html</t>
-  </si>
-  <si>
     <t>Nice Zombies</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Arek Michowski</t>
   </si>
   <si>
-    <t>http://sebastianmihai.com/asmtris.html</t>
-  </si>
-  <si>
     <t>Sebastian Mihai</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>Mathieu Henri</t>
   </si>
   <si>
-    <t>SFX</t>
-  </si>
-  <si>
     <t>Retry</t>
   </si>
   <si>
@@ -125,18 +116,12 @@
     <t>Pascal</t>
   </si>
   <si>
-    <t>https://codegolf.stackexchange.com/a/11548/120787</t>
-  </si>
-  <si>
     <t>Python</t>
   </si>
   <si>
     <t>notjagan</t>
   </si>
   <si>
-    <t>https://codegolf.stackexchange.com/a/11650/120787</t>
-  </si>
-  <si>
     <t>mniip</t>
   </si>
   <si>
@@ -158,18 +143,9 @@
     <t>shikhin</t>
   </si>
   <si>
-    <t>https://codegolf.stackexchange.com/a/167445/120787</t>
-  </si>
-  <si>
     <t>Andrew March</t>
   </si>
   <si>
-    <t>https://github.com/michowski/tetris-light</t>
-  </si>
-  <si>
-    <t>https://github.com/ttencate/tis</t>
-  </si>
-  <si>
     <t>Petr Blahos</t>
   </si>
   <si>
@@ -179,15 +155,9 @@
     <t>Shadows</t>
   </si>
   <si>
-    <t>https://github.com/netspooky/hardcode/tree/master/04096/java/t4k</t>
-  </si>
-  <si>
     <t>flub</t>
   </si>
   <si>
-    <t>https://github.com/netspooky/hardcode/tree/master/04096/java/tetris</t>
-  </si>
-  <si>
     <t>wiesi</t>
   </si>
   <si>
@@ -239,9 +209,6 @@
     <t>Line clear points</t>
   </si>
   <si>
-    <t>Next queue</t>
-  </si>
-  <si>
     <t>Hard drop</t>
   </si>
   <si>
@@ -281,9 +248,6 @@
     <t>Easter eggs</t>
   </si>
   <si>
-    <t>Hold queue</t>
-  </si>
-  <si>
     <t>Height selection</t>
   </si>
   <si>
@@ -338,9 +302,6 @@
     <t>https://nineteendo.github.io/tetris4karchive/binary-tetris</t>
   </si>
   <si>
-    <t>https://nineteendo.github.io/tetris4karchive/tetros105</t>
-  </si>
-  <si>
     <t>https://nineteendo.github.io/tetris4karchive/mini-tetris</t>
   </si>
   <si>
@@ -350,12 +311,6 @@
     <t>https://nineteendo.github.io/tetris4karchive/tinytris</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20201007111205/https://sites.google.com/site/petrsstuff/projects/4ktris</t>
-  </si>
-  <si>
-    <t>https://playdosgames.com/online/smalltetris</t>
-  </si>
-  <si>
     <t>Daniel Etzold</t>
   </si>
   <si>
@@ -390,6 +345,51 @@
   </si>
   <si>
     <t>https://nineteendo.github.io/tetris4karchive/1.32kb-tetris</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/tetros-v105</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/small-tetris</t>
+  </si>
+  <si>
+    <t>Hold piece</t>
+  </si>
+  <si>
+    <t>Piece preview</t>
+  </si>
+  <si>
+    <t>Piece preview selection</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/tetris-light</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/tis</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/asmtris</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/another-tetris-4k</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/tetris-2</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/tetris-3</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/tetris-4</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/tetris-5</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/4k-tris</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/tetris-4k</t>
   </si>
 </sst>
 </file>
@@ -919,205 +919,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8512C64C-DE47-334B-AE0C-39DDD4F96E15}">
-  <dimension ref="A1:BF28"/>
+  <dimension ref="A1:BG28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B2:B16"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1640625" customWidth="1"/>
-    <col min="14" max="41" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="6.1640625" customWidth="1"/>
-    <col min="45" max="54" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.1640625" customWidth="1"/>
-    <col min="56" max="56" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="108" width="10.83203125" customWidth="1"/>
+    <col min="4" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="42" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="6.1640625" customWidth="1"/>
+    <col min="47" max="55" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="6.1640625" customWidth="1"/>
+    <col min="57" max="57" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="109" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="1" customFormat="1" ht="104" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="104" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="U1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AL1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AO1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AR1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1129,7 +1130,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:BC2" si="0">COUNTIF(H$3:H$28, "SYS")+COUNTIF(H$3:H$28, TRUE)</f>
+        <f t="shared" ref="H2:BD2" si="0">COUNTIF(H$3:H$28, "SYS")+COUNTIF(H$3:H$28, TRUE)</f>
         <v>25</v>
       </c>
       <c r="I2" s="6">
@@ -1146,7 +1147,7 @@
       </c>
       <c r="L2" s="6">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="6">
         <f t="shared" si="0"/>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="AP2" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ2" s="6">
         <f t="shared" si="0"/>
@@ -1278,11 +1279,11 @@
       </c>
       <c r="AS2" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="6">
         <f t="shared" si="0"/>
@@ -1294,23 +1295,23 @@
       </c>
       <c r="AW2" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY2" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB2" s="6">
         <f t="shared" si="0"/>
@@ -1320,18 +1321,22 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BD2" s="6"/>
+      <c r="BD2" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
     </row>
-    <row r="3" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3">
         <v>304</v>
@@ -1356,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L3" s="10" t="b">
         <v>1</v>
@@ -1365,13 +1370,13 @@
         <v>1</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O3" s="10" t="b">
         <v>1</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="10" t="b">
         <v>0</v>
@@ -1490,24 +1495,27 @@
       <c r="BC3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD3" s="9">
-        <f>COUNTIF($G3:$BC3, "SYS")+COUNTIF($G3:$BC3, TRUE)</f>
+      <c r="BD3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="9">
+        <f>COUNTIF($G3:$BD3, "SYS")+COUNTIF($G3:$BD3, TRUE)</f>
         <v>10</v>
       </c>
-      <c r="BE3" s="4">
+      <c r="BF3" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 3:3)/_xlfn.XLOOKUP("Feature count", $1:$1, 3:3)</f>
         <v>30.4</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
         <v>508</v>
@@ -1666,24 +1674,27 @@
       <c r="BC4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD4" s="9">
-        <f>COUNTIF($G4:$BC4, "SYS")+COUNTIF($G4:$BC4, TRUE)</f>
+      <c r="BD4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="9">
+        <f>COUNTIF($G4:$BD4, "SYS")+COUNTIF($G4:$BD4, TRUE)</f>
         <v>16</v>
       </c>
-      <c r="BE4" s="4">
+      <c r="BF4" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 4:4)/_xlfn.XLOOKUP("Feature count", $1:$1, 4:4)</f>
         <v>31.75</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
         <v>464</v>
@@ -1708,22 +1719,22 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O5" s="10" t="b">
         <v>0</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="10" t="b">
         <v>1</v>
@@ -1842,24 +1853,27 @@
       <c r="BC5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD5" s="9">
-        <f>COUNTIF($G5:$BC5, "SYS")+COUNTIF($G5:$BC5, TRUE)</f>
+      <c r="BD5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="9">
+        <f>COUNTIF($G5:$BD5, "SYS")+COUNTIF($G5:$BD5, TRUE)</f>
         <v>14</v>
       </c>
-      <c r="BE5" s="4">
+      <c r="BF5" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 5:5)/_xlfn.XLOOKUP("Feature count", $1:$1, 5:5)</f>
         <v>33.142857142857146</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="D6" s="3">
         <v>274</v>
@@ -1884,22 +1898,22 @@
         <v>0</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L6" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O6" s="10" t="b">
         <v>1</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="10" t="b">
         <v>0</v>
@@ -2018,24 +2032,27 @@
       <c r="BC6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD6" s="9">
-        <f>COUNTIF($G6:$BC6, "SYS")+COUNTIF($G6:$BC6, TRUE)</f>
+      <c r="BD6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="9">
+        <f>COUNTIF($G6:$BD6, "SYS")+COUNTIF($G6:$BD6, TRUE)</f>
         <v>8</v>
       </c>
-      <c r="BE6" s="4">
+      <c r="BF6" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 6:6)/_xlfn.XLOOKUP("Feature count", $1:$1, 6:6)</f>
         <v>34.25</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
         <v>471</v>
@@ -2194,24 +2211,27 @@
       <c r="BC7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD7" s="9">
-        <f>COUNTIF($G7:$BC7, "SYS")+COUNTIF($G7:$BC7, TRUE)</f>
+      <c r="BD7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="9">
+        <f>COUNTIF($G7:$BD7, "SYS")+COUNTIF($G7:$BD7, TRUE)</f>
         <v>13</v>
       </c>
-      <c r="BE7" s="4">
+      <c r="BF7" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 7:7)/_xlfn.XLOOKUP("Feature count", $1:$1, 7:7)</f>
         <v>36.230769230769234</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3">
         <v>251</v>
@@ -2370,24 +2390,27 @@
       <c r="BC8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD8" s="9">
-        <f>COUNTIF($G8:$BC8, "SYS")+COUNTIF($G8:$BC8, TRUE)</f>
+      <c r="BD8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="9">
+        <f>COUNTIF($G8:$BD8, "SYS")+COUNTIF($G8:$BD8, TRUE)</f>
         <v>6</v>
       </c>
-      <c r="BE8" s="4">
+      <c r="BF8" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 8:8)/_xlfn.XLOOKUP("Feature count", $1:$1, 8:8)</f>
         <v>41.833333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>446</v>
@@ -2546,24 +2569,27 @@
       <c r="BC9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD9" s="9">
-        <f>COUNTIF($G9:$BC9, "SYS")+COUNTIF($G9:$BC9, TRUE)</f>
+      <c r="BD9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="9">
+        <f>COUNTIF($G9:$BD9, "SYS")+COUNTIF($G9:$BD9, TRUE)</f>
         <v>9</v>
       </c>
-      <c r="BE9" s="4">
+      <c r="BF9" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 9:9)/_xlfn.XLOOKUP("Feature count", $1:$1, 9:9)</f>
         <v>49.555555555555557</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3">
         <v>1459</v>
@@ -2722,24 +2748,27 @@
       <c r="BC10" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD10" s="9">
-        <f>COUNTIF($G10:$BC10, "SYS")+COUNTIF($G10:$BC10, TRUE)</f>
+      <c r="BD10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="9">
+        <f>COUNTIF($G10:$BD10, "SYS")+COUNTIF($G10:$BD10, TRUE)</f>
         <v>29</v>
       </c>
-      <c r="BE10" s="4">
+      <c r="BF10" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 10:10)/_xlfn.XLOOKUP("Feature count", $1:$1, 10:10)</f>
         <v>50.310344827586206</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
         <v>510</v>
@@ -2898,24 +2927,27 @@
       <c r="BC11" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD11" s="9">
-        <f>COUNTIF($G11:$BC11, "SYS")+COUNTIF($G11:$BC11, TRUE)</f>
+      <c r="BD11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="9">
+        <f>COUNTIF($G11:$BD11, "SYS")+COUNTIF($G11:$BD11, TRUE)</f>
         <v>10</v>
       </c>
-      <c r="BE11" s="4">
+      <c r="BF11" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 11:11)/_xlfn.XLOOKUP("Feature count", $1:$1, 11:11)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3">
         <v>491</v>
@@ -3074,24 +3106,27 @@
       <c r="BC12" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD12" s="9">
-        <f>COUNTIF($G12:$BC12, "SYS")+COUNTIF($G12:$BC12, TRUE)</f>
+      <c r="BD12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="9">
+        <f>COUNTIF($G12:$BD12, "SYS")+COUNTIF($G12:$BD12, TRUE)</f>
         <v>9</v>
       </c>
-      <c r="BE12" s="4">
+      <c r="BF12" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 12:12)/_xlfn.XLOOKUP("Feature count", $1:$1, 12:12)</f>
         <v>54.555555555555557</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3">
         <v>227</v>
@@ -3116,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L13" s="10" t="b">
         <v>0</v>
@@ -3125,13 +3160,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O13" s="10" t="b">
         <v>0</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="10" t="b">
         <v>0</v>
@@ -3250,24 +3285,27 @@
       <c r="BC13" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD13" s="9">
-        <f>COUNTIF($G13:$BC13, "SYS")+COUNTIF($G13:$BC13, TRUE)</f>
+      <c r="BD13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="9">
+        <f>COUNTIF($G13:$BD13, "SYS")+COUNTIF($G13:$BD13, TRUE)</f>
         <v>4</v>
       </c>
-      <c r="BE13" s="4">
+      <c r="BF13" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 13:13)/_xlfn.XLOOKUP("Feature count", $1:$1, 13:13)</f>
         <v>56.75</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="3">
         <v>446</v>
@@ -3426,24 +3464,27 @@
       <c r="BC14" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD14" s="9">
-        <f>COUNTIF($G14:$BC14, "SYS")+COUNTIF($G14:$BC14, TRUE)</f>
+      <c r="BD14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="9">
+        <f>COUNTIF($G14:$BD14, "SYS")+COUNTIF($G14:$BD14, TRUE)</f>
         <v>7</v>
       </c>
-      <c r="BE14" s="4">
+      <c r="BF14" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 14:14)/_xlfn.XLOOKUP("Feature count", $1:$1, 14:14)</f>
         <v>63.714285714285715</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3">
         <v>457</v>
@@ -3477,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O15" s="10" t="b">
         <v>1</v>
@@ -3602,24 +3643,27 @@
       <c r="BC15" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD15" s="9">
-        <f>COUNTIF($G15:$BC15, "SYS")+COUNTIF($G15:$BC15, TRUE)</f>
+      <c r="BD15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="9">
+        <f>COUNTIF($G15:$BD15, "SYS")+COUNTIF($G15:$BD15, TRUE)</f>
         <v>7</v>
       </c>
-      <c r="BE15" s="4">
+      <c r="BF15" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 15:15)/_xlfn.XLOOKUP("Feature count", $1:$1, 15:15)</f>
         <v>65.285714285714292</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
         <v>1269</v>
@@ -3644,22 +3688,22 @@
         <v>1</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L16" s="10" t="b">
         <v>1</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O16" s="10" t="b">
         <v>1</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="10" t="b">
         <v>1</v>
@@ -3778,24 +3822,27 @@
       <c r="BC16" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD16" s="9">
-        <f>COUNTIF($G16:$BC16, "SYS")+COUNTIF($G16:$BC16, TRUE)</f>
+      <c r="BD16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="9">
+        <f>COUNTIF($G16:$BD16, "SYS")+COUNTIF($G16:$BD16, TRUE)</f>
         <v>18</v>
       </c>
-      <c r="BE16" s="4">
+      <c r="BF16" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 16:16)/_xlfn.XLOOKUP("Feature count", $1:$1, 16:16)</f>
         <v>70.5</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
         <v>1358</v>
@@ -3916,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17" s="10" t="b">
         <v>0</v>
@@ -3954,24 +4001,27 @@
       <c r="BC17" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD17" s="9">
-        <f>COUNTIF($G17:$BC17, "SYS")+COUNTIF($G17:$BC17, TRUE)</f>
-        <v>16</v>
-      </c>
-      <c r="BE17" s="4">
+      <c r="BD17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="9">
+        <f>COUNTIF($G17:$BD17, "SYS")+COUNTIF($G17:$BD17, TRUE)</f>
+        <v>17</v>
+      </c>
+      <c r="BF17" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 17:17)/_xlfn.XLOOKUP("Feature count", $1:$1, 17:17)</f>
-        <v>84.875</v>
+        <v>79.882352941176464</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3">
         <v>2048</v>
@@ -4092,16 +4142,16 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AS18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="10" t="b">
         <v>0</v>
@@ -4130,24 +4180,27 @@
       <c r="BC18" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD18" s="9">
-        <f>COUNTIF($G18:$BC18, "SYS")+COUNTIF($G18:$BC18, TRUE)</f>
-        <v>21</v>
-      </c>
-      <c r="BE18" s="4">
+      <c r="BD18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="9">
+        <f>COUNTIF($G18:$BD18, "SYS")+COUNTIF($G18:$BD18, TRUE)</f>
+        <v>22</v>
+      </c>
+      <c r="BF18" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 18:18)/_xlfn.XLOOKUP("Feature count", $1:$1, 18:18)</f>
-        <v>97.523809523809518</v>
+        <v>93.090909090909093</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
         <v>1805</v>
@@ -4172,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L19" s="10" t="b">
         <v>1</v>
@@ -4181,13 +4234,13 @@
         <v>1</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O19" s="10" t="b">
         <v>1</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="10" t="b">
         <v>1</v>
@@ -4265,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="10" t="b">
         <v>0</v>
@@ -4306,24 +4359,27 @@
       <c r="BC19" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD19" s="9">
-        <f>COUNTIF($G19:$BC19, "SYS")+COUNTIF($G19:$BC19, TRUE)</f>
-        <v>14</v>
-      </c>
-      <c r="BE19" s="4">
+      <c r="BD19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="9">
+        <f>COUNTIF($G19:$BD19, "SYS")+COUNTIF($G19:$BD19, TRUE)</f>
+        <v>15</v>
+      </c>
+      <c r="BF19" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 19:19)/_xlfn.XLOOKUP("Feature count", $1:$1, 19:19)</f>
-        <v>128.92857142857142</v>
+        <v>120.33333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
         <v>4016</v>
@@ -4354,16 +4410,16 @@
         <v>1</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O20" s="10" t="b">
         <v>1</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="10" t="b">
         <v>1</v>
@@ -4450,10 +4506,10 @@
         <v>0</v>
       </c>
       <c r="AS20" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="10" t="b">
         <v>1</v>
@@ -4468,10 +4524,10 @@
         <v>1</v>
       </c>
       <c r="AY20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="10" t="b">
         <v>0</v>
@@ -4482,24 +4538,27 @@
       <c r="BC20" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD20" s="9">
-        <f>COUNTIF($G20:$BC20, "SYS")+COUNTIF($G20:$BC20, TRUE)</f>
+      <c r="BD20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="9">
+        <f>COUNTIF($G20:$BD20, "SYS")+COUNTIF($G20:$BD20, TRUE)</f>
         <v>30</v>
       </c>
-      <c r="BE20" s="4">
+      <c r="BF20" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 20:20)/_xlfn.XLOOKUP("Feature count", $1:$1, 20:20)</f>
         <v>133.86666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
         <v>1896</v>
@@ -4626,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="AS21" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AU21" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV21" s="10" t="b">
         <v>0</v>
@@ -4644,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="AY21" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="10" t="b">
         <v>0</v>
       </c>
       <c r="BA21" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="10" t="b">
         <v>0</v>
@@ -4658,210 +4717,216 @@
       <c r="BC21" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD21" s="9">
-        <f>COUNTIF($G21:$BC21, "SYS")+COUNTIF($G21:$BC21, TRUE)</f>
+      <c r="BD21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="9">
+        <f>COUNTIF($G21:$BD21, "SYS")+COUNTIF($G21:$BD21, TRUE)</f>
         <v>14</v>
       </c>
-      <c r="BE21" s="4">
+      <c r="BF21" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 21:21)/_xlfn.XLOOKUP("Feature count", $1:$1, 21:21)</f>
         <v>135.42857142857142</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D22" s="3">
-        <v>2738</v>
+        <v>3998</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 22:22)+_xlfn.XLOOKUP("Extra size", $1:$1, 22:22)</f>
+        <v>3998</v>
+      </c>
+      <c r="G22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="9">
+        <f>COUNTIF($G22:$BD22, "SYS")+COUNTIF($G22:$BD22, TRUE)</f>
+        <v>25</v>
+      </c>
+      <c r="BF22" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 22:22)/_xlfn.XLOOKUP("Feature count", $1:$1, 22:22)</f>
+        <v>159.91999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3">
         <v>2738</v>
-      </c>
-      <c r="G22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="X22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="9">
-        <f>COUNTIF($G22:$BC22, "SYS")+COUNTIF($G22:$BC22, TRUE)</f>
-        <v>18</v>
-      </c>
-      <c r="BE22" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 22:22)/_xlfn.XLOOKUP("Feature count", $1:$1, 22:22)</f>
-        <v>152.11111111111111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:57" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3998</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 23:23)+_xlfn.XLOOKUP("Extra size", $1:$1, 23:23)</f>
-        <v>3998</v>
+        <v>2738</v>
       </c>
       <c r="G23" s="10" t="b">
         <v>1</v>
@@ -4875,20 +4940,20 @@
       <c r="J23" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>25</v>
+      <c r="K23" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="L23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="10" t="b">
         <v>0</v>
@@ -4927,19 +4992,19 @@
         <v>1</v>
       </c>
       <c r="AB23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AE23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="10" t="b">
         <v>0</v>
@@ -4966,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="AO23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="10" t="b">
         <v>0</v>
@@ -4981,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="AT23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="10" t="b">
         <v>0</v>
@@ -4999,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="10" t="b">
         <v>0</v>
@@ -5010,24 +5075,27 @@
       <c r="BC23" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD23" s="9">
-        <f>COUNTIF($G23:$BC23, "SYS")+COUNTIF($G23:$BC23, TRUE)</f>
-        <v>25</v>
-      </c>
-      <c r="BE23" s="4">
+      <c r="BD23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="9">
+        <f>COUNTIF($G23:$BD23, "SYS")+COUNTIF($G23:$BD23, TRUE)</f>
+        <v>17</v>
+      </c>
+      <c r="BF23" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 23:23)/_xlfn.XLOOKUP("Feature count", $1:$1, 23:23)</f>
-        <v>159.91999999999999</v>
+        <v>161.05882352941177</v>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3">
         <v>2824</v>
@@ -5186,34 +5254,37 @@
       <c r="BC24" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD24" s="9">
-        <f>COUNTIF($G24:$BC24, "SYS")+COUNTIF($G24:$BC24, TRUE)</f>
+      <c r="BD24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="9">
+        <f>COUNTIF($G24:$BD24, "SYS")+COUNTIF($G24:$BD24, TRUE)</f>
         <v>17</v>
       </c>
-      <c r="BE24" s="4">
+      <c r="BF24" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 24:24)/_xlfn.XLOOKUP("Feature count", $1:$1, 24:24)</f>
         <v>166.11764705882354</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3">
-        <v>2710</v>
+        <v>2882</v>
       </c>
       <c r="E25" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 25:25)+_xlfn.XLOOKUP("Extra size", $1:$1, 25:25)</f>
-        <v>2810</v>
+        <v>2882</v>
       </c>
       <c r="G25" s="10" t="b">
         <v>1</v>
@@ -5228,22 +5299,22 @@
         <v>1</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L25" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="M25" s="10" t="s">
-        <v>25</v>
+      <c r="M25" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="P25" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="Q25" s="10" t="b">
         <v>1</v>
@@ -5255,13 +5326,13 @@
         <v>1</v>
       </c>
       <c r="T25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="10" t="b">
         <v>0</v>
@@ -5276,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="AA25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="10" t="b">
         <v>0</v>
@@ -5288,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="10" t="b">
         <v>0</v>
@@ -5330,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="10" t="b">
         <v>0</v>
@@ -5362,210 +5433,216 @@
       <c r="BC25" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BD25" s="9">
-        <f>COUNTIF($G25:$BC25, "SYS")+COUNTIF($G25:$BC25, TRUE)</f>
+      <c r="BD25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="9">
+        <f>COUNTIF($G25:$BD25, "SYS")+COUNTIF($G25:$BD25, TRUE)</f>
         <v>16</v>
       </c>
-      <c r="BE25" s="4">
+      <c r="BF25" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 25:25)/_xlfn.XLOOKUP("Feature count", $1:$1, 25:25)</f>
-        <v>169.375</v>
+        <v>180.125</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>4095</v>
+        <v>2710</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)+_xlfn.XLOOKUP("Extra size", $1:$1, 26:26)</f>
+        <v>2810</v>
+      </c>
+      <c r="G26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="9">
+        <f>COUNTIF($G26:$BD26, "SYS")+COUNTIF($G26:$BD26, TRUE)</f>
+        <v>15</v>
+      </c>
+      <c r="BF26" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)/_xlfn.XLOOKUP("Feature count", $1:$1, 26:26)</f>
+        <v>180.66666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3">
         <v>4095</v>
-      </c>
-      <c r="G26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD26" s="9">
-        <f>COUNTIF($G26:$BC26, "SYS")+COUNTIF($G26:$BC26, TRUE)</f>
-        <v>23</v>
-      </c>
-      <c r="BE26" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)/_xlfn.XLOOKUP("Feature count", $1:$1, 26:26)</f>
-        <v>178.04347826086956</v>
-      </c>
-    </row>
-    <row r="27" spans="1:57" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2882</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 27:27)+_xlfn.XLOOKUP("Extra size", $1:$1, 27:27)</f>
-        <v>2882</v>
+        <v>4095</v>
       </c>
       <c r="G27" s="10" t="b">
         <v>1</v>
@@ -5580,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L27" s="10" t="b">
         <v>1</v>
@@ -5589,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O27" s="10" t="b">
         <v>0</v>
@@ -5637,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="AD27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" s="10" t="b">
         <v>0</v>
@@ -5646,10 +5723,10 @@
         <v>0</v>
       </c>
       <c r="AG27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI27" s="10" t="b">
         <v>0</v>
@@ -5697,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AX27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27" s="10" t="b">
         <v>0</v>
@@ -5706,32 +5783,35 @@
         <v>0</v>
       </c>
       <c r="BA27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="10" t="b">
         <v>0</v>
       </c>
       <c r="BC27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD27" s="9">
-        <f>COUNTIF($G27:$BC27, "SYS")+COUNTIF($G27:$BC27, TRUE)</f>
-        <v>16</v>
-      </c>
-      <c r="BE27" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="9">
+        <f>COUNTIF($G27:$BD27, "SYS")+COUNTIF($G27:$BD27, TRUE)</f>
+        <v>22</v>
+      </c>
+      <c r="BF27" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 27:27)/_xlfn.XLOOKUP("Feature count", $1:$1, 27:27)</f>
-        <v>180.125</v>
+        <v>186.13636363636363</v>
       </c>
     </row>
-    <row r="28" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D28" s="3">
         <v>4002</v>
@@ -5765,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O28" s="10" t="b">
         <v>1</v>
@@ -5849,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="10" t="b">
         <v>0</v>
@@ -5879,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="10" t="b">
         <v>0</v>
@@ -5888,21 +5968,24 @@
         <v>0</v>
       </c>
       <c r="BC28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD28" s="9">
-        <f>COUNTIF($G28:$BC28, "SYS")+COUNTIF($G28:$BC28, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="BD28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="9">
+        <f>COUNTIF($G28:$BD28, "SYS")+COUNTIF($G28:$BD28, TRUE)</f>
         <v>21</v>
       </c>
-      <c r="BE28" s="4">
+      <c r="BF28" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 28:28)/_xlfn.XLOOKUP("Feature count", $1:$1, 28:28)</f>
         <v>190.57142857142858</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BE28" xr:uid="{8512C64C-DE47-334B-AE0C-39DDD4F96E15}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BE28">
-      <sortCondition ref="BE2:BE28"/>
+  <autoFilter ref="A2:BF28" xr:uid="{8512C64C-DE47-334B-AE0C-39DDD4F96E15}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BF28">
+      <sortCondition ref="BF2:BF28"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5941,7 +6024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:BC28">
+  <conditionalFormatting sqref="G3:BD28">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -5952,7 +6035,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD3:BD28">
+  <conditionalFormatting sqref="BE3:BE28">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5962,7 +6045,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:BE28">
+  <conditionalFormatting sqref="BF3:BF28">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5973,31 +6056,32 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{76EB020E-CC71-B148-9424-BB7A1349A5E9}"/>
-    <hyperlink ref="A8" r:id="rId2" xr:uid="{022DC04F-D95A-7246-8451-7C3BA522CD1C}"/>
-    <hyperlink ref="A14" r:id="rId3" xr:uid="{8B9F4BC6-14C6-4345-BA9C-9D9C8BC6C54A}"/>
-    <hyperlink ref="A21" r:id="rId4" xr:uid="{1A073B5B-BE69-9E43-BB31-2AC1F74931C7}"/>
-    <hyperlink ref="A3" r:id="rId5" xr:uid="{469B8618-6944-6746-99BB-8FB17F692A90}"/>
-    <hyperlink ref="A5" r:id="rId6" xr:uid="{D6CABB3D-301E-5A48-8390-5B6D8D98891E}"/>
-    <hyperlink ref="A6" r:id="rId7" xr:uid="{1EAE54DC-A089-B24E-A04A-825543C48D1A}"/>
-    <hyperlink ref="A13" r:id="rId8" xr:uid="{65802411-1B8E-064F-A6D7-DAD404DC6F66}"/>
-    <hyperlink ref="A19" r:id="rId9" xr:uid="{B15F6BAD-35BC-2A4D-A9F9-E3397D6C9F57}"/>
-    <hyperlink ref="A20" r:id="rId10" xr:uid="{A76D4E5E-9C61-C846-BF68-39EA20E19271}"/>
-    <hyperlink ref="A25" r:id="rId11" xr:uid="{271A3F43-6A28-9044-9B77-55CB67E8E604}"/>
-    <hyperlink ref="A27" r:id="rId12" xr:uid="{3319FE9B-1572-7B45-A51A-8631F49908F5}"/>
-    <hyperlink ref="A22" r:id="rId13" xr:uid="{6A5AEB05-49D4-5A43-AC85-14DC910FF378}"/>
-    <hyperlink ref="A10" r:id="rId14" xr:uid="{0305B1A2-7666-264C-831F-82265021FFB7}"/>
-    <hyperlink ref="A24" r:id="rId15" xr:uid="{692BC8D6-C410-5A4C-9AC4-692F65427B7C}"/>
-    <hyperlink ref="A26" r:id="rId16" xr:uid="{BE81C522-7811-534B-B250-C27D6ED80E13}"/>
+    <hyperlink ref="A14" r:id="rId1" xr:uid="{8B9F4BC6-14C6-4345-BA9C-9D9C8BC6C54A}"/>
+    <hyperlink ref="A19" r:id="rId2" xr:uid="{B15F6BAD-35BC-2A4D-A9F9-E3397D6C9F57}"/>
+    <hyperlink ref="A20" r:id="rId3" xr:uid="{A76D4E5E-9C61-C846-BF68-39EA20E19271}"/>
+    <hyperlink ref="A26" r:id="rId4" xr:uid="{271A3F43-6A28-9044-9B77-55CB67E8E604}"/>
+    <hyperlink ref="A25" r:id="rId5" xr:uid="{3319FE9B-1572-7B45-A51A-8631F49908F5}"/>
+    <hyperlink ref="A23" r:id="rId6" xr:uid="{6A5AEB05-49D4-5A43-AC85-14DC910FF378}"/>
+    <hyperlink ref="A24" r:id="rId7" xr:uid="{692BC8D6-C410-5A4C-9AC4-692F65427B7C}"/>
+    <hyperlink ref="A27" r:id="rId8" xr:uid="{BE81C522-7811-534B-B250-C27D6ED80E13}"/>
+    <hyperlink ref="A18" r:id="rId9" xr:uid="{7A0C5CE4-FDBB-C142-89E0-609051079143}"/>
+    <hyperlink ref="A22" r:id="rId10" xr:uid="{B27A7A0A-1947-624B-A135-AC2E4FA9DCDF}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{BBFDB1C2-F4D5-9F4F-9AB4-84F69F8E341F}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{47C1315B-4443-9B43-9DB9-33643DFA677C}"/>
+    <hyperlink ref="A17" r:id="rId13" xr:uid="{C77570FF-B176-1F4E-AC94-8C167340C676}"/>
+    <hyperlink ref="A21" r:id="rId14" xr:uid="{1A073B5B-BE69-9E43-BB31-2AC1F74931C7}"/>
+    <hyperlink ref="A13" r:id="rId15" xr:uid="{65802411-1B8E-064F-A6D7-DAD404DC6F66}"/>
+    <hyperlink ref="A12" r:id="rId16" xr:uid="{8DAB0B02-5401-BF46-90F9-B2B728905C99}"/>
     <hyperlink ref="A11" r:id="rId17" xr:uid="{F2854865-7589-3148-9BD0-694117F0C02A}"/>
-    <hyperlink ref="A18" r:id="rId18" xr:uid="{7A0C5CE4-FDBB-C142-89E0-609051079143}"/>
-    <hyperlink ref="A23" r:id="rId19" xr:uid="{B27A7A0A-1947-624B-A135-AC2E4FA9DCDF}"/>
-    <hyperlink ref="A7" r:id="rId20" xr:uid="{0C291FB0-BA8C-E141-98A4-91A6B6DD9884}"/>
-    <hyperlink ref="A9" r:id="rId21" xr:uid="{2F1BE129-94F7-DB45-B74A-D5DECFC8BD1F}"/>
-    <hyperlink ref="A12" r:id="rId22" xr:uid="{8DAB0B02-5401-BF46-90F9-B2B728905C99}"/>
-    <hyperlink ref="A15" r:id="rId23" xr:uid="{BBFDB1C2-F4D5-9F4F-9AB4-84F69F8E341F}"/>
-    <hyperlink ref="A16" r:id="rId24" xr:uid="{47C1315B-4443-9B43-9DB9-33643DFA677C}"/>
-    <hyperlink ref="A17" r:id="rId25" xr:uid="{C77570FF-B176-1F4E-AC94-8C167340C676}"/>
+    <hyperlink ref="A10" r:id="rId18" xr:uid="{0305B1A2-7666-264C-831F-82265021FFB7}"/>
+    <hyperlink ref="A9" r:id="rId19" xr:uid="{2F1BE129-94F7-DB45-B74A-D5DECFC8BD1F}"/>
+    <hyperlink ref="A8" r:id="rId20" xr:uid="{022DC04F-D95A-7246-8451-7C3BA522CD1C}"/>
+    <hyperlink ref="A7" r:id="rId21" xr:uid="{0C291FB0-BA8C-E141-98A4-91A6B6DD9884}"/>
+    <hyperlink ref="A6" r:id="rId22" xr:uid="{1EAE54DC-A089-B24E-A04A-825543C48D1A}"/>
+    <hyperlink ref="A5" r:id="rId23" xr:uid="{D6CABB3D-301E-5A48-8390-5B6D8D98891E}"/>
+    <hyperlink ref="A4" r:id="rId24" xr:uid="{76EB020E-CC71-B148-9424-BB7A1349A5E9}"/>
+    <hyperlink ref="A3" r:id="rId25" xr:uid="{469B8618-6944-6746-99BB-8FB17F692A90}"/>
+    <hyperlink ref="A28" r:id="rId26" xr:uid="{D7B84B32-63C9-7A46-AF5A-77D30F18AB91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tetris-4k-archive.xlsx
+++ b/tetris-4k-archive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/493d989091475df7/Personal/GitHub/tetris4karchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="526" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33611244-5C0C-EC42-AD36-B52C09D9A1CA}"/>
+  <xr:revisionPtr revIDLastSave="713" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0657C4C5-BB09-7E4B-AC7A-441918F52517}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{F4EAB821-2EDC-3446-8812-752F41EB9B28}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$BF$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$BF$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="121">
   <si>
     <t>Url</t>
   </si>
@@ -390,6 +390,18 @@
   </si>
   <si>
     <t>https://nineteendo.github.io/tetris4karchive/tetris-4k</t>
+  </si>
+  <si>
+    <t>Megasys</t>
+  </si>
+  <si>
+    <t>Řrřola</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/tetris-256b</t>
+  </si>
+  <si>
+    <t>https://nineteendo.github.io/tetris4karchive/4is-256</t>
   </si>
 </sst>
 </file>
@@ -616,10 +628,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,20 +927,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8512C64C-DE47-334B-AE0C-39DDD4F96E15}">
-  <dimension ref="A1:BG28"/>
+  <dimension ref="A1:BG30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="42" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" customWidth="1"/>
+    <col min="21" max="42" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="43" max="46" width="6.1640625" customWidth="1"/>
     <col min="47" max="55" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="6.1640625" customWidth="1"/>
@@ -973,94 +983,94 @@
         <v>50</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="AO1" s="5" t="s">
         <v>15</v>
@@ -1084,22 +1094,22 @@
         <v>75</v>
       </c>
       <c r="AV1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="AX1" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AY1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="BB1" s="5" t="s">
         <v>82</v>
@@ -1126,60 +1136,60 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6">
-        <f>COUNTIF(G$3:G$28, "SYS")+COUNTIF(G$3:G$28, TRUE)</f>
-        <v>25</v>
+        <f>COUNTIF(G$3:G$30, "SYS")+COUNTIF(G$3:G$30, TRUE)</f>
+        <v>27</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:BD2" si="0">COUNTIF(H$3:H$28, "SYS")+COUNTIF(H$3:H$28, TRUE)</f>
-        <v>25</v>
+        <f t="shared" ref="H2:BD2" si="0">COUNTIF(H$3:H$30, "SYS")+COUNTIF(H$3:H$30, TRUE)</f>
+        <v>27</v>
       </c>
       <c r="I2" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" s="6">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M2" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P2" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="6">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="R2" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="S2" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="T2" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U2" s="6">
         <f t="shared" si="0"/>
@@ -1187,51 +1197,51 @@
       </c>
       <c r="V2" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W2" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X2" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Y2" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z2" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AC2" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AD2" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AE2" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF2" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG2" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH2" s="6">
         <f t="shared" si="0"/>
@@ -1239,7 +1249,7 @@
       </c>
       <c r="AI2" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ2" s="6">
         <f t="shared" si="0"/>
@@ -1247,7 +1257,7 @@
       </c>
       <c r="AK2" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL2" s="6">
         <f t="shared" si="0"/>
@@ -1259,7 +1269,7 @@
       </c>
       <c r="AN2" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO2" s="6">
         <f t="shared" si="0"/>
@@ -1303,7 +1313,7 @@
       </c>
       <c r="AY2" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ2" s="6">
         <f t="shared" si="0"/>
@@ -1311,7 +1321,7 @@
       </c>
       <c r="BA2" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="6">
         <f t="shared" si="0"/>
@@ -1330,23 +1340,23 @@
     </row>
     <row r="3" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="E3" s="3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 3:3)+_xlfn.XLOOKUP("Extra size", $1:$1, 3:3)</f>
-        <v>331</v>
+        <v>256</v>
       </c>
       <c r="G3" s="10" t="b">
         <v>1</v>
@@ -1360,32 +1370,32 @@
       <c r="J3" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>22</v>
+      <c r="P3" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="Q3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="10" t="b">
         <v>0</v>
@@ -1500,11 +1510,11 @@
       </c>
       <c r="BE3" s="9">
         <f>COUNTIF($G3:$BD3, "SYS")+COUNTIF($G3:$BD3, TRUE)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BF3" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 3:3)/_xlfn.XLOOKUP("Feature count", $1:$1, 3:3)</f>
-        <v>30.4</v>
+        <v>19.692307692307693</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="34" x14ac:dyDescent="0.2">
@@ -1524,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 4:4)+_xlfn.XLOOKUP("Extra size", $1:$1, 4:4)</f>
+        <f t="shared" ref="F4:F30" si="1">_xlfn.XLOOKUP("Main size", $1:$1, 4:4)+_xlfn.XLOOKUP("Extra size", $1:$1, 4:4)</f>
         <v>512</v>
       </c>
       <c r="G4" s="10" t="b">
@@ -1540,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="10" t="b">
         <v>1</v>
@@ -1549,22 +1559,22 @@
         <v>1</v>
       </c>
       <c r="N4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="P4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="10" t="b">
         <v>1</v>
@@ -1585,10 +1595,10 @@
         <v>1</v>
       </c>
       <c r="Z4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="10" t="b">
         <v>0</v>
@@ -1678,33 +1688,33 @@
         <v>0</v>
       </c>
       <c r="BE4" s="9">
-        <f>COUNTIF($G4:$BD4, "SYS")+COUNTIF($G4:$BD4, TRUE)</f>
-        <v>16</v>
+        <f t="shared" ref="BE4:BE30" si="2">COUNTIF($G4:$BD4, "SYS")+COUNTIF($G4:$BD4, TRUE)</f>
+        <v>17</v>
       </c>
       <c r="BF4" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 4:4)/_xlfn.XLOOKUP("Feature count", $1:$1, 4:4)</f>
-        <v>31.75</v>
+        <f t="shared" ref="BF4:BF30" si="3">_xlfn.XLOOKUP("Main size", $1:$1, 4:4)/_xlfn.XLOOKUP("Feature count", $1:$1, 4:4)</f>
+        <v>29.882352941176471</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>464</v>
+        <v>304</v>
       </c>
       <c r="E5" s="3">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 5:5)+_xlfn.XLOOKUP("Extra size", $1:$1, 5:5)</f>
-        <v>506</v>
+        <f t="shared" si="1"/>
+        <v>331</v>
       </c>
       <c r="G5" s="10" t="b">
         <v>1</v>
@@ -1718,63 +1728,63 @@
       <c r="J5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="X5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="AC5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AD5" s="10" t="b">
         <v>0</v>
       </c>
@@ -1857,33 +1867,33 @@
         <v>0</v>
       </c>
       <c r="BE5" s="9">
-        <f>COUNTIF($G5:$BD5, "SYS")+COUNTIF($G5:$BD5, TRUE)</f>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="BF5" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 5:5)/_xlfn.XLOOKUP("Feature count", $1:$1, 5:5)</f>
-        <v>33.142857142857146</v>
+        <f t="shared" si="3"/>
+        <v>30.4</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E6" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 6:6)+_xlfn.XLOOKUP("Extra size", $1:$1, 6:6)</f>
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>256</v>
       </c>
       <c r="G6" s="10" t="b">
         <v>1</v>
@@ -1897,26 +1907,26 @@
       <c r="J6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>22</v>
+      <c r="P6" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="Q6" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="10" t="b">
         <v>0</v>
@@ -1949,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="10" t="b">
         <v>0</v>
@@ -2036,33 +2046,33 @@
         <v>0</v>
       </c>
       <c r="BE6" s="9">
-        <f>COUNTIF($G6:$BD6, "SYS")+COUNTIF($G6:$BD6, TRUE)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="BF6" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 6:6)/_xlfn.XLOOKUP("Feature count", $1:$1, 6:6)</f>
-        <v>34.25</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F7" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 7:7)+_xlfn.XLOOKUP("Extra size", $1:$1, 7:7)</f>
-        <v>471</v>
+        <f t="shared" si="1"/>
+        <v>506</v>
       </c>
       <c r="G7" s="10" t="b">
         <v>1</v>
@@ -2083,37 +2093,37 @@
         <v>1</v>
       </c>
       <c r="M7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="10" t="b">
         <v>0</v>
       </c>
       <c r="Q7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="U7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="W7" s="10" t="b">
-        <v>0</v>
+      <c r="W7" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="X7" s="10" t="b">
         <v>0</v>
@@ -2122,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="Z7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="10" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AD7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="10" t="b">
         <v>0</v>
@@ -2215,33 +2225,33 @@
         <v>0</v>
       </c>
       <c r="BE7" s="9">
-        <f>COUNTIF($G7:$BD7, "SYS")+COUNTIF($G7:$BD7, TRUE)</f>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="BF7" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 7:7)/_xlfn.XLOOKUP("Feature count", $1:$1, 7:7)</f>
-        <v>36.230769230769234</v>
+        <f t="shared" si="3"/>
+        <v>33.142857142857146</v>
       </c>
     </row>
     <row r="8" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>251</v>
+        <v>471</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 8:8)+_xlfn.XLOOKUP("Extra size", $1:$1, 8:8)</f>
-        <v>251</v>
+        <f t="shared" si="1"/>
+        <v>471</v>
       </c>
       <c r="G8" s="10" t="b">
         <v>1</v>
@@ -2256,28 +2266,28 @@
         <v>1</v>
       </c>
       <c r="K8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="P8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="10" t="b">
         <v>1</v>
       </c>
       <c r="R8" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="10" t="b">
         <v>0</v>
@@ -2286,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="10" t="b">
         <v>0</v>
@@ -2307,13 +2317,13 @@
         <v>0</v>
       </c>
       <c r="AB8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AD8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="10" t="b">
         <v>0</v>
@@ -2394,33 +2404,33 @@
         <v>0</v>
       </c>
       <c r="BE8" s="9">
-        <f>COUNTIF($G8:$BD8, "SYS")+COUNTIF($G8:$BD8, TRUE)</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="BF8" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 8:8)/_xlfn.XLOOKUP("Feature count", $1:$1, 8:8)</f>
-        <v>41.833333333333336</v>
+        <f t="shared" si="3"/>
+        <v>33.642857142857146</v>
       </c>
     </row>
     <row r="9" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>446</v>
+        <v>274</v>
       </c>
       <c r="E9" s="3">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 9:9)+_xlfn.XLOOKUP("Extra size", $1:$1, 9:9)</f>
-        <v>512</v>
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="G9" s="10" t="b">
         <v>1</v>
@@ -2432,13 +2442,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="10" t="b">
         <v>0</v>
       </c>
       <c r="L9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="10" t="b">
         <v>0</v>
@@ -2450,19 +2460,19 @@
         <v>0</v>
       </c>
       <c r="P9" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="T9" s="10" t="b">
-        <v>1</v>
+      <c r="T9" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="U9" s="10" t="b">
         <v>0</v>
@@ -2470,8 +2480,8 @@
       <c r="V9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="W9" s="10" t="b">
-        <v>0</v>
+      <c r="W9" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="X9" s="10" t="b">
         <v>0</v>
@@ -2483,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="AA9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="10" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AD9" s="10" t="b">
         <v>0</v>
@@ -2573,33 +2583,33 @@
         <v>0</v>
       </c>
       <c r="BE9" s="9">
-        <f>COUNTIF($G9:$BD9, "SYS")+COUNTIF($G9:$BD9, TRUE)</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="BF9" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 9:9)/_xlfn.XLOOKUP("Feature count", $1:$1, 9:9)</f>
-        <v>49.555555555555557</v>
+        <f t="shared" si="3"/>
+        <v>34.25</v>
       </c>
     </row>
     <row r="10" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1459</v>
+        <v>251</v>
       </c>
       <c r="E10" s="3">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 10:10)+_xlfn.XLOOKUP("Extra size", $1:$1, 10:10)</f>
-        <v>1550</v>
+        <f t="shared" si="1"/>
+        <v>251</v>
       </c>
       <c r="G10" s="10" t="b">
         <v>1</v>
@@ -2620,37 +2630,37 @@
         <v>1</v>
       </c>
       <c r="M10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="P10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="10" t="b">
         <v>0</v>
       </c>
       <c r="U10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="10" t="b">
         <v>0</v>
@@ -2659,46 +2669,46 @@
         <v>0</v>
       </c>
       <c r="Z10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="10" t="b">
         <v>0</v>
@@ -2752,33 +2762,33 @@
         <v>0</v>
       </c>
       <c r="BE10" s="9">
-        <f>COUNTIF($G10:$BD10, "SYS")+COUNTIF($G10:$BD10, TRUE)</f>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="BF10" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 10:10)/_xlfn.XLOOKUP("Feature count", $1:$1, 10:10)</f>
-        <v>50.310344827586206</v>
+        <f t="shared" si="3"/>
+        <v>35.857142857142854</v>
       </c>
     </row>
     <row r="11" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F11" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 11:11)+_xlfn.XLOOKUP("Extra size", $1:$1, 11:11)</f>
-        <v>510</v>
+        <f t="shared" si="1"/>
+        <v>512</v>
       </c>
       <c r="G11" s="10" t="b">
         <v>1</v>
@@ -2799,13 +2809,13 @@
         <v>1</v>
       </c>
       <c r="M11" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="O11" s="10" t="b">
-        <v>0</v>
+      <c r="O11" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="P11" s="10" t="b">
         <v>0</v>
@@ -2814,16 +2824,16 @@
         <v>1</v>
       </c>
       <c r="R11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="10" t="b">
         <v>0</v>
       </c>
       <c r="T11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="10" t="b">
         <v>0</v>
@@ -2841,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="10" t="b">
         <v>0</v>
@@ -2931,245 +2941,245 @@
         <v>0</v>
       </c>
       <c r="BE11" s="9">
-        <f>COUNTIF($G11:$BD11, "SYS")+COUNTIF($G11:$BD11, TRUE)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="BF11" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 11:11)/_xlfn.XLOOKUP("Feature count", $1:$1, 11:11)</f>
-        <v>51</v>
+        <f t="shared" si="3"/>
+        <v>44.6</v>
       </c>
     </row>
     <row r="12" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="3">
+        <v>510</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="G12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="9">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="BF12" s="4">
+        <f t="shared" si="3"/>
+        <v>46.363636363636367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
         <v>491</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>21</v>
       </c>
-      <c r="F12" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 12:12)+_xlfn.XLOOKUP("Extra size", $1:$1, 12:12)</f>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
         <v>512</v>
       </c>
-      <c r="G12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="9">
-        <f>COUNTIF($G12:$BD12, "SYS")+COUNTIF($G12:$BD12, TRUE)</f>
-        <v>9</v>
-      </c>
-      <c r="BF12" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 12:12)/_xlfn.XLOOKUP("Feature count", $1:$1, 12:12)</f>
-        <v>54.555555555555557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>227</v>
-      </c>
-      <c r="E13" s="3">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 13:13)+_xlfn.XLOOKUP("Extra size", $1:$1, 13:13)</f>
-        <v>252</v>
-      </c>
       <c r="G13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>22</v>
+      <c r="P13" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="Q13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="10" t="b">
         <v>0</v>
@@ -3211,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="10" t="b">
         <v>0</v>
@@ -3241,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="AO13" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="10" t="b">
         <v>0</v>
@@ -3289,33 +3299,33 @@
         <v>0</v>
       </c>
       <c r="BE13" s="9">
-        <f>COUNTIF($G13:$BD13, "SYS")+COUNTIF($G13:$BD13, TRUE)</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="BF13" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 13:13)/_xlfn.XLOOKUP("Feature count", $1:$1, 13:13)</f>
-        <v>56.75</v>
+        <f t="shared" si="3"/>
+        <v>49.1</v>
       </c>
     </row>
     <row r="14" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3">
-        <v>446</v>
+        <v>1459</v>
       </c>
       <c r="E14" s="3">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="F14" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 14:14)+_xlfn.XLOOKUP("Extra size", $1:$1, 14:14)</f>
-        <v>512</v>
+        <f t="shared" si="1"/>
+        <v>1550</v>
       </c>
       <c r="G14" s="10" t="b">
         <v>1</v>
@@ -3330,49 +3340,49 @@
         <v>1</v>
       </c>
       <c r="K14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="10" t="b">
         <v>1</v>
       </c>
       <c r="T14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="10" t="b">
         <v>0</v>
       </c>
       <c r="V14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="10" t="b">
         <v>0</v>
@@ -3381,40 +3391,40 @@
         <v>0</v>
       </c>
       <c r="AB14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AF14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="10" t="b">
         <v>1</v>
@@ -3468,33 +3478,33 @@
         <v>0</v>
       </c>
       <c r="BE14" s="9">
-        <f>COUNTIF($G14:$BD14, "SYS")+COUNTIF($G14:$BD14, TRUE)</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>29</v>
       </c>
       <c r="BF14" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 14:14)/_xlfn.XLOOKUP("Feature count", $1:$1, 14:14)</f>
-        <v>63.714285714285715</v>
+        <f t="shared" si="3"/>
+        <v>50.310344827586206</v>
       </c>
     </row>
     <row r="15" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 15:15)+_xlfn.XLOOKUP("Extra size", $1:$1, 15:15)</f>
-        <v>457</v>
+        <f t="shared" si="1"/>
+        <v>512</v>
       </c>
       <c r="G15" s="10" t="b">
         <v>1</v>
@@ -3506,23 +3516,23 @@
         <v>1</v>
       </c>
       <c r="J15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="10" t="b">
         <v>1</v>
       </c>
       <c r="L15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="P15" s="10" t="b">
         <v>0</v>
       </c>
@@ -3569,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="10" t="b">
         <v>0</v>
@@ -3647,103 +3657,103 @@
         <v>0</v>
       </c>
       <c r="BE15" s="9">
-        <f>COUNTIF($G15:$BD15, "SYS")+COUNTIF($G15:$BD15, TRUE)</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="BF15" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 15:15)/_xlfn.XLOOKUP("Feature count", $1:$1, 15:15)</f>
-        <v>65.285714285714292</v>
+        <f t="shared" si="3"/>
+        <v>55.75</v>
       </c>
     </row>
     <row r="16" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>1269</v>
+        <v>227</v>
       </c>
       <c r="E16" s="3">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="F16" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 16:16)+_xlfn.XLOOKUP("Extra size", $1:$1, 16:16)</f>
-        <v>1503</v>
+        <f t="shared" si="1"/>
+        <v>252</v>
       </c>
       <c r="G16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="10" t="s">
+      <c r="X16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="AC16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="X16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AD16" s="10" t="b">
         <v>0</v>
       </c>
@@ -3751,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="10" t="b">
         <v>0</v>
@@ -3778,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="AO16" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="10" t="b">
         <v>0</v>
@@ -3826,33 +3836,33 @@
         <v>0</v>
       </c>
       <c r="BE16" s="9">
-        <f>COUNTIF($G16:$BD16, "SYS")+COUNTIF($G16:$BD16, TRUE)</f>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="BF16" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 16:16)/_xlfn.XLOOKUP("Feature count", $1:$1, 16:16)</f>
-        <v>70.5</v>
+        <f t="shared" si="3"/>
+        <v>56.75</v>
       </c>
     </row>
     <row r="17" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3">
-        <v>1358</v>
+        <v>457</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 17:17)+_xlfn.XLOOKUP("Extra size", $1:$1, 17:17)</f>
-        <v>1358</v>
+        <f t="shared" si="1"/>
+        <v>457</v>
       </c>
       <c r="G17" s="10" t="b">
         <v>1</v>
@@ -3864,10 +3874,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="10" t="b">
         <v>0</v>
@@ -3879,28 +3889,28 @@
         <v>0</v>
       </c>
       <c r="O17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="10" t="b">
         <v>0</v>
       </c>
       <c r="U17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="10" t="b">
         <v>0</v>
@@ -3912,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="10" t="b">
         <v>0</v>
@@ -3920,8 +3930,8 @@
       <c r="AB17" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AC17" s="10" t="b">
-        <v>0</v>
+      <c r="AC17" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AD17" s="10" t="b">
         <v>0</v>
@@ -3933,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="AG17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="10" t="b">
         <v>0</v>
@@ -3960,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="AP17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="10" t="b">
         <v>0</v>
@@ -4005,33 +4015,33 @@
         <v>0</v>
       </c>
       <c r="BE17" s="9">
-        <f>COUNTIF($G17:$BD17, "SYS")+COUNTIF($G17:$BD17, TRUE)</f>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="BF17" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 17:17)/_xlfn.XLOOKUP("Feature count", $1:$1, 17:17)</f>
-        <v>79.882352941176464</v>
+        <f t="shared" si="3"/>
+        <v>65.285714285714292</v>
       </c>
     </row>
     <row r="18" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>2048</v>
+        <v>1269</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="F18" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 18:18)+_xlfn.XLOOKUP("Extra size", $1:$1, 18:18)</f>
-        <v>2048</v>
+        <f t="shared" si="1"/>
+        <v>1503</v>
       </c>
       <c r="G18" s="10" t="b">
         <v>1</v>
@@ -4046,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="10" t="b">
         <v>1</v>
@@ -4061,19 +4071,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="10" t="b">
         <v>1</v>
       </c>
       <c r="R18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T18" s="10" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="U18" s="10" t="b">
         <v>1</v>
@@ -4081,41 +4091,41 @@
       <c r="V18" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="W18" s="10" t="b">
-        <v>1</v>
+      <c r="W18" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="X18" s="10" t="b">
         <v>0</v>
       </c>
       <c r="Y18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AD18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AF18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="10" t="b">
         <v>0</v>
@@ -4145,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="AR18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="10" t="b">
         <v>0</v>
@@ -4184,33 +4194,33 @@
         <v>0</v>
       </c>
       <c r="BE18" s="9">
-        <f>COUNTIF($G18:$BD18, "SYS")+COUNTIF($G18:$BD18, TRUE)</f>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="BF18" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 18:18)/_xlfn.XLOOKUP("Feature count", $1:$1, 18:18)</f>
-        <v>93.090909090909093</v>
+        <f t="shared" si="3"/>
+        <v>70.5</v>
       </c>
     </row>
     <row r="19" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3">
-        <v>1805</v>
+        <v>1358</v>
       </c>
       <c r="E19" s="3">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 19:19)+_xlfn.XLOOKUP("Extra size", $1:$1, 19:19)</f>
-        <v>1928</v>
+        <f t="shared" si="1"/>
+        <v>1358</v>
       </c>
       <c r="G19" s="10" t="b">
         <v>1</v>
@@ -4224,77 +4234,77 @@
       <c r="J19" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>22</v>
+      <c r="P19" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="Q19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="10" t="b">
         <v>0</v>
       </c>
       <c r="V19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="10" t="b">
         <v>0</v>
       </c>
       <c r="X19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="10" t="b">
         <v>0</v>
       </c>
       <c r="Z19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AD19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AF19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AH19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="10" t="b">
         <v>0</v>
@@ -4321,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" s="10" t="b">
         <v>0</v>
@@ -4363,33 +4373,33 @@
         <v>0</v>
       </c>
       <c r="BE19" s="9">
-        <f>COUNTIF($G19:$BD19, "SYS")+COUNTIF($G19:$BD19, TRUE)</f>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="BF19" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 19:19)/_xlfn.XLOOKUP("Feature count", $1:$1, 19:19)</f>
-        <v>120.33333333333333</v>
+        <f t="shared" si="3"/>
+        <v>75.444444444444443</v>
       </c>
     </row>
     <row r="20" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3">
-        <v>4016</v>
+        <v>2048</v>
       </c>
       <c r="E20" s="3">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 20:20)+_xlfn.XLOOKUP("Extra size", $1:$1, 20:20)</f>
-        <v>5040</v>
+        <f t="shared" si="1"/>
+        <v>2048</v>
       </c>
       <c r="G20" s="10" t="b">
         <v>1</v>
@@ -4409,166 +4419,166 @@
       <c r="L20" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="P20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="9">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="O20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE20" s="9">
-        <f>COUNTIF($G20:$BD20, "SYS")+COUNTIF($G20:$BD20, TRUE)</f>
-        <v>30</v>
-      </c>
       <c r="BF20" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 20:20)/_xlfn.XLOOKUP("Feature count", $1:$1, 20:20)</f>
-        <v>133.86666666666667</v>
+        <f t="shared" si="3"/>
+        <v>93.090909090909093</v>
       </c>
     </row>
     <row r="21" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>1896</v>
+        <v>1805</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="F21" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 21:21)+_xlfn.XLOOKUP("Extra size", $1:$1, 21:21)</f>
-        <v>1896</v>
+        <f t="shared" si="1"/>
+        <v>1928</v>
       </c>
       <c r="G21" s="10" t="b">
         <v>1</v>
@@ -4589,37 +4599,37 @@
         <v>1</v>
       </c>
       <c r="M21" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="10" t="b">
         <v>0</v>
       </c>
       <c r="P21" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="10" t="b">
         <v>0</v>
       </c>
       <c r="T21" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="W21" s="10" t="b">
-        <v>0</v>
+      <c r="W21" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="X21" s="10" t="b">
         <v>0</v>
@@ -4628,16 +4638,16 @@
         <v>0</v>
       </c>
       <c r="Z21" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="10" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC21" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AD21" s="10" t="b">
         <v>1</v>
@@ -4676,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="10" t="b">
         <v>0</v>
@@ -4691,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="AU21" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="10" t="b">
         <v>0</v>
@@ -4709,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="10" t="b">
         <v>0</v>
@@ -4721,33 +4731,33 @@
         <v>0</v>
       </c>
       <c r="BE21" s="9">
-        <f>COUNTIF($G21:$BD21, "SYS")+COUNTIF($G21:$BD21, TRUE)</f>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="BF21" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 21:21)/_xlfn.XLOOKUP("Feature count", $1:$1, 21:21)</f>
-        <v>135.42857142857142</v>
+        <f t="shared" si="3"/>
+        <v>120.33333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
-        <v>3998</v>
+        <v>1896</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 22:22)+_xlfn.XLOOKUP("Extra size", $1:$1, 22:22)</f>
-        <v>3998</v>
+        <f t="shared" si="1"/>
+        <v>1896</v>
       </c>
       <c r="G22" s="10" t="b">
         <v>1</v>
@@ -4761,21 +4771,21 @@
       <c r="J22" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="P22" s="10" t="b">
         <v>0</v>
       </c>
@@ -4786,19 +4796,19 @@
         <v>1</v>
       </c>
       <c r="S22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="10" t="b">
         <v>1</v>
       </c>
       <c r="W22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="10" t="b">
         <v>0</v>
@@ -4807,19 +4817,19 @@
         <v>0</v>
       </c>
       <c r="Z22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AC22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="10" t="b">
         <v>0</v>
@@ -4852,10 +4862,10 @@
         <v>0</v>
       </c>
       <c r="AO22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="10" t="b">
         <v>0</v>
@@ -4870,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="AU22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV22" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AW22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="10" t="b">
         <v>0</v>
@@ -4891,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="BB22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="10" t="b">
         <v>0</v>
@@ -4900,33 +4910,33 @@
         <v>0</v>
       </c>
       <c r="BE22" s="9">
-        <f>COUNTIF($G22:$BD22, "SYS")+COUNTIF($G22:$BD22, TRUE)</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="BF22" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 22:22)/_xlfn.XLOOKUP("Feature count", $1:$1, 22:22)</f>
-        <v>159.91999999999999</v>
+        <f t="shared" si="3"/>
+        <v>126.4</v>
       </c>
     </row>
     <row r="23" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>2738</v>
+        <v>4016</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="F23" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 23:23)+_xlfn.XLOOKUP("Extra size", $1:$1, 23:23)</f>
-        <v>2738</v>
+        <f t="shared" si="1"/>
+        <v>5040</v>
       </c>
       <c r="G23" s="10" t="b">
         <v>1</v>
@@ -4944,82 +4954,82 @@
         <v>1</v>
       </c>
       <c r="L23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T23" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="U23" s="10" t="b">
         <v>1</v>
       </c>
       <c r="V23" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="W23" s="10" t="b">
-        <v>1</v>
+      <c r="W23" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="X23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="10" t="b">
         <v>0</v>
       </c>
       <c r="Z23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC23" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AD23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AI23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="10" t="b">
         <v>0</v>
@@ -5031,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="AO23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23" s="10" t="b">
         <v>0</v>
@@ -5049,25 +5059,25 @@
         <v>0</v>
       </c>
       <c r="AU23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV23" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AW23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="10" t="b">
         <v>0</v>
@@ -5079,33 +5089,33 @@
         <v>0</v>
       </c>
       <c r="BE23" s="9">
-        <f>COUNTIF($G23:$BD23, "SYS")+COUNTIF($G23:$BD23, TRUE)</f>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="BF23" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 23:23)/_xlfn.XLOOKUP("Feature count", $1:$1, 23:23)</f>
-        <v>161.05882352941177</v>
+        <f t="shared" si="3"/>
+        <v>133.86666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D24" s="3">
-        <v>2824</v>
+        <v>3998</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 24:24)+_xlfn.XLOOKUP("Extra size", $1:$1, 24:24)</f>
-        <v>2824</v>
+        <f t="shared" si="1"/>
+        <v>3998</v>
       </c>
       <c r="G24" s="10" t="b">
         <v>1</v>
@@ -5123,13 +5133,13 @@
         <v>1</v>
       </c>
       <c r="L24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="10" t="b">
         <v>1</v>
       </c>
       <c r="N24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="10" t="b">
         <v>1</v>
@@ -5141,13 +5151,13 @@
         <v>1</v>
       </c>
       <c r="R24" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="10" t="b">
         <v>1</v>
@@ -5159,22 +5169,22 @@
         <v>0</v>
       </c>
       <c r="X24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AB24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="10" t="b">
-        <v>1</v>
+      <c r="AB24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC24" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AD24" s="10" t="b">
         <v>1</v>
@@ -5183,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" s="10" t="b">
         <v>0</v>
@@ -5210,10 +5220,10 @@
         <v>0</v>
       </c>
       <c r="AO24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="10" t="b">
         <v>0</v>
@@ -5234,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="AW24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="10" t="b">
         <v>0</v>
@@ -5249,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="BB24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="10" t="b">
         <v>0</v>
@@ -5258,33 +5268,33 @@
         <v>0</v>
       </c>
       <c r="BE24" s="9">
-        <f>COUNTIF($G24:$BD24, "SYS")+COUNTIF($G24:$BD24, TRUE)</f>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="BF24" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 24:24)/_xlfn.XLOOKUP("Feature count", $1:$1, 24:24)</f>
-        <v>166.11764705882354</v>
+        <f t="shared" si="3"/>
+        <v>159.91999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3">
-        <v>2882</v>
+        <v>2738</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 25:25)+_xlfn.XLOOKUP("Extra size", $1:$1, 25:25)</f>
-        <v>2882</v>
+        <f t="shared" si="1"/>
+        <v>2738</v>
       </c>
       <c r="G25" s="10" t="b">
         <v>1</v>
@@ -5298,65 +5308,65 @@
       <c r="J25" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AD25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="10" t="b">
         <v>0</v>
@@ -5365,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="AG25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" s="10" t="b">
         <v>0</v>
@@ -5437,33 +5447,33 @@
         <v>0</v>
       </c>
       <c r="BE25" s="9">
-        <f>COUNTIF($G25:$BD25, "SYS")+COUNTIF($G25:$BD25, TRUE)</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="BF25" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 25:25)/_xlfn.XLOOKUP("Feature count", $1:$1, 25:25)</f>
-        <v>180.125</v>
+        <f t="shared" si="3"/>
+        <v>161.05882352941177</v>
       </c>
     </row>
     <row r="26" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>2710</v>
+        <v>2824</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)+_xlfn.XLOOKUP("Extra size", $1:$1, 26:26)</f>
-        <v>2810</v>
+        <f t="shared" si="1"/>
+        <v>2824</v>
       </c>
       <c r="G26" s="10" t="b">
         <v>1</v>
@@ -5477,71 +5487,71 @@
       <c r="J26" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>22</v>
+      <c r="K26" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="L26" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="M26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>22</v>
+      <c r="M26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="O26" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="P26" s="10" t="s">
-        <v>22</v>
+      <c r="P26" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="Q26" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="S26" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="10" t="b">
         <v>0</v>
       </c>
       <c r="V26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="10" t="b">
         <v>0</v>
       </c>
       <c r="Z26" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AD26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" s="10" t="b">
         <v>0</v>
@@ -5616,33 +5626,33 @@
         <v>0</v>
       </c>
       <c r="BE26" s="9">
-        <f>COUNTIF($G26:$BD26, "SYS")+COUNTIF($G26:$BD26, TRUE)</f>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="BF26" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)/_xlfn.XLOOKUP("Feature count", $1:$1, 26:26)</f>
-        <v>180.66666666666666</v>
+        <f t="shared" si="3"/>
+        <v>166.11764705882354</v>
       </c>
     </row>
     <row r="27" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3">
-        <v>4095</v>
+        <v>2882</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 27:27)+_xlfn.XLOOKUP("Extra size", $1:$1, 27:27)</f>
-        <v>4095</v>
+        <f t="shared" si="1"/>
+        <v>2882</v>
       </c>
       <c r="G27" s="10" t="b">
         <v>1</v>
@@ -5656,63 +5666,63 @@
       <c r="J27" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N27" s="10" t="s">
+      <c r="AC27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AD27" s="10" t="b">
         <v>1</v>
       </c>
@@ -5723,10 +5733,10 @@
         <v>0</v>
       </c>
       <c r="AG27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="10" t="b">
         <v>0</v>
@@ -5774,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="AX27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="10" t="b">
         <v>0</v>
@@ -5783,218 +5793,576 @@
         <v>0</v>
       </c>
       <c r="BA27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="10" t="b">
         <v>0</v>
       </c>
       <c r="BC27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD27" s="10" t="b">
         <v>0</v>
       </c>
       <c r="BE27" s="9">
-        <f>COUNTIF($G27:$BD27, "SYS")+COUNTIF($G27:$BD27, TRUE)</f>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="BF27" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 27:27)/_xlfn.XLOOKUP("Feature count", $1:$1, 27:27)</f>
-        <v>186.13636363636363</v>
+        <f t="shared" si="3"/>
+        <v>180.125</v>
       </c>
     </row>
     <row r="28" spans="1:58" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2710</v>
+      </c>
+      <c r="E28" s="3">
+        <v>100</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="1"/>
+        <v>2810</v>
+      </c>
+      <c r="G28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="BF28" s="4">
+        <f t="shared" si="3"/>
+        <v>180.66666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4095</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
+        <v>4095</v>
+      </c>
+      <c r="G29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="9">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="BF29" s="4">
+        <f t="shared" si="3"/>
+        <v>186.13636363636363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D30" s="3">
         <v>4002</v>
       </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 28:28)+_xlfn.XLOOKUP("Extra size", $1:$1, 28:28)</f>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="1"/>
         <v>4002</v>
       </c>
-      <c r="G28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N28" s="10" t="s">
+      <c r="G30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE28" s="9">
-        <f>COUNTIF($G28:$BD28, "SYS")+COUNTIF($G28:$BD28, TRUE)</f>
+      <c r="AD30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE30" s="9">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="BF28" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 28:28)/_xlfn.XLOOKUP("Feature count", $1:$1, 28:28)</f>
+      <c r="BF30" s="4">
+        <f t="shared" si="3"/>
         <v>190.57142857142858</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BF28" xr:uid="{8512C64C-DE47-334B-AE0C-39DDD4F96E15}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BF28">
-      <sortCondition ref="BF2:BF28"/>
+  <autoFilter ref="A2:BF30" xr:uid="{8512C64C-DE47-334B-AE0C-39DDD4F96E15}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BF30">
+      <sortCondition ref="BF2:BF30"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B3:B28">
+  <conditionalFormatting sqref="B3:B30">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"UNKNOWN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D28">
+  <conditionalFormatting sqref="D3:D30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6004,7 +6372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E28">
+  <conditionalFormatting sqref="E3:E30">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6014,7 +6382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F28">
+  <conditionalFormatting sqref="F3:F30">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6024,7 +6392,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:BD28">
+  <conditionalFormatting sqref="G3:BD30">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -6035,7 +6403,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:BE28">
+  <conditionalFormatting sqref="BE3:BE30">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6045,7 +6413,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF3:BF28">
+  <conditionalFormatting sqref="BF3:BF30">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6056,32 +6424,34 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" xr:uid="{8B9F4BC6-14C6-4345-BA9C-9D9C8BC6C54A}"/>
-    <hyperlink ref="A19" r:id="rId2" xr:uid="{B15F6BAD-35BC-2A4D-A9F9-E3397D6C9F57}"/>
-    <hyperlink ref="A20" r:id="rId3" xr:uid="{A76D4E5E-9C61-C846-BF68-39EA20E19271}"/>
-    <hyperlink ref="A26" r:id="rId4" xr:uid="{271A3F43-6A28-9044-9B77-55CB67E8E604}"/>
-    <hyperlink ref="A25" r:id="rId5" xr:uid="{3319FE9B-1572-7B45-A51A-8631F49908F5}"/>
-    <hyperlink ref="A23" r:id="rId6" xr:uid="{6A5AEB05-49D4-5A43-AC85-14DC910FF378}"/>
-    <hyperlink ref="A24" r:id="rId7" xr:uid="{692BC8D6-C410-5A4C-9AC4-692F65427B7C}"/>
-    <hyperlink ref="A27" r:id="rId8" xr:uid="{BE81C522-7811-534B-B250-C27D6ED80E13}"/>
-    <hyperlink ref="A18" r:id="rId9" xr:uid="{7A0C5CE4-FDBB-C142-89E0-609051079143}"/>
-    <hyperlink ref="A22" r:id="rId10" xr:uid="{B27A7A0A-1947-624B-A135-AC2E4FA9DCDF}"/>
-    <hyperlink ref="A15" r:id="rId11" xr:uid="{BBFDB1C2-F4D5-9F4F-9AB4-84F69F8E341F}"/>
-    <hyperlink ref="A16" r:id="rId12" xr:uid="{47C1315B-4443-9B43-9DB9-33643DFA677C}"/>
-    <hyperlink ref="A17" r:id="rId13" xr:uid="{C77570FF-B176-1F4E-AC94-8C167340C676}"/>
-    <hyperlink ref="A21" r:id="rId14" xr:uid="{1A073B5B-BE69-9E43-BB31-2AC1F74931C7}"/>
-    <hyperlink ref="A13" r:id="rId15" xr:uid="{65802411-1B8E-064F-A6D7-DAD404DC6F66}"/>
-    <hyperlink ref="A12" r:id="rId16" xr:uid="{8DAB0B02-5401-BF46-90F9-B2B728905C99}"/>
-    <hyperlink ref="A11" r:id="rId17" xr:uid="{F2854865-7589-3148-9BD0-694117F0C02A}"/>
-    <hyperlink ref="A10" r:id="rId18" xr:uid="{0305B1A2-7666-264C-831F-82265021FFB7}"/>
-    <hyperlink ref="A9" r:id="rId19" xr:uid="{2F1BE129-94F7-DB45-B74A-D5DECFC8BD1F}"/>
-    <hyperlink ref="A8" r:id="rId20" xr:uid="{022DC04F-D95A-7246-8451-7C3BA522CD1C}"/>
-    <hyperlink ref="A7" r:id="rId21" xr:uid="{0C291FB0-BA8C-E141-98A4-91A6B6DD9884}"/>
-    <hyperlink ref="A6" r:id="rId22" xr:uid="{1EAE54DC-A089-B24E-A04A-825543C48D1A}"/>
-    <hyperlink ref="A5" r:id="rId23" xr:uid="{D6CABB3D-301E-5A48-8390-5B6D8D98891E}"/>
-    <hyperlink ref="A4" r:id="rId24" xr:uid="{76EB020E-CC71-B148-9424-BB7A1349A5E9}"/>
-    <hyperlink ref="A3" r:id="rId25" xr:uid="{469B8618-6944-6746-99BB-8FB17F692A90}"/>
-    <hyperlink ref="A28" r:id="rId26" xr:uid="{D7B84B32-63C9-7A46-AF5A-77D30F18AB91}"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{8B9F4BC6-14C6-4345-BA9C-9D9C8BC6C54A}"/>
+    <hyperlink ref="A21" r:id="rId2" xr:uid="{B15F6BAD-35BC-2A4D-A9F9-E3397D6C9F57}"/>
+    <hyperlink ref="A23" r:id="rId3" xr:uid="{A76D4E5E-9C61-C846-BF68-39EA20E19271}"/>
+    <hyperlink ref="A28" r:id="rId4" xr:uid="{271A3F43-6A28-9044-9B77-55CB67E8E604}"/>
+    <hyperlink ref="A27" r:id="rId5" xr:uid="{3319FE9B-1572-7B45-A51A-8631F49908F5}"/>
+    <hyperlink ref="A25" r:id="rId6" xr:uid="{6A5AEB05-49D4-5A43-AC85-14DC910FF378}"/>
+    <hyperlink ref="A26" r:id="rId7" xr:uid="{692BC8D6-C410-5A4C-9AC4-692F65427B7C}"/>
+    <hyperlink ref="A20" r:id="rId8" xr:uid="{7A0C5CE4-FDBB-C142-89E0-609051079143}"/>
+    <hyperlink ref="A24" r:id="rId9" xr:uid="{B27A7A0A-1947-624B-A135-AC2E4FA9DCDF}"/>
+    <hyperlink ref="A17" r:id="rId10" xr:uid="{BBFDB1C2-F4D5-9F4F-9AB4-84F69F8E341F}"/>
+    <hyperlink ref="A18" r:id="rId11" xr:uid="{47C1315B-4443-9B43-9DB9-33643DFA677C}"/>
+    <hyperlink ref="A19" r:id="rId12" xr:uid="{C77570FF-B176-1F4E-AC94-8C167340C676}"/>
+    <hyperlink ref="A22" r:id="rId13" xr:uid="{1A073B5B-BE69-9E43-BB31-2AC1F74931C7}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{65802411-1B8E-064F-A6D7-DAD404DC6F66}"/>
+    <hyperlink ref="A13" r:id="rId15" xr:uid="{8DAB0B02-5401-BF46-90F9-B2B728905C99}"/>
+    <hyperlink ref="A12" r:id="rId16" xr:uid="{F2854865-7589-3148-9BD0-694117F0C02A}"/>
+    <hyperlink ref="A14" r:id="rId17" xr:uid="{0305B1A2-7666-264C-831F-82265021FFB7}"/>
+    <hyperlink ref="A11" r:id="rId18" xr:uid="{2F1BE129-94F7-DB45-B74A-D5DECFC8BD1F}"/>
+    <hyperlink ref="A10" r:id="rId19" xr:uid="{022DC04F-D95A-7246-8451-7C3BA522CD1C}"/>
+    <hyperlink ref="A8" r:id="rId20" xr:uid="{0C291FB0-BA8C-E141-98A4-91A6B6DD9884}"/>
+    <hyperlink ref="A9" r:id="rId21" xr:uid="{1EAE54DC-A089-B24E-A04A-825543C48D1A}"/>
+    <hyperlink ref="A7" r:id="rId22" xr:uid="{D6CABB3D-301E-5A48-8390-5B6D8D98891E}"/>
+    <hyperlink ref="A4" r:id="rId23" xr:uid="{76EB020E-CC71-B148-9424-BB7A1349A5E9}"/>
+    <hyperlink ref="A5" r:id="rId24" xr:uid="{469B8618-6944-6746-99BB-8FB17F692A90}"/>
+    <hyperlink ref="A30" r:id="rId25" xr:uid="{D7B84B32-63C9-7A46-AF5A-77D30F18AB91}"/>
+    <hyperlink ref="A6" r:id="rId26" xr:uid="{7F8B8C37-627E-1945-A19A-ED78182D0280}"/>
+    <hyperlink ref="A3" r:id="rId27" xr:uid="{21C269AC-1EE5-D04C-BAA6-59834E8B2917}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{BE81C522-7811-534B-B250-C27D6ED80E13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tetris-4k-archive.xlsx
+++ b/tetris-4k-archive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/493d989091475df7/Personal/GitHub/tetris4karchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="713" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0657C4C5-BB09-7E4B-AC7A-441918F52517}"/>
+  <xr:revisionPtr revIDLastSave="721" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3B730B3-BD8F-D341-A21C-2B4A678C3F69}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{F4EAB821-2EDC-3446-8812-752F41EB9B28}"/>
   </bookViews>
@@ -931,7 +931,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6450,8 +6450,8 @@
     <hyperlink ref="A5" r:id="rId24" xr:uid="{469B8618-6944-6746-99BB-8FB17F692A90}"/>
     <hyperlink ref="A30" r:id="rId25" xr:uid="{D7B84B32-63C9-7A46-AF5A-77D30F18AB91}"/>
     <hyperlink ref="A6" r:id="rId26" xr:uid="{7F8B8C37-627E-1945-A19A-ED78182D0280}"/>
-    <hyperlink ref="A3" r:id="rId27" xr:uid="{21C269AC-1EE5-D04C-BAA6-59834E8B2917}"/>
-    <hyperlink ref="A29" r:id="rId28" xr:uid="{BE81C522-7811-534B-B250-C27D6ED80E13}"/>
+    <hyperlink ref="A29" r:id="rId27" xr:uid="{BE81C522-7811-534B-B250-C27D6ED80E13}"/>
+    <hyperlink ref="A3" r:id="rId28" xr:uid="{21C269AC-1EE5-D04C-BAA6-59834E8B2917}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tetris-4k-archive.xlsx
+++ b/tetris-4k-archive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/493d989091475df7/Personal/GitHub/tetris4karchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="721" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3B730B3-BD8F-D341-A21C-2B4A678C3F69}"/>
+  <xr:revisionPtr revIDLastSave="1006" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79F71E87-87EF-5941-AB08-4ED0289DE3F4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{F4EAB821-2EDC-3446-8812-752F41EB9B28}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$BF$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$BG$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="123">
   <si>
     <t>Url</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Faster levels</t>
   </si>
   <si>
-    <t>Place points</t>
-  </si>
-  <si>
     <t>Random background color</t>
   </si>
   <si>
@@ -242,33 +239,15 @@
     <t>Level score multiplier</t>
   </si>
   <si>
-    <t>Drought protection</t>
-  </si>
-  <si>
     <t>Easter eggs</t>
   </si>
   <si>
-    <t>Height selection</t>
-  </si>
-  <si>
     <t>Visible center of rotation</t>
   </si>
   <si>
-    <t>Time points</t>
-  </si>
-  <si>
-    <t>Rotation selection</t>
-  </si>
-  <si>
-    <t>Toggleable next queue</t>
-  </si>
-  <si>
     <t>Skip level</t>
   </si>
   <si>
-    <t>Controls instructions</t>
-  </si>
-  <si>
     <t>Wall kicks</t>
   </si>
   <si>
@@ -281,9 +260,6 @@
     <t>Ghost piece</t>
   </si>
   <si>
-    <t>Smooth falling</t>
-  </si>
-  <si>
     <t>Title screen</t>
   </si>
   <si>
@@ -395,13 +371,43 @@
     <t>Megasys</t>
   </si>
   <si>
-    <t>Řrřola</t>
-  </si>
-  <si>
     <t>https://nineteendo.github.io/tetris4karchive/tetris-256b</t>
   </si>
   <si>
     <t>https://nineteendo.github.io/tetris4karchive/4is-256</t>
+  </si>
+  <si>
+    <t>Jan Kadlec</t>
+  </si>
+  <si>
+    <t>SFX</t>
+  </si>
+  <si>
+    <t>Toggleable piece preview</t>
+  </si>
+  <si>
+    <t>Controls guide</t>
+  </si>
+  <si>
+    <t>Smooth gravity</t>
+  </si>
+  <si>
+    <t>Survival time points</t>
+  </si>
+  <si>
+    <t>Drought prevention</t>
+  </si>
+  <si>
+    <t>Placement transition</t>
+  </si>
+  <si>
+    <t>Obstacle height selection</t>
+  </si>
+  <si>
+    <t>Rotation direction selection</t>
+  </si>
+  <si>
+    <t>Placement points</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -533,12 +539,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -565,6 +580,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,6 +646,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,36 +949,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8512C64C-DE47-334B-AE0C-39DDD4F96E15}">
-  <dimension ref="A1:BG30"/>
+  <dimension ref="A1:BH30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" customWidth="1"/>
-    <col min="21" max="42" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="6.1640625" customWidth="1"/>
-    <col min="47" max="55" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="6.1640625" customWidth="1"/>
-    <col min="57" max="57" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="109" width="10.83203125" customWidth="1"/>
+    <col min="7" max="20" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="6.1640625" customWidth="1"/>
+    <col min="23" max="43" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="6.1640625" customWidth="1"/>
+    <col min="48" max="56" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.1640625" customWidth="1"/>
+    <col min="58" max="58" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="110" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="104" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" s="1" customFormat="1" ht="110" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>44</v>
@@ -1001,134 +1023,137 @@
         <v>53</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="T1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="AF1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AO1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AR1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AT1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AV1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AY1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1140,7 +1165,7 @@
         <v>27</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:BD2" si="0">COUNTIF(H$3:H$30, "SYS")+COUNTIF(H$3:H$30, TRUE)</f>
+        <f t="shared" ref="H2:BE2" si="0">COUNTIF(H$3:H$30, "SYS")+COUNTIF(H$3:H$30, TRUE)</f>
         <v>27</v>
       </c>
       <c r="I2" s="6">
@@ -1181,39 +1206,39 @@
       </c>
       <c r="R2" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S2" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T2" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="U2" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="V2" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="W2" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X2" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y2" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z2" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA2" s="6">
         <f t="shared" si="0"/>
@@ -1221,19 +1246,19 @@
       </c>
       <c r="AB2" s="6">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AD2" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AF2" s="6">
         <f t="shared" si="0"/>
@@ -1272,17 +1297,17 @@
         <v>1</v>
       </c>
       <c r="AO2" s="6">
+        <f>COUNTIF(AO$3:AO$30, "SYS")+COUNTIF(AO$3:AO$30, TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="AP2" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AP2" s="6">
+      <c r="AQ2" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AQ2" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="AR2" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1297,7 +1322,7 @@
       </c>
       <c r="AU2" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV2" s="6">
         <f t="shared" si="0"/>
@@ -1317,7 +1342,7 @@
       </c>
       <c r="AZ2" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA2" s="6">
         <f t="shared" si="0"/>
@@ -1335,86 +1360,90 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BE2" s="6"/>
+      <c r="BE2" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
     </row>
-    <row r="3" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 3:3)+_xlfn.XLOOKUP("Extra size", $1:$1, 3:3)</f>
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G3" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="Z3" s="10" t="b">
         <v>0</v>
       </c>
@@ -1424,11 +1453,11 @@
       <c r="AB3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="10" t="b">
-        <v>0</v>
+      <c r="AC3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AE3" s="10" t="b">
         <v>0</v>
@@ -1464,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="AP3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" s="10" t="b">
         <v>0</v>
@@ -1508,34 +1537,37 @@
       <c r="BD3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE3" s="9">
-        <f>COUNTIF($G3:$BD3, "SYS")+COUNTIF($G3:$BD3, TRUE)</f>
+      <c r="BE3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="9">
+        <f>COUNTIF($G3:$BE3, "SYS")+COUNTIF($G3:$BE3, TRUE)</f>
+        <v>4</v>
+      </c>
+      <c r="BG3" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 3:3)/_xlfn.XLOOKUP("Feature count", $1:$1, 3:3)</f>
+        <v>56.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="BF3" s="4">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 3:3)/_xlfn.XLOOKUP("Feature count", $1:$1, 3:3)</f>
-        <v>19.692307692307693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>508</v>
+        <v>251</v>
       </c>
       <c r="E4" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F30" si="1">_xlfn.XLOOKUP("Main size", $1:$1, 4:4)+_xlfn.XLOOKUP("Extra size", $1:$1, 4:4)</f>
-        <v>512</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 4:4)+_xlfn.XLOOKUP("Extra size", $1:$1, 4:4)</f>
+        <v>251</v>
       </c>
       <c r="G4" s="10" t="b">
         <v>1</v>
@@ -1556,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>22</v>
@@ -1577,28 +1609,28 @@
         <v>0</v>
       </c>
       <c r="T4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="10" t="b">
         <v>0</v>
@@ -1687,34 +1719,37 @@
       <c r="BD4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE4" s="9">
-        <f t="shared" ref="BE4:BE30" si="2">COUNTIF($G4:$BD4, "SYS")+COUNTIF($G4:$BD4, TRUE)</f>
-        <v>17</v>
-      </c>
-      <c r="BF4" s="4">
-        <f t="shared" ref="BF4:BF30" si="3">_xlfn.XLOOKUP("Main size", $1:$1, 4:4)/_xlfn.XLOOKUP("Feature count", $1:$1, 4:4)</f>
-        <v>29.882352941176471</v>
+      <c r="BE4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="9">
+        <f>COUNTIF($G4:$BE4, "SYS")+COUNTIF($G4:$BE4, TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="BG4" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 4:4)/_xlfn.XLOOKUP("Feature count", $1:$1, 4:4)</f>
+        <v>35.857142857142854</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="E5" s="3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
-        <v>331</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 5:5)+_xlfn.XLOOKUP("Extra size", $1:$1, 5:5)</f>
+        <v>256</v>
       </c>
       <c r="G5" s="10" t="b">
         <v>1</v>
@@ -1729,43 +1764,43 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="P5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="U5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="W5" s="10" t="s">
-        <v>22</v>
+      <c r="W5" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="X5" s="10" t="b">
         <v>0</v>
@@ -1779,11 +1814,11 @@
       <c r="AA5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AB5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>22</v>
+      <c r="AB5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AD5" s="10" t="b">
         <v>0</v>
@@ -1866,21 +1901,24 @@
       <c r="BD5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE5" s="9">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="BF5" s="4">
-        <f t="shared" si="3"/>
-        <v>30.4</v>
+      <c r="BE5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="9">
+        <f>COUNTIF($G5:$BE5, "SYS")+COUNTIF($G5:$BE5, TRUE)</f>
+        <v>15</v>
+      </c>
+      <c r="BG5" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 5:5)/_xlfn.XLOOKUP("Feature count", $1:$1, 5:5)</f>
+        <v>17.066666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>5</v>
@@ -1892,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 6:6)+_xlfn.XLOOKUP("Extra size", $1:$1, 6:6)</f>
         <v>256</v>
       </c>
       <c r="G6" s="10" t="b">
@@ -1959,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="10" t="b">
         <v>0</v>
@@ -2045,34 +2083,37 @@
       <c r="BD6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE6" s="9">
-        <f t="shared" si="2"/>
+      <c r="BE6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="9">
+        <f>COUNTIF($G6:$BE6, "SYS")+COUNTIF($G6:$BE6, TRUE)</f>
         <v>8</v>
       </c>
-      <c r="BF6" s="4">
-        <f t="shared" si="3"/>
+      <c r="BG6" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 6:6)/_xlfn.XLOOKUP("Feature count", $1:$1, 6:6)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>464</v>
+        <v>274</v>
       </c>
       <c r="E7" s="3">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
-        <v>506</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 7:7)+_xlfn.XLOOKUP("Extra size", $1:$1, 7:7)</f>
+        <v>300</v>
       </c>
       <c r="G7" s="10" t="b">
         <v>1</v>
@@ -2084,25 +2125,25 @@
         <v>1</v>
       </c>
       <c r="J7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="10" t="b">
         <v>0</v>
       </c>
       <c r="P7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="10" t="b">
         <v>0</v>
@@ -2113,38 +2154,38 @@
       <c r="S7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="10" t="s">
+      <c r="W7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="Z7" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AA7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AB7" s="10" t="s">
-        <v>22</v>
+      <c r="AB7" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AC7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AD7" s="10" t="b">
-        <v>1</v>
+      <c r="AD7" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AE7" s="10" t="b">
         <v>0</v>
@@ -2224,392 +2265,401 @@
       <c r="BD7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE7" s="9">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="BF7" s="4">
-        <f t="shared" si="3"/>
-        <v>33.142857142857146</v>
+      <c r="BE7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="9">
+        <f>COUNTIF($G7:$BE7, "SYS")+COUNTIF($G7:$BE7, TRUE)</f>
+        <v>8</v>
+      </c>
+      <c r="BG7" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 7:7)/_xlfn.XLOOKUP("Feature count", $1:$1, 7:7)</f>
+        <v>34.25</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>304</v>
+      </c>
+      <c r="E8" s="3">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 8:8)+_xlfn.XLOOKUP("Extra size", $1:$1, 8:8)</f>
+        <v>331</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="9">
+        <f>COUNTIF($G8:$BE8, "SYS")+COUNTIF($G8:$BE8, TRUE)</f>
+        <v>10</v>
+      </c>
+      <c r="BG8" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 8:8)/_xlfn.XLOOKUP("Feature count", $1:$1, 8:8)</f>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
-        <v>471</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="1"/>
-        <v>471</v>
-      </c>
-      <c r="G8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" s="10" t="s">
+      <c r="D9" s="3">
+        <v>446</v>
+      </c>
+      <c r="E9" s="3">
+        <v>66</v>
+      </c>
+      <c r="F9" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 9:9)+_xlfn.XLOOKUP("Extra size", $1:$1, 9:9)</f>
+        <v>512</v>
+      </c>
+      <c r="G9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="9">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="BF8" s="4">
-        <f t="shared" si="3"/>
-        <v>33.642857142857146</v>
+      <c r="P9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="9">
+        <f>COUNTIF($G9:$BE9, "SYS")+COUNTIF($G9:$BE9, TRUE)</f>
+        <v>10</v>
+      </c>
+      <c r="BG9" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 9:9)/_xlfn.XLOOKUP("Feature count", $1:$1, 9:9)</f>
+        <v>44.6</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>274</v>
-      </c>
-      <c r="E9" s="3">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="G9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="X9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="9">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="BF9" s="4">
-        <f t="shared" si="3"/>
-        <v>34.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>251</v>
+        <v>446</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
-        <v>251</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 10:10)+_xlfn.XLOOKUP("Extra size", $1:$1, 10:10)</f>
+        <v>512</v>
       </c>
       <c r="G10" s="10" t="b">
         <v>1</v>
@@ -2627,13 +2677,13 @@
         <v>1</v>
       </c>
       <c r="L10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="10" t="b">
         <v>0</v>
       </c>
       <c r="N10" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="10" t="s">
         <v>22</v>
@@ -2714,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="10" t="b">
         <v>0</v>
@@ -2761,34 +2811,37 @@
       <c r="BD10" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE10" s="9">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="BF10" s="4">
-        <f t="shared" si="3"/>
-        <v>35.857142857142854</v>
+      <c r="BE10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="9">
+        <f>COUNTIF($G10:$BE10, "SYS")+COUNTIF($G10:$BE10, TRUE)</f>
+        <v>8</v>
+      </c>
+      <c r="BG10" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 10:10)/_xlfn.XLOOKUP("Feature count", $1:$1, 10:10)</f>
+        <v>55.75</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="E11" s="3">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
-        <v>512</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 11:11)+_xlfn.XLOOKUP("Extra size", $1:$1, 11:11)</f>
+        <v>457</v>
       </c>
       <c r="G11" s="10" t="b">
         <v>1</v>
@@ -2800,13 +2853,13 @@
         <v>1</v>
       </c>
       <c r="J11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="10" t="b">
         <v>1</v>
@@ -2814,54 +2867,54 @@
       <c r="N11" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AE11" s="10" t="b">
         <v>0</v>
       </c>
@@ -2940,34 +2993,37 @@
       <c r="BD11" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE11" s="9">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="BF11" s="4">
-        <f t="shared" si="3"/>
-        <v>44.6</v>
+      <c r="BE11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="9">
+        <f>COUNTIF($G11:$BE11, "SYS")+COUNTIF($G11:$BE11, TRUE)</f>
+        <v>7</v>
+      </c>
+      <c r="BG11" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 11:11)/_xlfn.XLOOKUP("Feature count", $1:$1, 11:11)</f>
+        <v>65.285714285714292</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>464</v>
+      </c>
+      <c r="E12" s="3">
         <v>42</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>510</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
-        <v>510</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 12:12)+_xlfn.XLOOKUP("Extra size", $1:$1, 12:12)</f>
+        <v>506</v>
       </c>
       <c r="G12" s="10" t="b">
         <v>1</v>
@@ -2991,40 +3047,40 @@
         <v>1</v>
       </c>
       <c r="N12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V12" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="W12" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Y12" s="10" t="b">
-        <v>0</v>
+      <c r="Y12" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="Z12" s="10" t="b">
         <v>0</v>
@@ -3033,16 +3089,16 @@
         <v>0</v>
       </c>
       <c r="AB12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="10" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AE12" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="10" t="b">
         <v>0</v>
@@ -3119,34 +3175,37 @@
       <c r="BD12" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE12" s="9">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="BF12" s="4">
-        <f t="shared" si="3"/>
-        <v>46.363636363636367</v>
+      <c r="BE12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="9">
+        <f>COUNTIF($G12:$BE12, "SYS")+COUNTIF($G12:$BE12, TRUE)</f>
+        <v>14</v>
+      </c>
+      <c r="BG12" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 12:12)/_xlfn.XLOOKUP("Feature count", $1:$1, 12:12)</f>
+        <v>33.142857142857146</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="E13" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
-        <v>512</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 13:13)+_xlfn.XLOOKUP("Extra size", $1:$1, 13:13)</f>
+        <v>471</v>
       </c>
       <c r="G13" s="10" t="b">
         <v>1</v>
@@ -3167,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="10" t="b">
         <v>1</v>
@@ -3176,7 +3235,7 @@
         <v>22</v>
       </c>
       <c r="P13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="10" t="b">
         <v>1</v>
@@ -3197,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="10" t="b">
         <v>0</v>
@@ -3215,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="10" t="b">
         <v>0</v>
@@ -3298,212 +3357,218 @@
       <c r="BD13" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE13" s="9">
-        <f t="shared" si="2"/>
+      <c r="BE13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="9">
+        <f>COUNTIF($G13:$BE13, "SYS")+COUNTIF($G13:$BE13, TRUE)</f>
+        <v>14</v>
+      </c>
+      <c r="BG13" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 13:13)/_xlfn.XLOOKUP("Feature count", $1:$1, 13:13)</f>
+        <v>33.642857142857146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>491</v>
+      </c>
+      <c r="E14" s="3">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 14:14)+_xlfn.XLOOKUP("Extra size", $1:$1, 14:14)</f>
+        <v>512</v>
+      </c>
+      <c r="G14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="9">
+        <f>COUNTIF($G14:$BE14, "SYS")+COUNTIF($G14:$BE14, TRUE)</f>
         <v>10</v>
       </c>
-      <c r="BF13" s="4">
-        <f t="shared" si="3"/>
+      <c r="BG14" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 14:14)/_xlfn.XLOOKUP("Feature count", $1:$1, 14:14)</f>
         <v>49.1</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1459</v>
-      </c>
-      <c r="E14" s="3">
-        <v>91</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="1"/>
-        <v>1550</v>
-      </c>
-      <c r="G14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="X14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE14" s="9">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="BF14" s="4">
-        <f t="shared" si="3"/>
-        <v>50.310344827586206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="3">
-        <v>446</v>
+        <v>508</v>
       </c>
       <c r="E15" s="3">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 15:15)+_xlfn.XLOOKUP("Extra size", $1:$1, 15:15)</f>
         <v>512</v>
       </c>
       <c r="G15" s="10" t="b">
@@ -3522,10 +3587,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="10" t="b">
         <v>1</v>
@@ -3540,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="10" t="b">
         <v>0</v>
@@ -3552,25 +3617,25 @@
         <v>0</v>
       </c>
       <c r="V15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="10" t="b">
         <v>0</v>
@@ -3579,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="10" t="b">
         <v>0</v>
@@ -3656,288 +3721,294 @@
       <c r="BD15" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE15" s="9">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="BF15" s="4">
-        <f t="shared" si="3"/>
-        <v>55.75</v>
+      <c r="BE15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="9">
+        <f>COUNTIF($G15:$BE15, "SYS")+COUNTIF($G15:$BE15, TRUE)</f>
+        <v>17</v>
+      </c>
+      <c r="BG15" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 15:15)/_xlfn.XLOOKUP("Feature count", $1:$1, 15:15)</f>
+        <v>29.882352941176471</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>510</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 16:16)+_xlfn.XLOOKUP("Extra size", $1:$1, 16:16)</f>
+        <v>510</v>
+      </c>
+      <c r="G16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="9">
+        <f>COUNTIF($G16:$BE16, "SYS")+COUNTIF($G16:$BE16, TRUE)</f>
+        <v>11</v>
+      </c>
+      <c r="BG16" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 16:16)/_xlfn.XLOOKUP("Feature count", $1:$1, 16:16)</f>
+        <v>46.363636363636367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
-        <v>227</v>
-      </c>
-      <c r="E16" s="3">
-        <v>25</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-      <c r="G16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W16" s="10" t="s">
+      <c r="D17" s="3">
+        <v>1269</v>
+      </c>
+      <c r="E17" s="3">
+        <v>234</v>
+      </c>
+      <c r="F17" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 17:17)+_xlfn.XLOOKUP("Extra size", $1:$1, 17:17)</f>
+        <v>1503</v>
+      </c>
+      <c r="G17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="10" t="s">
+      <c r="W17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AC16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE16" s="9">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="BF16" s="4">
-        <f t="shared" si="3"/>
-        <v>56.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3">
-        <v>457</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="1"/>
-        <v>457</v>
-      </c>
-      <c r="G17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="Z17" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AD17" s="10" t="b">
-        <v>0</v>
+      <c r="AD17" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AE17" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="10" t="b">
         <v>0</v>
@@ -4014,750 +4085,765 @@
       <c r="BD17" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE17" s="9">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="BF17" s="4">
-        <f t="shared" si="3"/>
-        <v>65.285714285714292</v>
+      <c r="BE17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="9">
+        <f>COUNTIF($G17:$BE17, "SYS")+COUNTIF($G17:$BE17, TRUE)</f>
+        <v>18</v>
+      </c>
+      <c r="BG17" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 17:17)/_xlfn.XLOOKUP("Feature count", $1:$1, 17:17)</f>
+        <v>70.5</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1358</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 18:18)+_xlfn.XLOOKUP("Extra size", $1:$1, 18:18)</f>
+        <v>1358</v>
+      </c>
+      <c r="G18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="9">
+        <f>COUNTIF($G18:$BE18, "SYS")+COUNTIF($G18:$BE18, TRUE)</f>
+        <v>18</v>
+      </c>
+      <c r="BG18" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 18:18)/_xlfn.XLOOKUP("Feature count", $1:$1, 18:18)</f>
+        <v>75.444444444444443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1459</v>
+      </c>
+      <c r="E19" s="3">
+        <v>91</v>
+      </c>
+      <c r="F19" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 19:19)+_xlfn.XLOOKUP("Extra size", $1:$1, 19:19)</f>
+        <v>1550</v>
+      </c>
+      <c r="G19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="9">
+        <f>COUNTIF($G19:$BE19, "SYS")+COUNTIF($G19:$BE19, TRUE)</f>
+        <v>30</v>
+      </c>
+      <c r="BG19" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 19:19)/_xlfn.XLOOKUP("Feature count", $1:$1, 19:19)</f>
+        <v>48.633333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="3">
-        <v>1269</v>
-      </c>
-      <c r="E18" s="3">
-        <v>234</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="1"/>
-        <v>1503</v>
-      </c>
-      <c r="G18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T18" s="10" t="s">
+      <c r="D20" s="3">
+        <v>1805</v>
+      </c>
+      <c r="E20" s="3">
+        <v>123</v>
+      </c>
+      <c r="F20" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 20:20)+_xlfn.XLOOKUP("Extra size", $1:$1, 20:20)</f>
+        <v>1928</v>
+      </c>
+      <c r="G20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="U18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W18" s="10" t="s">
+      <c r="Z20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="10" t="s">
+      <c r="AD20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AE20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="9">
+        <f>COUNTIF($G20:$BE20, "SYS")+COUNTIF($G20:$BE20, TRUE)</f>
+        <v>15</v>
+      </c>
+      <c r="BG20" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 20:20)/_xlfn.XLOOKUP("Feature count", $1:$1, 20:20)</f>
+        <v>120.33333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1896</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 21:21)+_xlfn.XLOOKUP("Extra size", $1:$1, 21:21)</f>
+        <v>1896</v>
+      </c>
+      <c r="G21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AD18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="9">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="BF18" s="4">
-        <f t="shared" si="3"/>
-        <v>70.5</v>
+      <c r="P21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="9">
+        <f>COUNTIF($G21:$BE21, "SYS")+COUNTIF($G21:$BE21, TRUE)</f>
+        <v>16</v>
+      </c>
+      <c r="BG21" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 21:21)/_xlfn.XLOOKUP("Feature count", $1:$1, 21:21)</f>
+        <v>118.5</v>
       </c>
     </row>
-    <row r="19" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1358</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="1"/>
-        <v>1358</v>
-      </c>
-      <c r="G19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE19" s="9">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="BF19" s="4">
-        <f t="shared" si="3"/>
-        <v>75.444444444444443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    <row r="22" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2048</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="1"/>
-        <v>2048</v>
-      </c>
-      <c r="G20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE20" s="9">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="BF20" s="4">
-        <f t="shared" si="3"/>
-        <v>93.090909090909093</v>
-      </c>
-    </row>
-    <row r="21" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1805</v>
-      </c>
-      <c r="E21" s="3">
-        <v>123</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="1"/>
-        <v>1928</v>
-      </c>
-      <c r="G21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="X21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE21" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="BF21" s="4">
-        <f t="shared" si="3"/>
-        <v>120.33333333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="3">
-        <v>1896</v>
+        <v>2048</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
-        <v>1896</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 22:22)+_xlfn.XLOOKUP("Extra size", $1:$1, 22:22)</f>
+        <v>2048</v>
       </c>
       <c r="G22" s="10" t="b">
         <v>1</v>
@@ -4799,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="10" t="b">
         <v>0</v>
@@ -4808,43 +4894,43 @@
         <v>1</v>
       </c>
       <c r="W22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="10" t="b">
         <v>0</v>
       </c>
       <c r="Z22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AD22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AH22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="10" t="b">
         <v>0</v>
@@ -4874,16 +4960,16 @@
         <v>0</v>
       </c>
       <c r="AS22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AV22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="10" t="b">
         <v>0</v>
@@ -4909,34 +4995,37 @@
       <c r="BD22" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE22" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="BF22" s="4">
-        <f t="shared" si="3"/>
-        <v>126.4</v>
+      <c r="BE22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="9">
+        <f>COUNTIF($G22:$BE22, "SYS")+COUNTIF($G22:$BE22, TRUE)</f>
+        <v>22</v>
+      </c>
+      <c r="BG22" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 22:22)/_xlfn.XLOOKUP("Feature count", $1:$1, 22:22)</f>
+        <v>93.090909090909093</v>
       </c>
     </row>
-    <row r="23" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>4016</v>
+        <v>2710</v>
       </c>
       <c r="E23" s="3">
-        <v>1024</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="1"/>
-        <v>5040</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 23:23)+_xlfn.XLOOKUP("Extra size", $1:$1, 23:23)</f>
+        <v>2810</v>
       </c>
       <c r="G23" s="10" t="b">
         <v>1</v>
@@ -4969,32 +5058,32 @@
         <v>1</v>
       </c>
       <c r="Q23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="T23" s="10" t="s">
+      <c r="T23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="U23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W23" s="10" t="s">
+      <c r="W23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="Z23" s="10" t="b">
         <v>0</v>
       </c>
@@ -5002,16 +5091,16 @@
         <v>0</v>
       </c>
       <c r="AB23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AD23" s="10" t="b">
-        <v>1</v>
+      <c r="AD23" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AE23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" s="10" t="b">
         <v>0</v>
@@ -5023,13 +5112,13 @@
         <v>0</v>
       </c>
       <c r="AI23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="10" t="b">
         <v>0</v>
@@ -5041,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="AO23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="10" t="b">
         <v>0</v>
@@ -5059,25 +5148,25 @@
         <v>0</v>
       </c>
       <c r="AU23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AW23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="10" t="b">
         <v>0</v>
@@ -5088,572 +5177,584 @@
       <c r="BD23" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE23" s="9">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="BF23" s="4">
-        <f t="shared" si="3"/>
-        <v>133.86666666666667</v>
+      <c r="BE23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="9">
+        <f>COUNTIF($G23:$BE23, "SYS")+COUNTIF($G23:$BE23, TRUE)</f>
+        <v>16</v>
+      </c>
+      <c r="BG23" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 23:23)/_xlfn.XLOOKUP("Feature count", $1:$1, 23:23)</f>
+        <v>169.375</v>
       </c>
     </row>
-    <row r="24" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2738</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 24:24)+_xlfn.XLOOKUP("Extra size", $1:$1, 24:24)</f>
+        <v>2738</v>
+      </c>
+      <c r="G24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="9">
+        <f>COUNTIF($G24:$BE24, "SYS")+COUNTIF($G24:$BE24, TRUE)</f>
+        <v>17</v>
+      </c>
+      <c r="BG24" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 24:24)/_xlfn.XLOOKUP("Feature count", $1:$1, 24:24)</f>
+        <v>161.05882352941177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2824</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 25:25)+_xlfn.XLOOKUP("Extra size", $1:$1, 25:25)</f>
+        <v>2824</v>
+      </c>
+      <c r="G25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="9">
+        <f>COUNTIF($G25:$BE25, "SYS")+COUNTIF($G25:$BE25, TRUE)</f>
+        <v>17</v>
+      </c>
+      <c r="BG25" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 25:25)/_xlfn.XLOOKUP("Feature count", $1:$1, 25:25)</f>
+        <v>166.11764705882354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2882</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)+_xlfn.XLOOKUP("Extra size", $1:$1, 26:26)</f>
+        <v>2882</v>
+      </c>
+      <c r="G26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="9">
+        <f>COUNTIF($G26:$BE26, "SYS")+COUNTIF($G26:$BE26, TRUE)</f>
+        <v>16</v>
+      </c>
+      <c r="BG26" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)/_xlfn.XLOOKUP("Feature count", $1:$1, 26:26)</f>
+        <v>180.125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D27" s="3">
         <v>3998</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="1"/>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 27:27)+_xlfn.XLOOKUP("Extra size", $1:$1, 27:27)</f>
         <v>3998</v>
       </c>
-      <c r="G24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE24" s="9">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="BF24" s="4">
-        <f t="shared" si="3"/>
-        <v>159.91999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2738</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="1"/>
-        <v>2738</v>
-      </c>
-      <c r="G25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE25" s="9">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="BF25" s="4">
-        <f t="shared" si="3"/>
-        <v>161.05882352941177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2824</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="1"/>
-        <v>2824</v>
-      </c>
-      <c r="G26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="X26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE26" s="9">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="BF26" s="4">
-        <f t="shared" si="3"/>
-        <v>166.11764705882354</v>
-      </c>
-    </row>
-    <row r="27" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2882</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="1"/>
-        <v>2882</v>
-      </c>
       <c r="G27" s="10" t="b">
         <v>1</v>
       </c>
@@ -5679,31 +5780,31 @@
         <v>1</v>
       </c>
       <c r="O27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="10" t="b">
         <v>1</v>
       </c>
       <c r="R27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="10" t="b">
         <v>0</v>
       </c>
       <c r="T27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="10" t="b">
         <v>1</v>
       </c>
       <c r="W27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="10" t="b">
         <v>1</v>
@@ -5712,25 +5813,25 @@
         <v>0</v>
       </c>
       <c r="Z27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AB27" s="10" t="s">
-        <v>22</v>
+      <c r="AB27" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AC27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AD27" s="10" t="b">
-        <v>1</v>
+      <c r="AD27" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AE27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" s="10" t="b">
         <v>0</v>
@@ -5760,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="AP27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27" s="10" t="b">
         <v>0</v>
@@ -5784,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="AX27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="10" t="b">
         <v>0</v>
@@ -5799,397 +5900,406 @@
         <v>0</v>
       </c>
       <c r="BC27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD27" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="BE27" s="9">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="BF27" s="4">
-        <f t="shared" si="3"/>
-        <v>180.125</v>
+      <c r="BE27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="9">
+        <f>COUNTIF($G27:$BE27, "SYS")+COUNTIF($G27:$BE27, TRUE)</f>
+        <v>25</v>
+      </c>
+      <c r="BG27" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 27:27)/_xlfn.XLOOKUP("Feature count", $1:$1, 27:27)</f>
+        <v>159.91999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4002</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 28:28)+_xlfn.XLOOKUP("Extra size", $1:$1, 28:28)</f>
+        <v>4002</v>
+      </c>
+      <c r="G28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="9">
+        <f>COUNTIF($G28:$BE28, "SYS")+COUNTIF($G28:$BE28, TRUE)</f>
+        <v>21</v>
+      </c>
+      <c r="BG28" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 28:28)/_xlfn.XLOOKUP("Feature count", $1:$1, 28:28)</f>
+        <v>190.57142857142858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="3">
-        <v>2710</v>
-      </c>
-      <c r="E28" s="3">
-        <v>100</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="1"/>
-        <v>2810</v>
-      </c>
-      <c r="G28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T28" s="10" t="s">
+      <c r="D29" s="3">
+        <v>4016</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F29" s="3">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 29:29)+_xlfn.XLOOKUP("Extra size", $1:$1, 29:29)</f>
+        <v>5040</v>
+      </c>
+      <c r="G29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="U28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W28" s="10" t="s">
+      <c r="W29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="10" t="s">
+      <c r="Z29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AC28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE28" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="BF28" s="4">
-        <f t="shared" si="3"/>
-        <v>180.66666666666666</v>
+      <c r="AE29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="9">
+        <f>COUNTIF($G29:$BE29, "SYS")+COUNTIF($G29:$BE29, TRUE)</f>
+        <v>30</v>
+      </c>
+      <c r="BG29" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 29:29)/_xlfn.XLOOKUP("Feature count", $1:$1, 29:29)</f>
+        <v>133.86666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="30" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="3">
-        <v>4095</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="1"/>
-        <v>4095</v>
-      </c>
-      <c r="G29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="U29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="V29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="W29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE29" s="9">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="BF29" s="4">
-        <f t="shared" si="3"/>
-        <v>186.13636363636363</v>
-      </c>
-    </row>
-    <row r="30" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="3">
-        <v>4002</v>
+        <v>4095</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="1"/>
-        <v>4002</v>
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 30:30)+_xlfn.XLOOKUP("Extra size", $1:$1, 30:30)</f>
+        <v>4095</v>
       </c>
       <c r="G30" s="10" t="b">
         <v>1</v>
@@ -6216,25 +6326,25 @@
         <v>1</v>
       </c>
       <c r="O30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="10" t="b">
         <v>1</v>
@@ -6243,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="X30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="10" t="b">
         <v>0</v>
@@ -6255,28 +6365,28 @@
         <v>0</v>
       </c>
       <c r="AB30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AD30" s="10" t="b">
-        <v>1</v>
+      <c r="AD30" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AE30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="10" t="b">
         <v>0</v>
@@ -6297,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="10" t="b">
         <v>0</v>
@@ -6318,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="AW30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX30" s="10" t="b">
         <v>0</v>
@@ -6327,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30" s="10" t="b">
         <v>0</v>
@@ -6341,19 +6451,22 @@
       <c r="BD30" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="BE30" s="9">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="BF30" s="4">
-        <f t="shared" si="3"/>
-        <v>190.57142857142858</v>
+      <c r="BE30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="9">
+        <f>COUNTIF($G30:$BE30, "SYS")+COUNTIF($G30:$BE30, TRUE)</f>
+        <v>22</v>
+      </c>
+      <c r="BG30" s="4">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 30:30)/_xlfn.XLOOKUP("Feature count", $1:$1, 30:30)</f>
+        <v>186.13636363636363</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BF30" xr:uid="{8512C64C-DE47-334B-AE0C-39DDD4F96E15}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BF30">
-      <sortCondition ref="BF2:BF30"/>
+  <autoFilter ref="A2:BG30" xr:uid="{8512C64C-DE47-334B-AE0C-39DDD4F96E15}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BG30">
+      <sortCondition ref="D2:D30"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6392,7 +6505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:BD30">
+  <conditionalFormatting sqref="G3:BE30">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -6403,7 +6516,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:BE30">
+  <conditionalFormatting sqref="BF3:BF30">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6413,7 +6526,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF3:BF30">
+  <conditionalFormatting sqref="BG3:BG30">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6424,34 +6537,34 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{8B9F4BC6-14C6-4345-BA9C-9D9C8BC6C54A}"/>
-    <hyperlink ref="A21" r:id="rId2" xr:uid="{B15F6BAD-35BC-2A4D-A9F9-E3397D6C9F57}"/>
-    <hyperlink ref="A23" r:id="rId3" xr:uid="{A76D4E5E-9C61-C846-BF68-39EA20E19271}"/>
-    <hyperlink ref="A28" r:id="rId4" xr:uid="{271A3F43-6A28-9044-9B77-55CB67E8E604}"/>
-    <hyperlink ref="A27" r:id="rId5" xr:uid="{3319FE9B-1572-7B45-A51A-8631F49908F5}"/>
-    <hyperlink ref="A25" r:id="rId6" xr:uid="{6A5AEB05-49D4-5A43-AC85-14DC910FF378}"/>
-    <hyperlink ref="A26" r:id="rId7" xr:uid="{692BC8D6-C410-5A4C-9AC4-692F65427B7C}"/>
-    <hyperlink ref="A20" r:id="rId8" xr:uid="{7A0C5CE4-FDBB-C142-89E0-609051079143}"/>
-    <hyperlink ref="A24" r:id="rId9" xr:uid="{B27A7A0A-1947-624B-A135-AC2E4FA9DCDF}"/>
-    <hyperlink ref="A17" r:id="rId10" xr:uid="{BBFDB1C2-F4D5-9F4F-9AB4-84F69F8E341F}"/>
-    <hyperlink ref="A18" r:id="rId11" xr:uid="{47C1315B-4443-9B43-9DB9-33643DFA677C}"/>
-    <hyperlink ref="A19" r:id="rId12" xr:uid="{C77570FF-B176-1F4E-AC94-8C167340C676}"/>
-    <hyperlink ref="A22" r:id="rId13" xr:uid="{1A073B5B-BE69-9E43-BB31-2AC1F74931C7}"/>
-    <hyperlink ref="A16" r:id="rId14" xr:uid="{65802411-1B8E-064F-A6D7-DAD404DC6F66}"/>
-    <hyperlink ref="A13" r:id="rId15" xr:uid="{8DAB0B02-5401-BF46-90F9-B2B728905C99}"/>
-    <hyperlink ref="A12" r:id="rId16" xr:uid="{F2854865-7589-3148-9BD0-694117F0C02A}"/>
-    <hyperlink ref="A14" r:id="rId17" xr:uid="{0305B1A2-7666-264C-831F-82265021FFB7}"/>
-    <hyperlink ref="A11" r:id="rId18" xr:uid="{2F1BE129-94F7-DB45-B74A-D5DECFC8BD1F}"/>
-    <hyperlink ref="A10" r:id="rId19" xr:uid="{022DC04F-D95A-7246-8451-7C3BA522CD1C}"/>
-    <hyperlink ref="A8" r:id="rId20" xr:uid="{0C291FB0-BA8C-E141-98A4-91A6B6DD9884}"/>
-    <hyperlink ref="A9" r:id="rId21" xr:uid="{1EAE54DC-A089-B24E-A04A-825543C48D1A}"/>
-    <hyperlink ref="A7" r:id="rId22" xr:uid="{D6CABB3D-301E-5A48-8390-5B6D8D98891E}"/>
-    <hyperlink ref="A4" r:id="rId23" xr:uid="{76EB020E-CC71-B148-9424-BB7A1349A5E9}"/>
-    <hyperlink ref="A5" r:id="rId24" xr:uid="{469B8618-6944-6746-99BB-8FB17F692A90}"/>
-    <hyperlink ref="A30" r:id="rId25" xr:uid="{D7B84B32-63C9-7A46-AF5A-77D30F18AB91}"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{8B9F4BC6-14C6-4345-BA9C-9D9C8BC6C54A}"/>
+    <hyperlink ref="A20" r:id="rId2" xr:uid="{B15F6BAD-35BC-2A4D-A9F9-E3397D6C9F57}"/>
+    <hyperlink ref="A29" r:id="rId3" xr:uid="{A76D4E5E-9C61-C846-BF68-39EA20E19271}"/>
+    <hyperlink ref="A23" r:id="rId4" xr:uid="{271A3F43-6A28-9044-9B77-55CB67E8E604}"/>
+    <hyperlink ref="A26" r:id="rId5" xr:uid="{3319FE9B-1572-7B45-A51A-8631F49908F5}"/>
+    <hyperlink ref="A24" r:id="rId6" xr:uid="{6A5AEB05-49D4-5A43-AC85-14DC910FF378}"/>
+    <hyperlink ref="A25" r:id="rId7" xr:uid="{692BC8D6-C410-5A4C-9AC4-692F65427B7C}"/>
+    <hyperlink ref="A22" r:id="rId8" xr:uid="{7A0C5CE4-FDBB-C142-89E0-609051079143}"/>
+    <hyperlink ref="A27" r:id="rId9" xr:uid="{B27A7A0A-1947-624B-A135-AC2E4FA9DCDF}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{BBFDB1C2-F4D5-9F4F-9AB4-84F69F8E341F}"/>
+    <hyperlink ref="A17" r:id="rId11" xr:uid="{47C1315B-4443-9B43-9DB9-33643DFA677C}"/>
+    <hyperlink ref="A18" r:id="rId12" xr:uid="{C77570FF-B176-1F4E-AC94-8C167340C676}"/>
+    <hyperlink ref="A21" r:id="rId13" xr:uid="{1A073B5B-BE69-9E43-BB31-2AC1F74931C7}"/>
+    <hyperlink ref="A3" r:id="rId14" xr:uid="{65802411-1B8E-064F-A6D7-DAD404DC6F66}"/>
+    <hyperlink ref="A14" r:id="rId15" xr:uid="{8DAB0B02-5401-BF46-90F9-B2B728905C99}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{F2854865-7589-3148-9BD0-694117F0C02A}"/>
+    <hyperlink ref="A19" r:id="rId17" xr:uid="{0305B1A2-7666-264C-831F-82265021FFB7}"/>
+    <hyperlink ref="A9" r:id="rId18" xr:uid="{2F1BE129-94F7-DB45-B74A-D5DECFC8BD1F}"/>
+    <hyperlink ref="A4" r:id="rId19" xr:uid="{022DC04F-D95A-7246-8451-7C3BA522CD1C}"/>
+    <hyperlink ref="A13" r:id="rId20" xr:uid="{0C291FB0-BA8C-E141-98A4-91A6B6DD9884}"/>
+    <hyperlink ref="A7" r:id="rId21" xr:uid="{1EAE54DC-A089-B24E-A04A-825543C48D1A}"/>
+    <hyperlink ref="A12" r:id="rId22" xr:uid="{D6CABB3D-301E-5A48-8390-5B6D8D98891E}"/>
+    <hyperlink ref="A15" r:id="rId23" xr:uid="{76EB020E-CC71-B148-9424-BB7A1349A5E9}"/>
+    <hyperlink ref="A8" r:id="rId24" xr:uid="{469B8618-6944-6746-99BB-8FB17F692A90}"/>
+    <hyperlink ref="A28" r:id="rId25" xr:uid="{D7B84B32-63C9-7A46-AF5A-77D30F18AB91}"/>
     <hyperlink ref="A6" r:id="rId26" xr:uid="{7F8B8C37-627E-1945-A19A-ED78182D0280}"/>
-    <hyperlink ref="A29" r:id="rId27" xr:uid="{BE81C522-7811-534B-B250-C27D6ED80E13}"/>
-    <hyperlink ref="A3" r:id="rId28" xr:uid="{21C269AC-1EE5-D04C-BAA6-59834E8B2917}"/>
+    <hyperlink ref="A30" r:id="rId27" xr:uid="{BE81C522-7811-534B-B250-C27D6ED80E13}"/>
+    <hyperlink ref="A5" r:id="rId28" xr:uid="{21C269AC-1EE5-D04C-BAA6-59834E8B2917}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tetris-4k-archive.xlsx
+++ b/tetris-4k-archive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/493d989091475df7/Personal/GitHub/tetris4karchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1006" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79F71E87-87EF-5941-AB08-4ED0289DE3F4}"/>
+  <xr:revisionPtr revIDLastSave="1079" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C27C2FEF-0989-4745-B626-663A6BA2F69E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{F4EAB821-2EDC-3446-8812-752F41EB9B28}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21140" xr2:uid="{F4EAB821-2EDC-3446-8812-752F41EB9B28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>Rebecca König</t>
   </si>
   <si>
-    <t>Highscores</t>
-  </si>
-  <si>
     <t>Rotation</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
     <t>Piece statistics</t>
   </si>
   <si>
-    <t>Highscores with names</t>
-  </si>
-  <si>
     <t>Feature count</t>
   </si>
   <si>
@@ -408,6 +402,12 @@
   </si>
   <si>
     <t>Placement points</t>
+  </si>
+  <si>
+    <t>High scores</t>
+  </si>
+  <si>
+    <t>High scores with names</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -548,12 +548,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -583,6 +594,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -646,10 +663,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -953,7 +966,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D30"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,178 +991,178 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BD1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="BH1" s="2"/>
     </row>
@@ -1160,15 +1173,15 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6">
+      <c r="G2" s="12">
         <f>COUNTIF(G$3:G$30, "SYS")+COUNTIF(G$3:G$30, TRUE)</f>
         <v>27</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="12">
         <f t="shared" ref="H2:BE2" si="0">COUNTIF(H$3:H$30, "SYS")+COUNTIF(H$3:H$30, TRUE)</f>
         <v>27</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1367,70 +1380,70 @@
       <c r="BF2" s="6"/>
       <c r="BG2" s="6"/>
     </row>
-    <row r="3" spans="1:60" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="E3" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 3:3)+_xlfn.XLOOKUP("Extra size", $1:$1, 3:3)</f>
-        <v>252</v>
-      </c>
-      <c r="G3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="b">
-        <v>0</v>
+        <v>256</v>
+      </c>
+      <c r="G3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="J3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="P3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="10" t="b">
         <v>0</v>
@@ -1441,8 +1454,8 @@
       <c r="X3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Y3" s="10" t="s">
-        <v>22</v>
+      <c r="Y3" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="Z3" s="10" t="b">
         <v>0</v>
@@ -1453,11 +1466,11 @@
       <c r="AB3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>22</v>
+      <c r="AC3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AE3" s="10" t="b">
         <v>0</v>
@@ -1493,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="AP3" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="10" t="b">
         <v>0</v>
@@ -1542,16 +1555,16 @@
       </c>
       <c r="BF3" s="9">
         <f>COUNTIF($G3:$BE3, "SYS")+COUNTIF($G3:$BE3, TRUE)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BG3" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 3:3)/_xlfn.XLOOKUP("Feature count", $1:$1, 3:3)</f>
-        <v>56.75</v>
+        <v>17.066666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
@@ -1560,14 +1573,14 @@
         <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>251</v>
+        <v>508</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 4:4)+_xlfn.XLOOKUP("Extra size", $1:$1, 4:4)</f>
-        <v>251</v>
+        <v>512</v>
       </c>
       <c r="G4" s="10" t="b">
         <v>1</v>
@@ -1588,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="M4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" s="10" t="b">
         <v>0</v>
@@ -1603,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="10" t="b">
         <v>0</v>
@@ -1615,25 +1628,25 @@
         <v>0</v>
       </c>
       <c r="V4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="10" t="b">
         <v>0</v>
@@ -1724,32 +1737,32 @@
       </c>
       <c r="BF4" s="9">
         <f>COUNTIF($G4:$BE4, "SYS")+COUNTIF($G4:$BE4, TRUE)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BG4" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 4:4)/_xlfn.XLOOKUP("Feature count", $1:$1, 4:4)</f>
-        <v>35.857142857142854</v>
+        <v>29.882352941176471</v>
       </c>
     </row>
     <row r="5" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 5:5)+_xlfn.XLOOKUP("Extra size", $1:$1, 5:5)</f>
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="G5" s="10" t="b">
         <v>1</v>
@@ -1764,40 +1777,40 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="O5" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="P5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q5" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="10" t="b">
         <v>0</v>
@@ -1805,8 +1818,8 @@
       <c r="X5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Y5" s="10" t="b">
-        <v>0</v>
+      <c r="Y5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="Z5" s="10" t="b">
         <v>0</v>
@@ -1817,11 +1830,11 @@
       <c r="AB5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="10" t="b">
-        <v>0</v>
+      <c r="AC5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="AE5" s="10" t="b">
         <v>0</v>
@@ -1906,19 +1919,19 @@
       </c>
       <c r="BF5" s="9">
         <f>COUNTIF($G5:$BE5, "SYS")+COUNTIF($G5:$BE5, TRUE)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BG5" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 5:5)/_xlfn.XLOOKUP("Feature count", $1:$1, 5:5)</f>
-        <v>17.066666666666666</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="6" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>5</v>
@@ -1958,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6" s="10" t="b">
         <v>0</v>
@@ -2097,23 +2110,23 @@
     </row>
     <row r="7" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>274</v>
+        <v>464</v>
       </c>
       <c r="E7" s="3">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F7" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 7:7)+_xlfn.XLOOKUP("Extra size", $1:$1, 7:7)</f>
-        <v>300</v>
+        <v>506</v>
       </c>
       <c r="G7" s="10" t="b">
         <v>1</v>
@@ -2125,25 +2138,25 @@
         <v>1</v>
       </c>
       <c r="J7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="10" t="b">
         <v>0</v>
       </c>
       <c r="P7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="10" t="b">
         <v>0</v>
@@ -2161,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="10" t="b">
         <v>0</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z7" s="10" t="b">
         <v>0</v>
@@ -2182,13 +2195,13 @@
         <v>0</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="10" t="b">
         <v>0</v>
@@ -2270,32 +2283,32 @@
       </c>
       <c r="BF7" s="9">
         <f>COUNTIF($G7:$BE7, "SYS")+COUNTIF($G7:$BE7, TRUE)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BG7" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 7:7)/_xlfn.XLOOKUP("Feature count", $1:$1, 7:7)</f>
-        <v>34.25</v>
+        <v>33.142857142857146</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>304</v>
+        <v>471</v>
       </c>
       <c r="E8" s="3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 8:8)+_xlfn.XLOOKUP("Extra size", $1:$1, 8:8)</f>
-        <v>331</v>
+        <v>471</v>
       </c>
       <c r="G8" s="10" t="b">
         <v>1</v>
@@ -2310,25 +2323,25 @@
         <v>1</v>
       </c>
       <c r="K8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="10" t="b">
         <v>1</v>
       </c>
       <c r="N8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="P8" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="10" t="b">
         <v>0</v>
@@ -2343,16 +2356,16 @@
         <v>0</v>
       </c>
       <c r="V8" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Y8" s="10" t="s">
-        <v>22</v>
+      <c r="Y8" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="Z8" s="10" t="b">
         <v>0</v>
@@ -2363,14 +2376,14 @@
       <c r="AB8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>22</v>
+      <c r="AC8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AE8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="10" t="b">
         <v>0</v>
@@ -2452,32 +2465,32 @@
       </c>
       <c r="BF8" s="9">
         <f>COUNTIF($G8:$BE8, "SYS")+COUNTIF($G8:$BE8, TRUE)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BG8" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 8:8)/_xlfn.XLOOKUP("Feature count", $1:$1, 8:8)</f>
-        <v>30.4</v>
+        <v>33.642857142857146</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>446</v>
+        <v>274</v>
       </c>
       <c r="E9" s="3">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 9:9)+_xlfn.XLOOKUP("Extra size", $1:$1, 9:9)</f>
-        <v>512</v>
+        <v>300</v>
       </c>
       <c r="G9" s="10" t="b">
         <v>1</v>
@@ -2489,28 +2502,28 @@
         <v>1</v>
       </c>
       <c r="J9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>22</v>
+      <c r="O9" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="P9" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="10" t="b">
         <v>0</v>
@@ -2524,17 +2537,17 @@
       <c r="U9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="V9" s="10" t="b">
-        <v>0</v>
+      <c r="V9" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="W9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Y9" s="10" t="b">
-        <v>0</v>
+      <c r="Y9" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="Z9" s="10" t="b">
         <v>0</v>
@@ -2545,11 +2558,11 @@
       <c r="AB9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="10" t="b">
-        <v>0</v>
+      <c r="AC9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="AE9" s="10" t="b">
         <v>0</v>
@@ -2634,32 +2647,32 @@
       </c>
       <c r="BF9" s="9">
         <f>COUNTIF($G9:$BE9, "SYS")+COUNTIF($G9:$BE9, TRUE)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BG9" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 9:9)/_xlfn.XLOOKUP("Feature count", $1:$1, 9:9)</f>
-        <v>44.6</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="10" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>446</v>
+        <v>251</v>
       </c>
       <c r="E10" s="3">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 10:10)+_xlfn.XLOOKUP("Extra size", $1:$1, 10:10)</f>
-        <v>512</v>
+        <v>251</v>
       </c>
       <c r="G10" s="10" t="b">
         <v>1</v>
@@ -2677,16 +2690,16 @@
         <v>1</v>
       </c>
       <c r="L10" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="10" t="b">
         <v>0</v>
       </c>
       <c r="N10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="10" t="b">
         <v>0</v>
@@ -2764,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="10" t="b">
         <v>0</v>
@@ -2816,32 +2829,32 @@
       </c>
       <c r="BF10" s="9">
         <f>COUNTIF($G10:$BE10, "SYS")+COUNTIF($G10:$BE10, TRUE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG10" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 10:10)/_xlfn.XLOOKUP("Feature count", $1:$1, 10:10)</f>
-        <v>55.75</v>
+        <v>35.857142857142854</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F11" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 11:11)+_xlfn.XLOOKUP("Extra size", $1:$1, 11:11)</f>
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="G11" s="10" t="b">
         <v>1</v>
@@ -2853,13 +2866,13 @@
         <v>1</v>
       </c>
       <c r="J11" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="10" t="b">
         <v>1</v>
@@ -2867,14 +2880,14 @@
       <c r="N11" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="O11" s="10" t="b">
-        <v>0</v>
+      <c r="O11" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="P11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="10" t="b">
         <v>0</v>
@@ -2892,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="10" t="b">
         <v>0</v>
@@ -2910,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="AC11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="10" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AE11" s="10" t="b">
         <v>0</v>
@@ -2998,32 +3011,32 @@
       </c>
       <c r="BF11" s="9">
         <f>COUNTIF($G11:$BE11, "SYS")+COUNTIF($G11:$BE11, TRUE)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BG11" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 11:11)/_xlfn.XLOOKUP("Feature count", $1:$1, 11:11)</f>
-        <v>65.285714285714292</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3">
-        <v>464</v>
+        <v>510</v>
       </c>
       <c r="E12" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 12:12)+_xlfn.XLOOKUP("Extra size", $1:$1, 12:12)</f>
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="G12" s="10" t="b">
         <v>1</v>
@@ -3047,16 +3060,16 @@
         <v>1</v>
       </c>
       <c r="N12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" s="10" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="P12" s="10" t="b">
         <v>0</v>
       </c>
       <c r="Q12" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="10" t="b">
         <v>0</v>
@@ -3070,8 +3083,8 @@
       <c r="U12" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="V12" s="10" t="s">
-        <v>22</v>
+      <c r="V12" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="W12" s="10" t="b">
         <v>1</v>
@@ -3079,8 +3092,8 @@
       <c r="X12" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Y12" s="10" t="s">
-        <v>22</v>
+      <c r="Y12" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="Z12" s="10" t="b">
         <v>0</v>
@@ -3091,14 +3104,14 @@
       <c r="AB12" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD12" s="10" t="s">
-        <v>22</v>
+      <c r="AC12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AE12" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="10" t="b">
         <v>0</v>
@@ -3180,32 +3193,32 @@
       </c>
       <c r="BF12" s="9">
         <f>COUNTIF($G12:$BE12, "SYS")+COUNTIF($G12:$BE12, TRUE)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BG12" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 12:12)/_xlfn.XLOOKUP("Feature count", $1:$1, 12:12)</f>
-        <v>33.142857142857146</v>
+        <v>46.363636363636367</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>471</v>
+        <v>1459</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F13" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 13:13)+_xlfn.XLOOKUP("Extra size", $1:$1, 13:13)</f>
-        <v>471</v>
+        <v>1550</v>
       </c>
       <c r="G13" s="10" t="b">
         <v>1</v>
@@ -3231,41 +3244,41 @@
       <c r="N13" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="O13" s="10" t="s">
-        <v>22</v>
+      <c r="O13" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="P13" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q13" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="10" t="b">
         <v>0</v>
@@ -3277,37 +3290,37 @@
         <v>1</v>
       </c>
       <c r="AD13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AF13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13" s="10" t="b">
         <v>0</v>
@@ -3362,19 +3375,19 @@
       </c>
       <c r="BF13" s="9">
         <f>COUNTIF($G13:$BE13, "SYS")+COUNTIF($G13:$BE13, TRUE)</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="BG13" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 13:13)/_xlfn.XLOOKUP("Feature count", $1:$1, 13:13)</f>
-        <v>33.642857142857146</v>
+        <v>48.633333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>5</v>
@@ -3414,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P14" s="10" t="b">
         <v>0</v>
@@ -3553,19 +3566,19 @@
     </row>
     <row r="15" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="3">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 15:15)+_xlfn.XLOOKUP("Extra size", $1:$1, 15:15)</f>
@@ -3587,16 +3600,16 @@
         <v>1</v>
       </c>
       <c r="L15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="10" t="b">
         <v>1</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P15" s="10" t="b">
         <v>0</v>
@@ -3605,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="10" t="b">
         <v>0</v>
@@ -3617,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="V15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="10" t="b">
         <v>0</v>
@@ -3674,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="10" t="b">
         <v>0</v>
@@ -3726,65 +3739,65 @@
       </c>
       <c r="BF15" s="9">
         <f>COUNTIF($G15:$BE15, "SYS")+COUNTIF($G15:$BE15, TRUE)</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="BG15" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 15:15)/_xlfn.XLOOKUP("Feature count", $1:$1, 15:15)</f>
-        <v>29.882352941176471</v>
+        <v>55.75</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>510</v>
+        <v>227</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F16" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 16:16)+_xlfn.XLOOKUP("Extra size", $1:$1, 16:16)</f>
-        <v>510</v>
+        <v>252</v>
       </c>
       <c r="G16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="O16" s="10" t="s">
-        <v>22</v>
+      <c r="O16" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="P16" s="10" t="b">
         <v>0</v>
       </c>
       <c r="Q16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="10" t="b">
         <v>0</v>
@@ -3802,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="W16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="Y16" s="10" t="b">
-        <v>0</v>
+      <c r="Y16" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="Z16" s="10" t="b">
         <v>0</v>
@@ -3819,11 +3832,11 @@
       <c r="AB16" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="10" t="b">
-        <v>0</v>
+      <c r="AC16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD16" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="AE16" s="10" t="b">
         <v>0</v>
@@ -3859,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="10" t="b">
         <v>0</v>
@@ -3908,32 +3921,32 @@
       </c>
       <c r="BF16" s="9">
         <f>COUNTIF($G16:$BE16, "SYS")+COUNTIF($G16:$BE16, TRUE)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BG16" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 16:16)/_xlfn.XLOOKUP("Feature count", $1:$1, 16:16)</f>
-        <v>46.363636363636367</v>
+        <v>56.75</v>
       </c>
     </row>
     <row r="17" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3">
-        <v>1269</v>
+        <v>457</v>
       </c>
       <c r="E17" s="3">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 17:17)+_xlfn.XLOOKUP("Extra size", $1:$1, 17:17)</f>
-        <v>1503</v>
+        <v>457</v>
       </c>
       <c r="G17" s="10" t="b">
         <v>1</v>
@@ -3945,13 +3958,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="10" t="b">
         <v>1</v>
@@ -3966,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="10" t="b">
         <v>0</v>
@@ -3975,25 +3988,25 @@
         <v>0</v>
       </c>
       <c r="T17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="V17" s="10" t="s">
-        <v>22</v>
+      <c r="V17" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="W17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="Z17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="10" t="b">
         <v>0</v>
@@ -4001,14 +4014,14 @@
       <c r="AB17" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC17" s="10" t="s">
-        <v>22</v>
+      <c r="AC17" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="AD17" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="10" t="b">
         <v>0</v>
@@ -4090,32 +4103,32 @@
       </c>
       <c r="BF17" s="9">
         <f>COUNTIF($G17:$BE17, "SYS")+COUNTIF($G17:$BE17, TRUE)</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="BG17" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 17:17)/_xlfn.XLOOKUP("Feature count", $1:$1, 17:17)</f>
-        <v>70.5</v>
+        <v>65.285714285714292</v>
       </c>
     </row>
     <row r="18" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>1358</v>
+        <v>1269</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="F18" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 18:18)+_xlfn.XLOOKUP("Extra size", $1:$1, 18:18)</f>
-        <v>1358</v>
+        <v>1503</v>
       </c>
       <c r="G18" s="10" t="b">
         <v>1</v>
@@ -4136,46 +4149,46 @@
         <v>1</v>
       </c>
       <c r="M18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="O18" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="P18" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="10" t="b">
         <v>0</v>
       </c>
       <c r="T18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="V18" s="10" t="b">
-        <v>1</v>
+      <c r="V18" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="W18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="Y18" s="10" t="b">
-        <v>0</v>
+      <c r="Y18" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="Z18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="10" t="b">
         <v>0</v>
@@ -4183,23 +4196,23 @@
       <c r="AB18" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="10" t="b">
-        <v>0</v>
+      <c r="AC18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="AE18" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AF18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AH18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="10" t="b">
         <v>0</v>
@@ -4226,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="10" t="b">
         <v>0</v>
@@ -4276,28 +4289,28 @@
       </c>
       <c r="BG18" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 18:18)/_xlfn.XLOOKUP("Feature count", $1:$1, 18:18)</f>
-        <v>75.444444444444443</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="19" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3">
-        <v>1459</v>
+        <v>1358</v>
       </c>
       <c r="E19" s="3">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 19:19)+_xlfn.XLOOKUP("Extra size", $1:$1, 19:19)</f>
-        <v>1550</v>
+        <v>1358</v>
       </c>
       <c r="G19" s="10" t="b">
         <v>1</v>
@@ -4318,13 +4331,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="O19" s="10" t="b">
-        <v>1</v>
+      <c r="O19" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="P19" s="10" t="b">
         <v>1</v>
@@ -4336,13 +4349,13 @@
         <v>1</v>
       </c>
       <c r="S19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="10" t="b">
         <v>1</v>
@@ -4354,10 +4367,10 @@
         <v>1</v>
       </c>
       <c r="Y19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="10" t="b">
         <v>0</v>
@@ -4369,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="AD19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="10" t="b">
         <v>1</v>
@@ -4378,28 +4391,28 @@
         <v>1</v>
       </c>
       <c r="AG19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AI19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="10" t="b">
         <v>0</v>
@@ -4408,10 +4421,10 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS19" s="10" t="b">
         <v>0</v>
@@ -4454,32 +4467,32 @@
       </c>
       <c r="BF19" s="9">
         <f>COUNTIF($G19:$BE19, "SYS")+COUNTIF($G19:$BE19, TRUE)</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="BG19" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 19:19)/_xlfn.XLOOKUP("Feature count", $1:$1, 19:19)</f>
-        <v>48.633333333333333</v>
+        <v>75.444444444444443</v>
       </c>
     </row>
     <row r="20" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3">
-        <v>1805</v>
+        <v>2048</v>
       </c>
       <c r="E20" s="3">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 20:20)+_xlfn.XLOOKUP("Extra size", $1:$1, 20:20)</f>
-        <v>1928</v>
+        <v>2048</v>
       </c>
       <c r="G20" s="10" t="b">
         <v>1</v>
@@ -4503,25 +4516,25 @@
         <v>1</v>
       </c>
       <c r="N20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="10" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="P20" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="10" t="b">
         <v>0</v>
       </c>
       <c r="T20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="10" t="b">
         <v>0</v>
@@ -4530,16 +4543,16 @@
         <v>1</v>
       </c>
       <c r="W20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="10" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="Z20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="10" t="b">
         <v>0</v>
@@ -4547,26 +4560,26 @@
       <c r="AB20" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD20" s="10" t="s">
-        <v>22</v>
+      <c r="AC20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AE20" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AF20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AH20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="10" t="b">
         <v>0</v>
@@ -4590,19 +4603,19 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AS20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV20" s="10" t="b">
         <v>0</v>
@@ -4636,19 +4649,19 @@
       </c>
       <c r="BF20" s="9">
         <f>COUNTIF($G20:$BE20, "SYS")+COUNTIF($G20:$BE20, TRUE)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BG20" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 20:20)/_xlfn.XLOOKUP("Feature count", $1:$1, 20:20)</f>
-        <v>120.33333333333333</v>
+        <v>93.090909090909093</v>
       </c>
     </row>
     <row r="21" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>5</v>
@@ -4688,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P21" s="10" t="b">
         <v>0</v>
@@ -4827,23 +4840,23 @@
     </row>
     <row r="22" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>2048</v>
+        <v>1805</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="F22" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 22:22)+_xlfn.XLOOKUP("Extra size", $1:$1, 22:22)</f>
-        <v>2048</v>
+        <v>1928</v>
       </c>
       <c r="G22" s="10" t="b">
         <v>1</v>
@@ -4867,25 +4880,25 @@
         <v>1</v>
       </c>
       <c r="N22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="O22" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="P22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="10" t="b">
         <v>0</v>
       </c>
       <c r="T22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="10" t="b">
         <v>0</v>
@@ -4894,16 +4907,16 @@
         <v>1</v>
       </c>
       <c r="W22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="10" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="Z22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="10" t="b">
         <v>0</v>
@@ -4911,26 +4924,26 @@
       <c r="AB22" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="10" t="b">
-        <v>0</v>
+      <c r="AC22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD22" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="AE22" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AF22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AH22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="10" t="b">
         <v>0</v>
@@ -4954,19 +4967,19 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AS22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="10" t="b">
         <v>0</v>
@@ -5000,32 +5013,32 @@
       </c>
       <c r="BF22" s="9">
         <f>COUNTIF($G22:$BE22, "SYS")+COUNTIF($G22:$BE22, TRUE)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="BG22" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 22:22)/_xlfn.XLOOKUP("Feature count", $1:$1, 22:22)</f>
-        <v>93.090909090909093</v>
+        <v>120.33333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>2710</v>
+        <v>4016</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>1024</v>
       </c>
       <c r="F23" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 23:23)+_xlfn.XLOOKUP("Extra size", $1:$1, 23:23)</f>
-        <v>2810</v>
+        <v>5040</v>
       </c>
       <c r="G23" s="10" t="b">
         <v>1</v>
@@ -5058,31 +5071,31 @@
         <v>1</v>
       </c>
       <c r="Q23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="10" t="b">
         <v>0</v>
       </c>
       <c r="U23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z23" s="10" t="b">
         <v>0</v>
@@ -5093,11 +5106,11 @@
       <c r="AB23" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC23" s="10" t="s">
-        <v>22</v>
+      <c r="AC23" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="AD23" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE23" s="10" t="b">
         <v>1</v>
@@ -5112,13 +5125,13 @@
         <v>0</v>
       </c>
       <c r="AI23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="10" t="b">
         <v>0</v>
@@ -5133,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="10" t="b">
         <v>0</v>
@@ -5151,25 +5164,25 @@
         <v>0</v>
       </c>
       <c r="AV23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AX23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23" s="10" t="b">
         <v>0</v>
@@ -5182,32 +5195,32 @@
       </c>
       <c r="BF23" s="9">
         <f>COUNTIF($G23:$BE23, "SYS")+COUNTIF($G23:$BE23, TRUE)</f>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="BG23" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 23:23)/_xlfn.XLOOKUP("Feature count", $1:$1, 23:23)</f>
-        <v>169.375</v>
+        <v>133.86666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D24" s="3">
-        <v>2738</v>
+        <v>3998</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 24:24)+_xlfn.XLOOKUP("Extra size", $1:$1, 24:24)</f>
-        <v>2738</v>
+        <v>3998</v>
       </c>
       <c r="G24" s="10" t="b">
         <v>1</v>
@@ -5228,16 +5241,16 @@
         <v>1</v>
       </c>
       <c r="M24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="10" t="b">
         <v>1</v>
       </c>
       <c r="O24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="10" t="b">
         <v>1</v>
@@ -5249,13 +5262,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="10" t="b">
         <v>0</v>
       </c>
       <c r="V24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="10" t="b">
         <v>1</v>
@@ -5275,20 +5288,20 @@
       <c r="AB24" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC24" s="10" t="b">
-        <v>1</v>
+      <c r="AC24" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE24" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AF24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="10" t="b">
         <v>0</v>
@@ -5315,10 +5328,10 @@
         <v>0</v>
       </c>
       <c r="AP24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24" s="10" t="b">
         <v>0</v>
@@ -5339,10 +5352,10 @@
         <v>0</v>
       </c>
       <c r="AX24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="10" t="b">
         <v>0</v>
@@ -5354,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="BC24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24" s="10" t="b">
         <v>0</v>
@@ -5364,32 +5377,32 @@
       </c>
       <c r="BF24" s="9">
         <f>COUNTIF($G24:$BE24, "SYS")+COUNTIF($G24:$BE24, TRUE)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="BG24" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 24:24)/_xlfn.XLOOKUP("Feature count", $1:$1, 24:24)</f>
-        <v>161.05882352941177</v>
+        <v>159.91999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3">
-        <v>2824</v>
+        <v>2738</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
       <c r="F25" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 25:25)+_xlfn.XLOOKUP("Extra size", $1:$1, 25:25)</f>
-        <v>2824</v>
+        <v>2738</v>
       </c>
       <c r="G25" s="10" t="b">
         <v>1</v>
@@ -5416,40 +5429,40 @@
         <v>1</v>
       </c>
       <c r="O25" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="10" t="b">
         <v>1</v>
       </c>
       <c r="S25" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="10" t="b">
         <v>0</v>
       </c>
       <c r="V25" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Y25" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="10" t="b">
         <v>0</v>
@@ -5460,17 +5473,17 @@
       <c r="AC25" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AD25" s="10" t="b">
-        <v>0</v>
+      <c r="AD25" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="AE25" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AF25" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" s="10" t="b">
         <v>0</v>
@@ -5550,28 +5563,28 @@
       </c>
       <c r="BG25" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 25:25)/_xlfn.XLOOKUP("Feature count", $1:$1, 25:25)</f>
-        <v>166.11764705882354</v>
+        <v>161.05882352941177</v>
       </c>
     </row>
     <row r="26" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>2882</v>
+        <v>2824</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)+_xlfn.XLOOKUP("Extra size", $1:$1, 26:26)</f>
-        <v>2882</v>
+        <v>2824</v>
       </c>
       <c r="G26" s="10" t="b">
         <v>1</v>
@@ -5592,25 +5605,25 @@
         <v>1</v>
       </c>
       <c r="M26" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="O26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="S26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="10" t="b">
         <v>0</v>
@@ -5622,13 +5635,13 @@
         <v>1</v>
       </c>
       <c r="W26" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Y26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="10" t="b">
         <v>0</v>
@@ -5639,17 +5652,17 @@
       <c r="AB26" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD26" s="10" t="s">
-        <v>22</v>
+      <c r="AC26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AE26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AF26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" s="10" t="b">
         <v>0</v>
@@ -5728,32 +5741,32 @@
       </c>
       <c r="BF26" s="9">
         <f>COUNTIF($G26:$BE26, "SYS")+COUNTIF($G26:$BE26, TRUE)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BG26" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)/_xlfn.XLOOKUP("Feature count", $1:$1, 26:26)</f>
-        <v>180.125</v>
+        <v>166.11764705882354</v>
       </c>
     </row>
-    <row r="27" spans="1:59" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>3998</v>
+        <v>2710</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 27:27)+_xlfn.XLOOKUP("Extra size", $1:$1, 27:27)</f>
-        <v>3998</v>
+        <v>2810</v>
       </c>
       <c r="G27" s="10" t="b">
         <v>1</v>
@@ -5780,16 +5793,16 @@
         <v>1</v>
       </c>
       <c r="O27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="10" t="b">
         <v>1</v>
       </c>
       <c r="Q27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="10" t="b">
         <v>0</v>
@@ -5798,22 +5811,22 @@
         <v>0</v>
       </c>
       <c r="U27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V27" s="10" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="W27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="10" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="Z27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="10" t="b">
         <v>0</v>
@@ -5822,19 +5835,19 @@
         <v>0</v>
       </c>
       <c r="AC27" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD27" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE27" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AF27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27" s="10" t="b">
         <v>0</v>
@@ -5861,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="AP27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="10" t="b">
         <v>0</v>
@@ -5885,10 +5898,10 @@
         <v>0</v>
       </c>
       <c r="AX27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="10" t="b">
         <v>0</v>
@@ -5900,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="BC27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD27" s="10" t="b">
         <v>0</v>
@@ -5910,32 +5923,32 @@
       </c>
       <c r="BF27" s="9">
         <f>COUNTIF($G27:$BE27, "SYS")+COUNTIF($G27:$BE27, TRUE)</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="BG27" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 27:27)/_xlfn.XLOOKUP("Feature count", $1:$1, 27:27)</f>
-        <v>159.91999999999999</v>
+        <v>169.375</v>
       </c>
     </row>
     <row r="28" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D28" s="3">
-        <v>4002</v>
+        <v>2882</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
       </c>
       <c r="F28" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 28:28)+_xlfn.XLOOKUP("Extra size", $1:$1, 28:28)</f>
-        <v>4002</v>
+        <v>2882</v>
       </c>
       <c r="G28" s="10" t="b">
         <v>1</v>
@@ -5962,16 +5975,16 @@
         <v>1</v>
       </c>
       <c r="O28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="10" t="b">
         <v>0</v>
@@ -5992,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="Y28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="10" t="b">
         <v>0</v>
@@ -6003,20 +6016,20 @@
       <c r="AB28" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC28" s="10" t="b">
-        <v>1</v>
+      <c r="AC28" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="AD28" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE28" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AF28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="10" t="b">
         <v>0</v>
@@ -6046,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="10" t="b">
         <v>0</v>
@@ -6088,36 +6101,36 @@
         <v>0</v>
       </c>
       <c r="BE28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF28" s="9">
         <f>COUNTIF($G28:$BE28, "SYS")+COUNTIF($G28:$BE28, TRUE)</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BG28" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 28:28)/_xlfn.XLOOKUP("Feature count", $1:$1, 28:28)</f>
-        <v>190.57142857142858</v>
+        <v>180.125</v>
       </c>
     </row>
     <row r="29" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D29" s="3">
-        <v>4016</v>
+        <v>4095</v>
       </c>
       <c r="E29" s="3">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 29:29)+_xlfn.XLOOKUP("Extra size", $1:$1, 29:29)</f>
-        <v>5040</v>
+        <v>4095</v>
       </c>
       <c r="G29" s="10" t="b">
         <v>1</v>
@@ -6147,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="10" t="b">
         <v>1</v>
@@ -6164,8 +6177,8 @@
       <c r="U29" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="V29" s="10" t="s">
-        <v>22</v>
+      <c r="V29" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="W29" s="10" t="b">
         <v>1</v>
@@ -6173,8 +6186,8 @@
       <c r="X29" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="Y29" s="10" t="s">
-        <v>22</v>
+      <c r="Y29" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="Z29" s="10" t="b">
         <v>0</v>
@@ -6185,11 +6198,11 @@
       <c r="AB29" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC29" s="10" t="b">
-        <v>1</v>
+      <c r="AC29" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="AD29" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE29" s="10" t="b">
         <v>1</v>
@@ -6198,19 +6211,19 @@
         <v>0</v>
       </c>
       <c r="AG29" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AJ29" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="10" t="b">
         <v>0</v>
@@ -6225,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="10" t="b">
         <v>0</v>
@@ -6243,63 +6256,63 @@
         <v>0</v>
       </c>
       <c r="AV29" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW29" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX29" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY29" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="10" t="b">
         <v>1</v>
       </c>
       <c r="BA29" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="10" t="b">
         <v>0</v>
       </c>
       <c r="BD29" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE29" s="10" t="b">
         <v>0</v>
       </c>
       <c r="BF29" s="9">
         <f>COUNTIF($G29:$BE29, "SYS")+COUNTIF($G29:$BE29, TRUE)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="BG29" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 29:29)/_xlfn.XLOOKUP("Feature count", $1:$1, 29:29)</f>
-        <v>133.86666666666667</v>
+        <v>186.13636363636363</v>
       </c>
     </row>
     <row r="30" spans="1:59" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="D30" s="3">
-        <v>4095</v>
+        <v>4002</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
       </c>
       <c r="F30" s="3">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 30:30)+_xlfn.XLOOKUP("Extra size", $1:$1, 30:30)</f>
-        <v>4095</v>
+        <v>4002</v>
       </c>
       <c r="G30" s="10" t="b">
         <v>1</v>
@@ -6326,19 +6339,19 @@
         <v>1</v>
       </c>
       <c r="O30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="10" t="b">
         <v>0</v>
@@ -6356,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="Y30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" s="10" t="b">
         <v>0</v>
@@ -6367,26 +6380,26 @@
       <c r="AB30" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AC30" s="10" t="s">
-        <v>22</v>
+      <c r="AC30" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="AD30" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE30" s="10" t="b">
         <v>1</v>
       </c>
       <c r="AF30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="10" t="b">
         <v>0</v>
@@ -6410,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR30" s="10" t="b">
         <v>0</v>
@@ -6428,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="AW30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="10" t="b">
         <v>0</v>
@@ -6437,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="10" t="b">
         <v>0</v>
@@ -6449,24 +6462,24 @@
         <v>0</v>
       </c>
       <c r="BD30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF30" s="9">
         <f>COUNTIF($G30:$BE30, "SYS")+COUNTIF($G30:$BE30, TRUE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BG30" s="4">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 30:30)/_xlfn.XLOOKUP("Feature count", $1:$1, 30:30)</f>
-        <v>186.13636363636363</v>
+        <v>190.57142857142858</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:BG30" xr:uid="{8512C64C-DE47-334B-AE0C-39DDD4F96E15}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BG30">
-      <sortCondition ref="D2:D30"/>
+      <sortCondition ref="BG2:BG30"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6537,34 +6550,34 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" xr:uid="{8B9F4BC6-14C6-4345-BA9C-9D9C8BC6C54A}"/>
-    <hyperlink ref="A20" r:id="rId2" xr:uid="{B15F6BAD-35BC-2A4D-A9F9-E3397D6C9F57}"/>
-    <hyperlink ref="A29" r:id="rId3" xr:uid="{A76D4E5E-9C61-C846-BF68-39EA20E19271}"/>
-    <hyperlink ref="A23" r:id="rId4" xr:uid="{271A3F43-6A28-9044-9B77-55CB67E8E604}"/>
-    <hyperlink ref="A26" r:id="rId5" xr:uid="{3319FE9B-1572-7B45-A51A-8631F49908F5}"/>
-    <hyperlink ref="A24" r:id="rId6" xr:uid="{6A5AEB05-49D4-5A43-AC85-14DC910FF378}"/>
-    <hyperlink ref="A25" r:id="rId7" xr:uid="{692BC8D6-C410-5A4C-9AC4-692F65427B7C}"/>
-    <hyperlink ref="A22" r:id="rId8" xr:uid="{7A0C5CE4-FDBB-C142-89E0-609051079143}"/>
-    <hyperlink ref="A27" r:id="rId9" xr:uid="{B27A7A0A-1947-624B-A135-AC2E4FA9DCDF}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{BBFDB1C2-F4D5-9F4F-9AB4-84F69F8E341F}"/>
-    <hyperlink ref="A17" r:id="rId11" xr:uid="{47C1315B-4443-9B43-9DB9-33643DFA677C}"/>
-    <hyperlink ref="A18" r:id="rId12" xr:uid="{C77570FF-B176-1F4E-AC94-8C167340C676}"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{8B9F4BC6-14C6-4345-BA9C-9D9C8BC6C54A}"/>
+    <hyperlink ref="A22" r:id="rId2" xr:uid="{B15F6BAD-35BC-2A4D-A9F9-E3397D6C9F57}"/>
+    <hyperlink ref="A23" r:id="rId3" xr:uid="{A76D4E5E-9C61-C846-BF68-39EA20E19271}"/>
+    <hyperlink ref="A27" r:id="rId4" xr:uid="{271A3F43-6A28-9044-9B77-55CB67E8E604}"/>
+    <hyperlink ref="A28" r:id="rId5" xr:uid="{3319FE9B-1572-7B45-A51A-8631F49908F5}"/>
+    <hyperlink ref="A25" r:id="rId6" xr:uid="{6A5AEB05-49D4-5A43-AC85-14DC910FF378}"/>
+    <hyperlink ref="A26" r:id="rId7" xr:uid="{692BC8D6-C410-5A4C-9AC4-692F65427B7C}"/>
+    <hyperlink ref="A20" r:id="rId8" xr:uid="{7A0C5CE4-FDBB-C142-89E0-609051079143}"/>
+    <hyperlink ref="A24" r:id="rId9" xr:uid="{B27A7A0A-1947-624B-A135-AC2E4FA9DCDF}"/>
+    <hyperlink ref="A17" r:id="rId10" xr:uid="{BBFDB1C2-F4D5-9F4F-9AB4-84F69F8E341F}"/>
+    <hyperlink ref="A18" r:id="rId11" xr:uid="{47C1315B-4443-9B43-9DB9-33643DFA677C}"/>
+    <hyperlink ref="A19" r:id="rId12" xr:uid="{C77570FF-B176-1F4E-AC94-8C167340C676}"/>
     <hyperlink ref="A21" r:id="rId13" xr:uid="{1A073B5B-BE69-9E43-BB31-2AC1F74931C7}"/>
-    <hyperlink ref="A3" r:id="rId14" xr:uid="{65802411-1B8E-064F-A6D7-DAD404DC6F66}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{65802411-1B8E-064F-A6D7-DAD404DC6F66}"/>
     <hyperlink ref="A14" r:id="rId15" xr:uid="{8DAB0B02-5401-BF46-90F9-B2B728905C99}"/>
-    <hyperlink ref="A16" r:id="rId16" xr:uid="{F2854865-7589-3148-9BD0-694117F0C02A}"/>
-    <hyperlink ref="A19" r:id="rId17" xr:uid="{0305B1A2-7666-264C-831F-82265021FFB7}"/>
-    <hyperlink ref="A9" r:id="rId18" xr:uid="{2F1BE129-94F7-DB45-B74A-D5DECFC8BD1F}"/>
-    <hyperlink ref="A4" r:id="rId19" xr:uid="{022DC04F-D95A-7246-8451-7C3BA522CD1C}"/>
-    <hyperlink ref="A13" r:id="rId20" xr:uid="{0C291FB0-BA8C-E141-98A4-91A6B6DD9884}"/>
-    <hyperlink ref="A7" r:id="rId21" xr:uid="{1EAE54DC-A089-B24E-A04A-825543C48D1A}"/>
-    <hyperlink ref="A12" r:id="rId22" xr:uid="{D6CABB3D-301E-5A48-8390-5B6D8D98891E}"/>
-    <hyperlink ref="A15" r:id="rId23" xr:uid="{76EB020E-CC71-B148-9424-BB7A1349A5E9}"/>
-    <hyperlink ref="A8" r:id="rId24" xr:uid="{469B8618-6944-6746-99BB-8FB17F692A90}"/>
-    <hyperlink ref="A28" r:id="rId25" xr:uid="{D7B84B32-63C9-7A46-AF5A-77D30F18AB91}"/>
+    <hyperlink ref="A12" r:id="rId16" xr:uid="{F2854865-7589-3148-9BD0-694117F0C02A}"/>
+    <hyperlink ref="A13" r:id="rId17" xr:uid="{0305B1A2-7666-264C-831F-82265021FFB7}"/>
+    <hyperlink ref="A11" r:id="rId18" xr:uid="{2F1BE129-94F7-DB45-B74A-D5DECFC8BD1F}"/>
+    <hyperlink ref="A10" r:id="rId19" xr:uid="{022DC04F-D95A-7246-8451-7C3BA522CD1C}"/>
+    <hyperlink ref="A8" r:id="rId20" xr:uid="{0C291FB0-BA8C-E141-98A4-91A6B6DD9884}"/>
+    <hyperlink ref="A9" r:id="rId21" xr:uid="{1EAE54DC-A089-B24E-A04A-825543C48D1A}"/>
+    <hyperlink ref="A7" r:id="rId22" xr:uid="{D6CABB3D-301E-5A48-8390-5B6D8D98891E}"/>
+    <hyperlink ref="A4" r:id="rId23" xr:uid="{76EB020E-CC71-B148-9424-BB7A1349A5E9}"/>
+    <hyperlink ref="A5" r:id="rId24" xr:uid="{469B8618-6944-6746-99BB-8FB17F692A90}"/>
+    <hyperlink ref="A30" r:id="rId25" xr:uid="{D7B84B32-63C9-7A46-AF5A-77D30F18AB91}"/>
     <hyperlink ref="A6" r:id="rId26" xr:uid="{7F8B8C37-627E-1945-A19A-ED78182D0280}"/>
-    <hyperlink ref="A30" r:id="rId27" xr:uid="{BE81C522-7811-534B-B250-C27D6ED80E13}"/>
-    <hyperlink ref="A5" r:id="rId28" xr:uid="{21C269AC-1EE5-D04C-BAA6-59834E8B2917}"/>
+    <hyperlink ref="A29" r:id="rId27" xr:uid="{BE81C522-7811-534B-B250-C27D6ED80E13}"/>
+    <hyperlink ref="A3" r:id="rId28" xr:uid="{21C269AC-1EE5-D04C-BAA6-59834E8B2917}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tetris-4k-archive.xlsx
+++ b/tetris-4k-archive.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/493d989091475df7/Personal/GitHub/tetris4karchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1339" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E239A2B-D2DB-6F47-9311-12763238ED2F}"/>
+  <xr:revisionPtr revIDLastSave="1430" documentId="8_{0CDAABD7-AF78-CC49-9CC2-90DD68763645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D49A92B7-5207-184A-9B37-F62B76D6EE7C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{F4EAB821-2EDC-3446-8812-752F41EB9B28}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21140" xr2:uid="{F4EAB821-2EDC-3446-8812-752F41EB9B28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$BH$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$BI$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
   <si>
     <t>Url</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>No ceiling</t>
+  </si>
+  <si>
+    <t>Persistent high scores</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -582,9 +585,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -950,11 +952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8512C64C-DE47-334B-AE0C-39DDD4F96E15}">
-  <dimension ref="A1:BI31"/>
+  <dimension ref="A1:BJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL33" sqref="AL33"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -965,12 +967,16 @@
     <col min="4" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="19" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.6640625" customWidth="1"/>
-    <col min="21" max="59" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="111" width="10.83203125" customWidth="1"/>
+    <col min="21" max="27" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.6640625" customWidth="1"/>
+    <col min="29" max="36" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="3.6640625" customWidth="1"/>
+    <col min="39" max="60" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="112" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1080,360 +1086,368 @@
         <v>63</v>
       </c>
       <c r="AK1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AV1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AX1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AY1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BA1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BB1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BD1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BF1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BG1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BH1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BI1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
     </row>
-    <row r="2" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12">
         <f>COUNTIF(G$4:G$31, "&gt;0")</f>
         <v>27</v>
       </c>
-      <c r="H2" s="13">
-        <f t="shared" ref="H2:BF2" si="0">COUNTIF(H$4:H$31, "&gt;0")</f>
+      <c r="H2" s="12">
+        <f t="shared" ref="H2:BG2" si="0">COUNTIF(H$4:H$31, "&gt;0")</f>
         <v>27</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="12">
         <f>COUNTIF(T$4:T$31, "&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W2" s="13">
-        <f t="shared" si="0"/>
+      <c r="W2" s="12">
+        <f>COUNTIF(W$4:W$31, "&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="X2" s="13">
-        <f t="shared" si="0"/>
+      <c r="X2" s="12">
+        <f>COUNTIF(X$4:X$31, "&gt;0")</f>
         <v>13</v>
       </c>
-      <c r="Y2" s="13">
-        <f t="shared" si="0"/>
+      <c r="Y2" s="12">
+        <f>COUNTIF(Y$4:Y$31, "&gt;0")</f>
         <v>13</v>
       </c>
-      <c r="Z2" s="13">
-        <f t="shared" si="0"/>
+      <c r="Z2" s="12">
+        <f>COUNTIF(Z$4:Z$31, "&gt;0")</f>
         <v>12</v>
       </c>
-      <c r="AA2" s="13">
-        <f t="shared" si="0"/>
+      <c r="AA2" s="12">
+        <f>COUNTIF(AA$4:AA$31, "&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="AB2" s="13">
+      <c r="AB2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC2" s="13">
+      <c r="AC2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AD2" s="13">
-        <f t="shared" si="0"/>
+      <c r="AD2" s="12">
+        <f>COUNTIF(AD$4:AD$31, "&gt;0")</f>
         <v>21</v>
       </c>
-      <c r="AE2" s="13">
-        <f t="shared" si="0"/>
+      <c r="AE2" s="12">
+        <f>COUNTIF(AE$4:AE$31, "&gt;0")</f>
         <v>15</v>
       </c>
-      <c r="AF2" s="13">
-        <f t="shared" si="0"/>
+      <c r="AF2" s="12">
+        <f>COUNTIF(AF$4:AF$31, "&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="AG2" s="13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AH2" s="13">
-        <f t="shared" si="0"/>
+      <c r="AG2" s="12">
+        <f>COUNTIF(AG$4:AG$31, "&gt;0")</f>
         <v>5</v>
       </c>
-      <c r="AI2" s="13">
-        <f t="shared" si="0"/>
+      <c r="AH2" s="12">
+        <f>COUNTIF(AH$4:AH$31, "&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="AI2" s="12">
+        <f>COUNTIF(AI$4:AI$31, "&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="AJ2" s="13">
-        <f t="shared" si="0"/>
+      <c r="AJ2" s="12">
+        <f>COUNTIF(AJ$4:AJ$31, "&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="AK2" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AL2" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AM2" s="13">
+      <c r="AK2" s="12">
+        <f>COUNTIF(AK$4:AK$31, "&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="AL2" s="12">
+        <f>COUNTIF(AL$4:AL$31, "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="AM2" s="12">
+        <f>COUNTIF(AM$4:AM$31, "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="AN2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AN2" s="13">
+      <c r="AO2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AO2" s="13">
+      <c r="AP2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AP2" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="13">
-        <f t="shared" si="0"/>
+      <c r="AQ2" s="12">
+        <f>COUNTIF(AQ$4:AQ$31, "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="AR2" s="12">
+        <f>COUNTIF(AR$4:AR$31, "&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="AR2" s="13">
-        <f t="shared" si="0"/>
+      <c r="AS2" s="12">
+        <f>COUNTIF(AS$4:AS$31, "&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="AS2" s="13">
+      <c r="AT2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AT2" s="13">
+      <c r="AU2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AU2" s="13">
+      <c r="AV2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AV2" s="13">
+      <c r="AW2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AW2" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AX2" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AY2" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="BA2" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="BB2" s="13">
+      <c r="AX2" s="12">
+        <f>COUNTIF(AX$4:AX$31, "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="AY2" s="12">
+        <f>COUNTIF(AY$4:AY$31, "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="12">
+        <f>COUNTIF(AZ$4:AZ$31, "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="BA2" s="12">
+        <f>COUNTIF(BA$4:BA$31, "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="BB2" s="12">
+        <f>COUNTIF(BB$4:BB$31, "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="BC2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BC2" s="13">
+      <c r="BD2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BD2" s="13">
+      <c r="BE2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BE2" s="13">
+      <c r="BF2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BF2" s="13">
+      <c r="BG2" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="13"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="12"/>
-      <c r="BH3" s="12"/>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>108</v>
       </c>
@@ -1609,16 +1623,19 @@
       <c r="BF4" s="4">
         <v>0</v>
       </c>
-      <c r="BG4" s="6">
-        <f>COUNTIF($G4:$BF4, "&gt;0")</f>
+      <c r="BG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="6">
+        <f>COUNTIF($G4:$BG4, "&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="BH4" s="10">
+      <c r="BI4" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 4:4)/_xlfn.XLOOKUP("Feature count", $1:$1, 4:4)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>91</v>
       </c>
@@ -1794,16 +1811,19 @@
       <c r="BF5" s="4">
         <v>0</v>
       </c>
-      <c r="BG5" s="6">
-        <f>COUNTIF($G5:$BF5, "&gt;0")</f>
+      <c r="BG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="6">
+        <f>COUNTIF($G5:$BG5, "&gt;0")</f>
         <v>17</v>
       </c>
-      <c r="BH5" s="10">
+      <c r="BI5" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 5:5)/_xlfn.XLOOKUP("Feature count", $1:$1, 5:5)</f>
         <v>29.882352941176471</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>75</v>
       </c>
@@ -1979,16 +1999,19 @@
       <c r="BF6" s="4">
         <v>0</v>
       </c>
-      <c r="BG6" s="6">
-        <f>COUNTIF($G6:$BF6, "&gt;0")</f>
+      <c r="BG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="6">
+        <f>COUNTIF($G6:$BG6, "&gt;0")</f>
         <v>10</v>
       </c>
-      <c r="BH6" s="10">
+      <c r="BI6" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 6:6)/_xlfn.XLOOKUP("Feature count", $1:$1, 6:6)</f>
         <v>30.4</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>107</v>
       </c>
@@ -2164,16 +2187,19 @@
       <c r="BF7" s="4">
         <v>0</v>
       </c>
-      <c r="BG7" s="6">
-        <f>COUNTIF($G7:$BF7, "&gt;0")</f>
+      <c r="BG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="6">
+        <f>COUNTIF($G7:$BG7, "&gt;0")</f>
         <v>8</v>
       </c>
-      <c r="BH7" s="10">
+      <c r="BI7" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 7:7)/_xlfn.XLOOKUP("Feature count", $1:$1, 7:7)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>76</v>
       </c>
@@ -2349,16 +2375,19 @@
       <c r="BF8" s="4">
         <v>0</v>
       </c>
-      <c r="BG8" s="6">
-        <f>COUNTIF($G8:$BF8, "&gt;0")</f>
+      <c r="BG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="6">
+        <f>COUNTIF($G8:$BG8, "&gt;0")</f>
         <v>14</v>
       </c>
-      <c r="BH8" s="10">
+      <c r="BI8" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 8:8)/_xlfn.XLOOKUP("Feature count", $1:$1, 8:8)</f>
         <v>33.142857142857146</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>85</v>
       </c>
@@ -2534,16 +2563,19 @@
       <c r="BF9" s="4">
         <v>0</v>
       </c>
-      <c r="BG9" s="6">
-        <f>COUNTIF($G9:$BF9, "&gt;0")</f>
+      <c r="BG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="6">
+        <f>COUNTIF($G9:$BG9, "&gt;0")</f>
         <v>14</v>
       </c>
-      <c r="BH9" s="10">
+      <c r="BI9" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 9:9)/_xlfn.XLOOKUP("Feature count", $1:$1, 9:9)</f>
         <v>33.642857142857146</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>77</v>
       </c>
@@ -2719,16 +2751,19 @@
       <c r="BF10" s="4">
         <v>0</v>
       </c>
-      <c r="BG10" s="6">
-        <f>COUNTIF($G10:$BF10, "&gt;0")</f>
+      <c r="BG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="6">
+        <f>COUNTIF($G10:$BG10, "&gt;0")</f>
         <v>8</v>
       </c>
-      <c r="BH10" s="10">
+      <c r="BI10" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 10:10)/_xlfn.XLOOKUP("Feature count", $1:$1, 10:10)</f>
         <v>34.25</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
@@ -2904,16 +2939,19 @@
       <c r="BF11" s="4">
         <v>0</v>
       </c>
-      <c r="BG11" s="6">
-        <f>COUNTIF($G11:$BF11, "&gt;0")</f>
+      <c r="BG11" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="6">
+        <f>COUNTIF($G11:$BG11, "&gt;0")</f>
         <v>7</v>
       </c>
-      <c r="BH11" s="10">
+      <c r="BI11" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 11:11)/_xlfn.XLOOKUP("Feature count", $1:$1, 11:11)</f>
         <v>35.857142857142854</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>80</v>
       </c>
@@ -3089,219 +3127,225 @@
       <c r="BF12" s="4">
         <v>0</v>
       </c>
-      <c r="BG12" s="6">
-        <f>COUNTIF($G12:$BF12, "&gt;0")</f>
+      <c r="BG12" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="6">
+        <f>COUNTIF($G12:$BG12, "&gt;0")</f>
         <v>10</v>
       </c>
-      <c r="BH12" s="10">
+      <c r="BI12" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 12:12)/_xlfn.XLOOKUP("Feature count", $1:$1, 12:12)</f>
         <v>44.6</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="9">
-        <v>510</v>
+        <v>1459</v>
       </c>
       <c r="E13" s="9">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F13" s="9">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 13:13)+_xlfn.XLOOKUP("Extra size", $1:$1, 13:13)</f>
+        <v>1550</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2</v>
+      </c>
+      <c r="M13" s="4">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>2</v>
+      </c>
+      <c r="S13" s="4">
+        <v>2</v>
+      </c>
+      <c r="T13" s="4">
+        <v>2</v>
+      </c>
+      <c r="U13" s="4">
+        <v>2</v>
+      </c>
+      <c r="V13" s="4">
+        <v>2</v>
+      </c>
+      <c r="W13" s="4">
+        <v>2</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="6">
+        <f>COUNTIF($G13:$BG13, "&gt;0")</f>
+        <v>32</v>
+      </c>
+      <c r="BI13" s="10">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 13:13)/_xlfn.XLOOKUP("Feature count", $1:$1, 13:13)</f>
+        <v>45.59375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9">
         <v>510</v>
       </c>
-      <c r="G13" s="4">
-        <v>2</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2</v>
-      </c>
-      <c r="J13" s="4">
-        <v>2</v>
-      </c>
-      <c r="K13" s="4">
-        <v>2</v>
-      </c>
-      <c r="L13" s="4">
-        <v>2</v>
-      </c>
-      <c r="M13" s="4">
-        <v>2</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>1</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>2</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4">
-        <v>0</v>
-      </c>
-      <c r="V13" s="4">
-        <v>0</v>
-      </c>
-      <c r="W13" s="4">
-        <v>0</v>
-      </c>
-      <c r="X13" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="4">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="4">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="4">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="4">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="4">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="4">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="6">
-        <f>COUNTIF($G13:$BF13, "&gt;0")</f>
-        <v>11</v>
-      </c>
-      <c r="BH13" s="10">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 13:13)/_xlfn.XLOOKUP("Feature count", $1:$1, 13:13)</f>
-        <v>46.363636363636367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1459</v>
-      </c>
       <c r="E14" s="9">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="F14" s="9">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 14:14)+_xlfn.XLOOKUP("Extra size", $1:$1, 14:14)</f>
-        <v>1550</v>
+        <v>510</v>
       </c>
       <c r="G14" s="4">
         <v>2</v>
@@ -3325,46 +3369,46 @@
         <v>2</v>
       </c>
       <c r="N14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="4">
         <v>0</v>
@@ -3376,37 +3420,37 @@
         <v>2</v>
       </c>
       <c r="AE14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="4">
         <v>0</v>
@@ -3459,16 +3503,19 @@
       <c r="BF14" s="4">
         <v>0</v>
       </c>
-      <c r="BG14" s="6">
-        <f>COUNTIF($G14:$BF14, "&gt;0")</f>
-        <v>31</v>
-      </c>
-      <c r="BH14" s="10">
+      <c r="BG14" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="6">
+        <f>COUNTIF($G14:$BG14, "&gt;0")</f>
+        <v>11</v>
+      </c>
+      <c r="BI14" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 14:14)/_xlfn.XLOOKUP("Feature count", $1:$1, 14:14)</f>
-        <v>47.064516129032256</v>
+        <v>46.363636363636367</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>84</v>
       </c>
@@ -3594,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="AP15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR15" s="4">
         <v>0</v>
@@ -3644,16 +3691,19 @@
       <c r="BF15" s="4">
         <v>0</v>
       </c>
-      <c r="BG15" s="6">
-        <f>COUNTIF($G15:$BF15, "&gt;0")</f>
+      <c r="BG15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="6">
+        <f>COUNTIF($G15:$BG15, "&gt;0")</f>
         <v>10</v>
       </c>
-      <c r="BH15" s="10">
+      <c r="BI15" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 15:15)/_xlfn.XLOOKUP("Feature count", $1:$1, 15:15)</f>
         <v>49.1</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>87</v>
       </c>
@@ -3779,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="AP16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR16" s="4">
         <v>0</v>
@@ -3829,16 +3879,19 @@
       <c r="BF16" s="4">
         <v>0</v>
       </c>
-      <c r="BG16" s="6">
-        <f>COUNTIF($G16:$BF16, "&gt;0")</f>
+      <c r="BG16" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="6">
+        <f>COUNTIF($G16:$BG16, "&gt;0")</f>
         <v>8</v>
       </c>
-      <c r="BH16" s="10">
+      <c r="BI16" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 16:16)/_xlfn.XLOOKUP("Feature count", $1:$1, 16:16)</f>
         <v>55.75</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>86</v>
       </c>
@@ -3967,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS17" s="4">
         <v>0</v>
@@ -4014,16 +4067,19 @@
       <c r="BF17" s="4">
         <v>0</v>
       </c>
-      <c r="BG17" s="6">
-        <f>COUNTIF($G17:$BF17, "&gt;0")</f>
+      <c r="BG17" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="6">
+        <f>COUNTIF($G17:$BG17, "&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="BH17" s="10">
+      <c r="BI17" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 17:17)/_xlfn.XLOOKUP("Feature count", $1:$1, 17:17)</f>
         <v>56.75</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>88</v>
       </c>
@@ -4199,16 +4255,19 @@
       <c r="BF18" s="4">
         <v>0</v>
       </c>
-      <c r="BG18" s="6">
-        <f>COUNTIF($G18:$BF18, "&gt;0")</f>
+      <c r="BG18" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="6">
+        <f>COUNTIF($G18:$BG18, "&gt;0")</f>
         <v>7</v>
       </c>
-      <c r="BH18" s="10">
+      <c r="BI18" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 18:18)/_xlfn.XLOOKUP("Feature count", $1:$1, 18:18)</f>
         <v>65.285714285714292</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>89</v>
       </c>
@@ -4384,16 +4443,19 @@
       <c r="BF19" s="4">
         <v>0</v>
       </c>
-      <c r="BG19" s="6">
-        <f>COUNTIF($G19:$BF19, "&gt;0")</f>
+      <c r="BG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="6">
+        <f>COUNTIF($G19:$BG19, "&gt;0")</f>
         <v>18</v>
       </c>
-      <c r="BH19" s="10">
+      <c r="BI19" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 19:19)/_xlfn.XLOOKUP("Feature count", $1:$1, 19:19)</f>
         <v>70.5</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>90</v>
       </c>
@@ -4525,13 +4587,13 @@
         <v>0</v>
       </c>
       <c r="AR20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="4">
         <v>2</v>
       </c>
       <c r="AT20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU20" s="4">
         <v>0</v>
@@ -4569,16 +4631,19 @@
       <c r="BF20" s="4">
         <v>0</v>
       </c>
-      <c r="BG20" s="6">
-        <f>COUNTIF($G20:$BF20, "&gt;0")</f>
+      <c r="BG20" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="6">
+        <f>COUNTIF($G20:$BG20, "&gt;0")</f>
         <v>18</v>
       </c>
-      <c r="BH20" s="10">
+      <c r="BI20" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 20:20)/_xlfn.XLOOKUP("Feature count", $1:$1, 20:20)</f>
         <v>75.444444444444443</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>92</v>
       </c>
@@ -4677,7 +4742,7 @@
         <v>2</v>
       </c>
       <c r="AG21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="4">
         <v>0</v>
@@ -4716,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AT21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="4">
         <v>2</v>
@@ -4725,7 +4790,7 @@
         <v>2</v>
       </c>
       <c r="AW21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX21" s="4">
         <v>0</v>
@@ -4754,16 +4819,19 @@
       <c r="BF21" s="4">
         <v>0</v>
       </c>
-      <c r="BG21" s="6">
-        <f>COUNTIF($G21:$BF21, "&gt;0")</f>
-        <v>22</v>
-      </c>
-      <c r="BH21" s="10">
+      <c r="BG21" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="6">
+        <f>COUNTIF($G21:$BG21, "&gt;0")</f>
+        <v>21</v>
+      </c>
+      <c r="BI21" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 21:21)/_xlfn.XLOOKUP("Feature count", $1:$1, 21:21)</f>
-        <v>93.090909090909093</v>
+        <v>97.523809523809518</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>98</v>
       </c>
@@ -4910,13 +4978,13 @@
         <v>0</v>
       </c>
       <c r="AW22" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="4">
         <v>2</v>
       </c>
       <c r="AY22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ22" s="4">
         <v>0</v>
@@ -4939,16 +5007,19 @@
       <c r="BF22" s="4">
         <v>0</v>
       </c>
-      <c r="BG22" s="6">
-        <f>COUNTIF($G22:$BF22, "&gt;0")</f>
+      <c r="BG22" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="6">
+        <f>COUNTIF($G22:$BG22, "&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="BH22" s="10">
+      <c r="BI22" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 22:22)/_xlfn.XLOOKUP("Feature count", $1:$1, 22:22)</f>
         <v>118.5</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>96</v>
       </c>
@@ -5080,10 +5151,10 @@
         <v>0</v>
       </c>
       <c r="AR23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT23" s="4">
         <v>0</v>
@@ -5124,16 +5195,19 @@
       <c r="BF23" s="4">
         <v>0</v>
       </c>
-      <c r="BG23" s="6">
-        <f>COUNTIF($G23:$BF23, "&gt;0")</f>
+      <c r="BG23" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="6">
+        <f>COUNTIF($G23:$BG23, "&gt;0")</f>
         <v>15</v>
       </c>
-      <c r="BH23" s="10">
+      <c r="BI23" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 23:23)/_xlfn.XLOOKUP("Feature count", $1:$1, 23:23)</f>
         <v>120.33333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>97</v>
       </c>
@@ -5244,13 +5318,13 @@
         <v>2</v>
       </c>
       <c r="AK24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="4">
         <v>2</v>
       </c>
       <c r="AM24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN24" s="4">
         <v>0</v>
@@ -5262,10 +5336,10 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS24" s="4">
         <v>0</v>
@@ -5280,13 +5354,13 @@
         <v>0</v>
       </c>
       <c r="AW24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="4">
         <v>2</v>
@@ -5301,7 +5375,7 @@
         <v>2</v>
       </c>
       <c r="BD24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE24" s="4">
         <v>0</v>
@@ -5309,16 +5383,19 @@
       <c r="BF24" s="4">
         <v>0</v>
       </c>
-      <c r="BG24" s="6">
-        <f>COUNTIF($G24:$BF24, "&gt;0")</f>
+      <c r="BG24" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="6">
+        <f>COUNTIF($G24:$BG24, "&gt;0")</f>
         <v>31</v>
       </c>
-      <c r="BH24" s="10">
+      <c r="BI24" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 24:24)/_xlfn.XLOOKUP("Feature count", $1:$1, 24:24)</f>
         <v>129.54838709677421</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>99</v>
       </c>
@@ -5447,13 +5524,13 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="4">
         <v>2</v>
       </c>
       <c r="AS25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT25" s="4">
         <v>0</v>
@@ -5471,13 +5548,13 @@
         <v>0</v>
       </c>
       <c r="AY25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="4">
         <v>2</v>
       </c>
       <c r="BA25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB25" s="4">
         <v>0</v>
@@ -5486,227 +5563,233 @@
         <v>0</v>
       </c>
       <c r="BD25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF25" s="4">
         <v>0</v>
       </c>
-      <c r="BG25" s="6">
-        <f>COUNTIF($G25:$BF25, "&gt;0")</f>
+      <c r="BG25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="6">
+        <f>COUNTIF($G25:$BG25, "&gt;0")</f>
         <v>26</v>
       </c>
-      <c r="BH25" s="10">
+      <c r="BI25" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 25:25)/_xlfn.XLOOKUP("Feature count", $1:$1, 25:25)</f>
         <v>153.76923076923077</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D26" s="9">
-        <v>2738</v>
+        <v>2824</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="9">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)+_xlfn.XLOOKUP("Extra size", $1:$1, 26:26)</f>
+        <v>2824</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>2</v>
+      </c>
+      <c r="O26" s="4">
+        <v>2</v>
+      </c>
+      <c r="P26" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>2</v>
+      </c>
+      <c r="S26" s="4">
+        <v>2</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>2</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="6">
+        <f>COUNTIF($G26:$BG26, "&gt;0")</f>
+        <v>18</v>
+      </c>
+      <c r="BI26" s="10">
+        <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)/_xlfn.XLOOKUP("Feature count", $1:$1, 26:26)</f>
+        <v>156.88888888888889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="9">
         <v>2738</v>
-      </c>
-      <c r="G26" s="4">
-        <v>2</v>
-      </c>
-      <c r="H26" s="4">
-        <v>2</v>
-      </c>
-      <c r="I26" s="4">
-        <v>2</v>
-      </c>
-      <c r="J26" s="4">
-        <v>2</v>
-      </c>
-      <c r="K26" s="4">
-        <v>2</v>
-      </c>
-      <c r="L26" s="4">
-        <v>2</v>
-      </c>
-      <c r="M26" s="4">
-        <v>0</v>
-      </c>
-      <c r="N26" s="4">
-        <v>2</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>2</v>
-      </c>
-      <c r="R26" s="4">
-        <v>2</v>
-      </c>
-      <c r="S26" s="4">
-        <v>0</v>
-      </c>
-      <c r="T26" s="4">
-        <v>0</v>
-      </c>
-      <c r="U26" s="4">
-        <v>2</v>
-      </c>
-      <c r="V26" s="4">
-        <v>0</v>
-      </c>
-      <c r="W26" s="4">
-        <v>0</v>
-      </c>
-      <c r="X26" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y26" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE26" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="4">
-        <v>2</v>
-      </c>
-      <c r="AI26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA26" s="4">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="4">
-        <v>0</v>
-      </c>
-      <c r="BC26" s="4">
-        <v>0</v>
-      </c>
-      <c r="BD26" s="4">
-        <v>0</v>
-      </c>
-      <c r="BE26" s="4">
-        <v>0</v>
-      </c>
-      <c r="BF26" s="4">
-        <v>0</v>
-      </c>
-      <c r="BG26" s="6">
-        <f>COUNTIF($G26:$BF26, "&gt;0")</f>
-        <v>17</v>
-      </c>
-      <c r="BH26" s="10">
-        <f>_xlfn.XLOOKUP("Main size", $1:$1, 26:26)/_xlfn.XLOOKUP("Feature count", $1:$1, 26:26)</f>
-        <v>161.05882352941177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="9">
-        <v>2824</v>
       </c>
       <c r="E27" s="9">
         <v>0</v>
       </c>
       <c r="F27" s="9">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 27:27)+_xlfn.XLOOKUP("Extra size", $1:$1, 27:27)</f>
-        <v>2824</v>
+        <v>2738</v>
       </c>
       <c r="G27" s="4">
         <v>2</v>
@@ -5733,43 +5816,43 @@
         <v>2</v>
       </c>
       <c r="O27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27" s="4">
         <v>2</v>
       </c>
       <c r="S27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27" s="4">
         <v>0</v>
       </c>
       <c r="U27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27" s="4">
         <v>0</v>
       </c>
       <c r="W27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y27" s="4">
         <v>2</v>
       </c>
       <c r="Z27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB27" s="4">
         <v>0</v>
@@ -5781,16 +5864,16 @@
         <v>2</v>
       </c>
       <c r="AE27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" s="4">
         <v>2</v>
       </c>
       <c r="AG27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI27" s="4">
         <v>0</v>
@@ -5864,16 +5947,19 @@
       <c r="BF27" s="4">
         <v>0</v>
       </c>
-      <c r="BG27" s="6">
-        <f>COUNTIF($G27:$BF27, "&gt;0")</f>
+      <c r="BG27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="6">
+        <f>COUNTIF($G27:$BG27, "&gt;0")</f>
         <v>17</v>
       </c>
-      <c r="BH27" s="10">
+      <c r="BI27" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 27:27)/_xlfn.XLOOKUP("Feature count", $1:$1, 27:27)</f>
-        <v>166.11764705882354</v>
+        <v>161.05882352941177</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>103</v>
       </c>
@@ -6049,16 +6135,19 @@
       <c r="BF28" s="4">
         <v>0</v>
       </c>
-      <c r="BG28" s="6">
-        <f>COUNTIF($G28:$BF28, "&gt;0")</f>
+      <c r="BG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="6">
+        <f>COUNTIF($G28:$BG28, "&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="BH28" s="10">
+      <c r="BI28" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 28:28)/_xlfn.XLOOKUP("Feature count", $1:$1, 28:28)</f>
         <v>169.375</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>102</v>
       </c>
@@ -6234,16 +6323,19 @@
       <c r="BF29" s="4">
         <v>0</v>
       </c>
-      <c r="BG29" s="6">
-        <f>COUNTIF($G29:$BF29, "&gt;0")</f>
+      <c r="BG29" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="6">
+        <f>COUNTIF($G29:$BG29, "&gt;0")</f>
         <v>17</v>
       </c>
-      <c r="BH29" s="10">
+      <c r="BI29" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 29:29)/_xlfn.XLOOKUP("Feature count", $1:$1, 29:29)</f>
         <v>169.52941176470588</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>104</v>
       </c>
@@ -6393,19 +6485,19 @@
         <v>0</v>
       </c>
       <c r="AX30" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY30" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ30" s="4">
         <v>0</v>
       </c>
       <c r="BA30" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC30" s="4">
         <v>0</v>
@@ -6414,21 +6506,24 @@
         <v>0</v>
       </c>
       <c r="BE30" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF30" s="4">
-        <v>0</v>
-      </c>
-      <c r="BG30" s="6">
-        <f>COUNTIF($G30:$BF30, "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="BG30" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="6">
+        <f>COUNTIF($G30:$BG30, "&gt;0")</f>
         <v>23</v>
       </c>
-      <c r="BH30" s="10">
+      <c r="BI30" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 30:30)/_xlfn.XLOOKUP("Feature count", $1:$1, 30:30)</f>
         <v>178.04347826086956</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>105</v>
       </c>
@@ -6539,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL31" s="4">
         <v>0</v>
@@ -6560,10 +6655,10 @@
         <v>0</v>
       </c>
       <c r="AR31" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT31" s="4">
         <v>0</v>
@@ -6602,21 +6697,24 @@
         <v>0</v>
       </c>
       <c r="BF31" s="4">
-        <v>2</v>
-      </c>
-      <c r="BG31" s="6">
-        <f>COUNTIF($G31:$BF31, "&gt;0")</f>
-        <v>21</v>
-      </c>
-      <c r="BH31" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG31" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH31" s="6">
+        <f>COUNTIF($G31:$BG31, "&gt;0")</f>
+        <v>22</v>
+      </c>
+      <c r="BI31" s="10">
         <f>_xlfn.XLOOKUP("Main size", $1:$1, 31:31)/_xlfn.XLOOKUP("Feature count", $1:$1, 31:31)</f>
-        <v>190.57142857142858</v>
+        <v>181.90909090909091</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:BH31" xr:uid="{8512C64C-DE47-334B-AE0C-39DDD4F96E15}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:BH31">
-      <sortCondition ref="BH3:BH31"/>
+  <autoFilter ref="A3:BI31" xr:uid="{8512C64C-DE47-334B-AE0C-39DDD4F96E15}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:BI31">
+      <sortCondition ref="BI3:BI31"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6655,7 +6753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:BF31">
+  <conditionalFormatting sqref="G4:BG31">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -6666,7 +6764,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG4:BG31">
+  <conditionalFormatting sqref="BH4:BH31">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6676,7 +6774,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH4:BH31">
+  <conditionalFormatting sqref="BI4:BI31">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6692,8 +6790,8 @@
     <hyperlink ref="A24" r:id="rId3" xr:uid="{A76D4E5E-9C61-C846-BF68-39EA20E19271}"/>
     <hyperlink ref="A28" r:id="rId4" xr:uid="{271A3F43-6A28-9044-9B77-55CB67E8E604}"/>
     <hyperlink ref="A29" r:id="rId5" xr:uid="{3319FE9B-1572-7B45-A51A-8631F49908F5}"/>
-    <hyperlink ref="A26" r:id="rId6" xr:uid="{6A5AEB05-49D4-5A43-AC85-14DC910FF378}"/>
-    <hyperlink ref="A27" r:id="rId7" xr:uid="{692BC8D6-C410-5A4C-9AC4-692F65427B7C}"/>
+    <hyperlink ref="A27" r:id="rId6" xr:uid="{6A5AEB05-49D4-5A43-AC85-14DC910FF378}"/>
+    <hyperlink ref="A26" r:id="rId7" xr:uid="{692BC8D6-C410-5A4C-9AC4-692F65427B7C}"/>
     <hyperlink ref="A21" r:id="rId8" xr:uid="{7A0C5CE4-FDBB-C142-89E0-609051079143}"/>
     <hyperlink ref="A25" r:id="rId9" xr:uid="{B27A7A0A-1947-624B-A135-AC2E4FA9DCDF}"/>
     <hyperlink ref="A18" r:id="rId10" xr:uid="{BBFDB1C2-F4D5-9F4F-9AB4-84F69F8E341F}"/>
@@ -6702,8 +6800,8 @@
     <hyperlink ref="A22" r:id="rId13" xr:uid="{1A073B5B-BE69-9E43-BB31-2AC1F74931C7}"/>
     <hyperlink ref="A17" r:id="rId14" xr:uid="{65802411-1B8E-064F-A6D7-DAD404DC6F66}"/>
     <hyperlink ref="A15" r:id="rId15" xr:uid="{8DAB0B02-5401-BF46-90F9-B2B728905C99}"/>
-    <hyperlink ref="A13" r:id="rId16" xr:uid="{F2854865-7589-3148-9BD0-694117F0C02A}"/>
-    <hyperlink ref="A14" r:id="rId17" xr:uid="{0305B1A2-7666-264C-831F-82265021FFB7}"/>
+    <hyperlink ref="A14" r:id="rId16" xr:uid="{F2854865-7589-3148-9BD0-694117F0C02A}"/>
+    <hyperlink ref="A13" r:id="rId17" xr:uid="{0305B1A2-7666-264C-831F-82265021FFB7}"/>
     <hyperlink ref="A12" r:id="rId18" xr:uid="{2F1BE129-94F7-DB45-B74A-D5DECFC8BD1F}"/>
     <hyperlink ref="A11" r:id="rId19" xr:uid="{022DC04F-D95A-7246-8451-7C3BA522CD1C}"/>
     <hyperlink ref="A9" r:id="rId20" xr:uid="{0C291FB0-BA8C-E141-98A4-91A6B6DD9884}"/>

--- a/tetris-4k-archive.xlsx
+++ b/tetris-4k-archive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/493d989091475df7/Personal/GitHub/tetris4karchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="14_{C793FAFD-FBF5-5E43-8744-8FDE773B4600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3686DDD-9E12-C046-95A6-C5F65FC12757}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="14_{C793FAFD-FBF5-5E43-8744-8FDE773B4600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF56C894-4CE3-6B44-84B1-824215074025}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{D2C8731B-3CDA-F546-8437-4794B27A2701}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" activeTab="1" xr2:uid="{D2C8731B-3CDA-F546-8437-4794B27A2701}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>Pause</t>
   </si>
   <si>
-    <t>Soft drop</t>
-  </si>
-  <si>
     <t>Colored pieces</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Retry</t>
   </si>
   <si>
-    <t>Hard drop</t>
-  </si>
-  <si>
     <t>Piece preview</t>
   </si>
   <si>
@@ -415,6 +409,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>Alternative drop</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;1000]0\ &quot;B&quot;;[&lt;1000000]0.0,\ &quot;KB&quot;;0.0,,\ &quot;MB&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -436,6 +436,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -462,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -472,1801 +478,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="118">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
+  <dxfs count="117">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2467,13 +684,175 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[&lt;1000]0\ &quot;B&quot;;[&lt;1000000]0.0,\ &quot;KB&quot;;0.0,,\ &quot;MB&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[&lt;1000]0\ &quot;B&quot;;[&lt;1000000]0.0,\ &quot;KB&quot;;0.0,,\ &quot;MB&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[&lt;1000]0\ &quot;B&quot;;[&lt;1000000]0.0,\ &quot;KB&quot;;0.0,,\ &quot;MB&quot;"/>
@@ -2507,15 +886,15 @@
     <tableColumn id="1" xr3:uid="{84789775-DE85-D947-845C-1C9D083E1A58}" name="Url" dataCellStyle="Hyperlink"/>
     <tableColumn id="2" xr3:uid="{32550A16-D826-E54E-BF97-71D3022BA370}" name="Author" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{2ACC8159-96C4-4647-B692-5BBD3DDEE4DF}" name="Programming language" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{68D30827-3F0C-8B44-BAA0-ECC2AEC03BA1}" name="Main size" dataDxfId="117" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{1B0AF07C-29E3-1948-9A5B-D8042FFA187C}" name="Extra size" dataDxfId="116" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{DA1DF1E5-E7CF-1A41-BAEA-E8FCFC42214F}" name="Total size" dataDxfId="115" dataCellStyle="Normal">
+    <tableColumn id="4" xr3:uid="{68D30827-3F0C-8B44-BAA0-ECC2AEC03BA1}" name="Main size" dataDxfId="116" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{1B0AF07C-29E3-1948-9A5B-D8042FFA187C}" name="Extra size" dataDxfId="115" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{DA1DF1E5-E7CF-1A41-BAEA-E8FCFC42214F}" name="Total size" dataDxfId="114" dataCellStyle="Normal">
       <calculatedColumnFormula>Overview[[#This Row],[Main size]]+Overview[[#This Row],[Extra size]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="60" xr3:uid="{E53957EA-C893-AE47-BDF7-B7968A238BFF}" name="Feature count" dataDxfId="113" dataCellStyle="Normal">
       <calculatedColumnFormula>VLOOKUP(Overview[[#This Row],[Url]], Features[], 55, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="61" xr3:uid="{EA6C999C-4085-C548-91A6-EB1D10584871}" name="Bytes per feature" dataDxfId="114" dataCellStyle="Normal">
+    <tableColumn id="61" xr3:uid="{EA6C999C-4085-C548-91A6-EB1D10584871}" name="Bytes per feature" dataDxfId="112" dataCellStyle="Normal">
       <calculatedColumnFormula>Overview[[#This Row],[Main size]]/Overview[[#This Row],[Feature count]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2524,230 +903,174 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7F871A6A-B10F-1E41-9D52-0FFC0EDAFD1B}" name="Features" displayName="Features" ref="A1:BC30" totalsRowCount="1" headerRowDxfId="112" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:BC29" xr:uid="{7F871A6A-B10F-1E41-9D52-0FFC0EDAFD1B}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-    <filterColumn colId="15" hiddenButton="1"/>
-    <filterColumn colId="16" hiddenButton="1"/>
-    <filterColumn colId="17" hiddenButton="1"/>
-    <filterColumn colId="18" hiddenButton="1"/>
-    <filterColumn colId="19" hiddenButton="1"/>
-    <filterColumn colId="20" hiddenButton="1"/>
-    <filterColumn colId="21" hiddenButton="1"/>
-    <filterColumn colId="22" hiddenButton="1"/>
-    <filterColumn colId="23" hiddenButton="1"/>
-    <filterColumn colId="24" hiddenButton="1"/>
-    <filterColumn colId="25" hiddenButton="1"/>
-    <filterColumn colId="26" hiddenButton="1"/>
-    <filterColumn colId="27" hiddenButton="1"/>
-    <filterColumn colId="28" hiddenButton="1"/>
-    <filterColumn colId="29" hiddenButton="1"/>
-    <filterColumn colId="30" hiddenButton="1"/>
-    <filterColumn colId="31" hiddenButton="1"/>
-    <filterColumn colId="32" hiddenButton="1"/>
-    <filterColumn colId="33" hiddenButton="1"/>
-    <filterColumn colId="34" hiddenButton="1"/>
-    <filterColumn colId="35" hiddenButton="1"/>
-    <filterColumn colId="36" hiddenButton="1"/>
-    <filterColumn colId="37" hiddenButton="1"/>
-    <filterColumn colId="38" hiddenButton="1"/>
-    <filterColumn colId="39" hiddenButton="1"/>
-    <filterColumn colId="40" hiddenButton="1"/>
-    <filterColumn colId="41" hiddenButton="1"/>
-    <filterColumn colId="42" hiddenButton="1"/>
-    <filterColumn colId="43" hiddenButton="1"/>
-    <filterColumn colId="44" hiddenButton="1"/>
-    <filterColumn colId="45" hiddenButton="1"/>
-    <filterColumn colId="46" hiddenButton="1"/>
-    <filterColumn colId="47" hiddenButton="1"/>
-    <filterColumn colId="48" hiddenButton="1"/>
-    <filterColumn colId="49" hiddenButton="1"/>
-    <filterColumn colId="50" hiddenButton="1"/>
-    <filterColumn colId="51" hiddenButton="1"/>
-    <filterColumn colId="52" hiddenButton="1"/>
-    <filterColumn colId="53" hiddenButton="1"/>
-    <filterColumn colId="54" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7F871A6A-B10F-1E41-9D52-0FFC0EDAFD1B}" name="Features" displayName="Features" ref="A1:BC30" totalsRowCount="1" headerRowDxfId="111" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:BC29" xr:uid="{7F871A6A-B10F-1E41-9D52-0FFC0EDAFD1B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BC29">
     <sortCondition ref="BC1:BC29"/>
   </sortState>
   <tableColumns count="55">
     <tableColumn id="1" xr3:uid="{F70794FC-72A5-8C42-BCD0-4D5674CE7CDE}" name="Url" totalsRowLabel="Total" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{917160AE-27FA-C245-AE68-ED3E0D3E64B4}" name="Quit" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="54" dataCellStyle="Normal">
+    <tableColumn id="6" xr3:uid="{0E53DBF9-7D44-D944-9F38-E5DA3592255D}" name="Gravity" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="52" dataCellStyle="Hyperlink">
+      <totalsRowFormula>COUNTIF(Features[Gravity], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{753C877A-31CE-5644-836B-ABE496A396FD}" name="Horizontal movement" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="51" dataCellStyle="Hyperlink">
+      <totalsRowFormula>COUNTIF(Features[Horizontal movement], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{D34823E0-EA9E-2541-99EA-611B09636589}" name="Line clearing" totalsRowFunction="custom" dataDxfId="108" totalsRowDxfId="50" dataCellStyle="Hyperlink">
+      <totalsRowFormula>COUNTIF(Features[Line clearing], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{34EFFAF4-7174-AA43-AEF6-C1C40CE576EA}" name="Rotation" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="49" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Rotation], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{052242E3-B8DA-7B41-A480-E4F0913C2FE9}" name="Game over detection" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="48" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Game over detection], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{DD298EA1-001C-604A-A069-12D1ACA05336}" name="Drop" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="47" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Drop], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{8ABE9943-DFFF-2746-ACE7-7804224357AC}" name="All tetrominoes" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="46" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[All tetrominoes], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{917160AE-27FA-C245-AE68-ED3E0D3E64B4}" name="Quit" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="45" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Quit], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC4B77B4-2182-C247-BF49-DF6C43CFE4DA}" name="Sleep mode" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="53" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{980397D8-C412-194A-905F-C2E309BC56E1}" name="No bugs" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="44" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[No bugs], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{721AF9F0-924B-D842-AF3F-CDCE105901A4}" name="Line clear points" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="43" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Line clear points], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{375818CE-BA59-AD43-BF46-5EB47E573C15}" name="Pause" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="42" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Pause], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{9E6540CC-A854-C94D-BF5D-467A6595EA84}" name="Retry" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="41" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Retry], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{1DDCC536-0286-A744-B0D7-7F43464FE762}" name="Game over screen" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="40" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Game over screen], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{AC4B77B4-2182-C247-BF49-DF6C43CFE4DA}" name="Sleep mode" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="39" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Sleep mode], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0C1151E1-4DDD-834C-915A-3408AFCEA404}" name="Restart" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="52" dataCellStyle="Normal">
+    <tableColumn id="18" xr3:uid="{6FE8B878-4961-9E42-BB7C-039A1756D9A0}" name="Colored pieces" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="38" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Colored pieces], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="27" xr3:uid="{C368C28F-D7B5-0046-B199-F0D36DDB6016}" name="Piece preview" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="37" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Piece preview], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{0C1151E1-4DDD-834C-915A-3408AFCEA404}" name="Restart" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="36" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Restart], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B2523235-CB04-C046-9961-276F3D35F985}" name="Music" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="51" dataCellStyle="Normal">
+    <tableColumn id="22" xr3:uid="{AE2B66D0-29A5-5244-A14C-3E61EF97224B}" name="Faster levels" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="35" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Faster levels], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{5DBB163D-CA3C-FE49-8BEE-BA883EE3244C}" name="Animations" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="34" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Animations], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{BA3A28B6-31E9-FF4B-A2CF-AEF8203EB3A4}" name="No ceiling" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="33" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[No ceiling], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="31" xr3:uid="{D574A9AF-E1F5-4846-8FA8-394B6BB30BD3}" name="Placement points" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="32" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Placement points], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{E010A103-DD4C-694B-93D2-BAD2049B79B4}" name="Alternative drop" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="31" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Alternative drop], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{E17D0CF6-5DD6-954C-A2D7-17C4E00183D6}" name="Drop points" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="30" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Drop points], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="30" xr3:uid="{6FD760D7-E85D-AB42-ACC5-DD18445D0024}" name="Alternative rotation" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="29" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Alternative rotation], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="34" xr3:uid="{A142DCEF-6BB9-8947-9CA7-8B61D1C13708}" name="High scores" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="28" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[High scores], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{7401CD05-FEA4-2C46-AC78-8622140A4367}" name="Title screen" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="27" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Title screen], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{7AF25299-AD34-B04F-AD67-FF7C0EFF626B}" name="Placement transition" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="26" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Placement transition], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="35" xr3:uid="{2EDAECD0-FAC6-6645-A79A-6B2838636AC4}" name="Level selection" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="25" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Level selection], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="38" xr3:uid="{4A276C80-B282-2046-AEA1-D0C75A67F682}" name="Level score multiplier" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="24" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Level score multiplier], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B2523235-CB04-C046-9961-276F3D35F985}" name="Music" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="23" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Music], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0E53DBF9-7D44-D944-9F38-E5DA3592255D}" name="Gravity" totalsRowFunction="custom" dataDxfId="103" totalsRowDxfId="50" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Gravity], "&gt;0")</totalsRowFormula>
+    <tableColumn id="37" xr3:uid="{2C01B9A2-DA5B-1B4C-91E6-9EF64885935C}" name="Persistent high scores" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="22" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Persistent high scores], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{753C877A-31CE-5644-836B-ABE496A396FD}" name="Horizontal movement" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="49" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Horizontal movement], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{D34823E0-EA9E-2541-99EA-611B09636589}" name="Line clearing" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="48" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Line clearing], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{980397D8-C412-194A-905F-C2E309BC56E1}" name="No bugs" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="47" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[No bugs], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{DD298EA1-001C-604A-A069-12D1ACA05336}" name="Soft drop" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="46" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Soft drop], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{34EFFAF4-7174-AA43-AEF6-C1C40CE576EA}" name="Rotation" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="45" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Rotation], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{052242E3-B8DA-7B41-A480-E4F0913C2FE9}" name="Game over detection" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="44" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Game over detection], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{8ABE9943-DFFF-2746-ACE7-7804224357AC}" name="All tetrominoes" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="43" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[All tetrominoes], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{375818CE-BA59-AD43-BF46-5EB47E573C15}" name="Pause" totalsRowFunction="custom" dataDxfId="95" totalsRowDxfId="42" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Pause], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{9E6540CC-A854-C94D-BF5D-467A6595EA84}" name="Retry" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="41" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Retry], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="16" xr3:uid="{721AF9F0-924B-D842-AF3F-CDCE105901A4}" name="Line clear points" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="40" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Line clear points], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{9C620DD6-D4B9-C14D-B084-36EC231242B1}" name="Survival time points" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="39" dataCellStyle="Normal">
+    <tableColumn id="17" xr3:uid="{9C620DD6-D4B9-C14D-B084-36EC231242B1}" name="Survival time points" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="21" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Survival time points], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6FE8B878-4961-9E42-BB7C-039A1756D9A0}" name="Colored pieces" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="38" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Colored pieces], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="19" xr3:uid="{E010A103-DD4C-694B-93D2-BAD2049B79B4}" name="Hard drop" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="37" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Hard drop], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="20" xr3:uid="{1DDCC536-0286-A744-B0D7-7F43464FE762}" name="Game over screen" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="36" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Game over screen], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="21" xr3:uid="{7401CD05-FEA4-2C46-AC78-8622140A4367}" name="Title screen" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="35" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Title screen], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="22" xr3:uid="{AE2B66D0-29A5-5244-A14C-3E61EF97224B}" name="Faster levels" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="34" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Faster levels], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="23" xr3:uid="{5DBB163D-CA3C-FE49-8BEE-BA883EE3244C}" name="Animations" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="33" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Animations], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="24" xr3:uid="{BA3A28B6-31E9-FF4B-A2CF-AEF8203EB3A4}" name="No ceiling" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="32" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[No ceiling], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="25" xr3:uid="{E17D0CF6-5DD6-954C-A2D7-17C4E00183D6}" name="Drop points" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="31" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Drop points], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="26" xr3:uid="{7AF25299-AD34-B04F-AD67-FF7C0EFF626B}" name="Placement transition" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="30" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Placement transition], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="27" xr3:uid="{C368C28F-D7B5-0046-B199-F0D36DDB6016}" name="Piece preview" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="29" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Piece preview], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="28" xr3:uid="{1C20FCF3-3207-4841-833D-2CBDD707FAFC}" name="Smooth gravity" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="28" dataCellStyle="Normal">
+    <tableColumn id="28" xr3:uid="{1C20FCF3-3207-4841-833D-2CBDD707FAFC}" name="Smooth gravity" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="20" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Smooth gravity], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{0771323D-0108-7F41-A86C-83298C1E9A45}" name="Controls guide" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="27" dataCellStyle="Normal">
+    <tableColumn id="29" xr3:uid="{0771323D-0108-7F41-A86C-83298C1E9A45}" name="Controls guide" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="19" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Controls guide], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{6FD760D7-E85D-AB42-ACC5-DD18445D0024}" name="Alternative rotation" totalsRowFunction="custom" dataDxfId="79" totalsRowDxfId="26" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Alternative rotation], "&gt;0")</totalsRowFormula>
+    <tableColumn id="43" xr3:uid="{7F00B3B9-E62E-F243-8A15-B781419BA359}" name="SFX" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="18" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[SFX], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{D574A9AF-E1F5-4846-8FA8-394B6BB30BD3}" name="Placement points" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="25" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Placement points], "&gt;0")</totalsRowFormula>
+    <tableColumn id="45" xr3:uid="{8E03E5B0-32AB-BD42-8CF4-4473F39FDF5B}" name="Wall kicks" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="17" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Wall kicks], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{F18403D7-C0B4-5341-96D5-D80EF00B1419}" name="Random background color" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="24" dataCellStyle="Normal">
+    <tableColumn id="46" xr3:uid="{D08990EB-CC9C-1048-9DB5-FF4FEB6524E0}" name="Toggleable music" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="16" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Toggleable music], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="48" xr3:uid="{C15AD540-7DE8-DF45-A8E8-55E8643D06B7}" name="Drought prevention" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="15" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Drought prevention], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="49" xr3:uid="{1FB6C722-4F1C-9F4F-B726-D161CDF248C5}" name="Easter eggs" totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="14" dataCellStyle="Normal">
+      <totalsRowFormula>COUNTIF(Features[Easter eggs], "&gt;0")</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="32" xr3:uid="{F18403D7-C0B4-5341-96D5-D80EF00B1419}" name="Random background color" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="13" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Random background color], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{495CED07-52BC-DA40-BA19-C361372D0361}" name="Height score multiplier" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="23" dataCellStyle="Normal">
+    <tableColumn id="33" xr3:uid="{495CED07-52BC-DA40-BA19-C361372D0361}" name="Height score multiplier" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="12" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Height score multiplier], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{A142DCEF-6BB9-8947-9CA7-8B61D1C13708}" name="High scores" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="22" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[High scores], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="35" xr3:uid="{2EDAECD0-FAC6-6645-A79A-6B2838636AC4}" name="Level selection" totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="21" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Level selection], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="36" xr3:uid="{A3F3018C-8019-EE43-A14D-81D280AFA9FE}" name="Rotation direction selection" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="20" dataCellStyle="Normal">
+    <tableColumn id="36" xr3:uid="{A3F3018C-8019-EE43-A14D-81D280AFA9FE}" name="Rotation direction selection" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="11" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Rotation direction selection], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{2C01B9A2-DA5B-1B4C-91E6-9EF64885935C}" name="Persistent high scores" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="19" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Persistent high scores], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="38" xr3:uid="{4A276C80-B282-2046-AEA1-D0C75A67F682}" name="Level score multiplier" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="18" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Level score multiplier], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="39" xr3:uid="{FF3027C5-38EA-9D4B-AF80-08FCEF5CDFF8}" name="Toggleable piece preview" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="17" dataCellStyle="Normal">
+    <tableColumn id="39" xr3:uid="{FF3027C5-38EA-9D4B-AF80-08FCEF5CDFF8}" name="Toggleable piece preview" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="10" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Toggleable piece preview], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{026C1524-4ADC-104B-AB29-5F5E31DB7CD9}" name="Skip level" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="16" dataCellStyle="Normal">
+    <tableColumn id="40" xr3:uid="{026C1524-4ADC-104B-AB29-5F5E31DB7CD9}" name="Skip level" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="9" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Skip level], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{5ECF244D-9051-1A44-B6E6-282F5BCF6B6C}" name="Piece preview selection" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="15" dataCellStyle="Normal">
+    <tableColumn id="41" xr3:uid="{5ECF244D-9051-1A44-B6E6-282F5BCF6B6C}" name="Piece preview selection" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="8" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Piece preview selection], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{BB11ED80-2777-CE44-A47F-0560DD1624F3}" name="High scores with names" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="14" dataCellStyle="Normal">
+    <tableColumn id="42" xr3:uid="{BB11ED80-2777-CE44-A47F-0560DD1624F3}" name="High scores with names" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="7" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[High scores with names], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{7F00B3B9-E62E-F243-8A15-B781419BA359}" name="SFX" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="13" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[SFX], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="44" xr3:uid="{199C38DB-A514-9340-B0D6-CC52CDEE9AA1}" name="Shadows" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="12" dataCellStyle="Normal">
+    <tableColumn id="44" xr3:uid="{199C38DB-A514-9340-B0D6-CC52CDEE9AA1}" name="Shadows" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="6" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Shadows], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{8E03E5B0-32AB-BD42-8CF4-4473F39FDF5B}" name="Wall kicks" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="11" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Wall kicks], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="46" xr3:uid="{D08990EB-CC9C-1048-9DB5-FF4FEB6524E0}" name="Toggleable music" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="10" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Toggleable music], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="47" xr3:uid="{A012D82E-C082-3D4E-84C2-03778B7C1CC4}" name="Piece statistics" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="9" dataCellStyle="Normal">
+    <tableColumn id="47" xr3:uid="{A012D82E-C082-3D4E-84C2-03778B7C1CC4}" name="Piece statistics" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="5" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Piece statistics], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{C15AD540-7DE8-DF45-A8E8-55E8643D06B7}" name="Drought prevention" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="8" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Drought prevention], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="49" xr3:uid="{1FB6C722-4F1C-9F4F-B726-D161CDF248C5}" name="Easter eggs" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="7" dataCellStyle="Normal">
-      <totalsRowFormula>COUNTIF(Features[Easter eggs], "&gt;0")</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="50" xr3:uid="{C0F9622B-0303-874E-BD3E-395D5F8176F7}" name="Lock delay" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="6" dataCellStyle="Normal">
+    <tableColumn id="50" xr3:uid="{C0F9622B-0303-874E-BD3E-395D5F8176F7}" name="Lock delay" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="4" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Lock delay], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{C8048FA2-65A2-8541-9E2D-57711CFF5E25}" name="Ghost piece" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="5" dataCellStyle="Normal">
+    <tableColumn id="51" xr3:uid="{C8048FA2-65A2-8541-9E2D-57711CFF5E25}" name="Ghost piece" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="3" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Ghost piece], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="52" xr3:uid="{9950FAA2-911B-E54F-9A8D-469DF04C1ED2}" name="Hold piece" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="4" dataCellStyle="Normal">
+    <tableColumn id="52" xr3:uid="{9950FAA2-911B-E54F-9A8D-469DF04C1ED2}" name="Hold piece" totalsRowFunction="custom" dataDxfId="62" totalsRowDxfId="2" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Hold piece], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="53" xr3:uid="{F4E79DE1-E082-F44C-B4A6-196AFF2BA6E3}" name="Obstacle height selection" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="3" dataCellStyle="Normal">
+    <tableColumn id="53" xr3:uid="{F4E79DE1-E082-F44C-B4A6-196AFF2BA6E3}" name="Obstacle height selection" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="1" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Obstacle height selection], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="54" xr3:uid="{5C9C161C-D9C6-1347-910D-8853B1E54ACE}" name="Visible center of rotation" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="2" dataCellStyle="Normal">
+    <tableColumn id="54" xr3:uid="{5C9C161C-D9C6-1347-910D-8853B1E54ACE}" name="Visible center of rotation" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="0" dataCellStyle="Normal">
       <totalsRowFormula>COUNTIF(Features[Visible center of rotation], "&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="55" xr3:uid="{80FF05F3-03F6-A246-9527-AE851A5C29EC}" name="Feature count" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Normal">
-      <calculatedColumnFormula>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</calculatedColumnFormula>
+    <tableColumn id="55" xr3:uid="{80FF05F3-03F6-A246-9527-AE851A5C29EC}" name="Feature count" dataDxfId="59" dataCellStyle="Normal">
+      <calculatedColumnFormula>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3073,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5FEAAA-9E37-3942-934D-C30EB6EA013C}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E3" sqref="A2:H29"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3109,21 +1432,21 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2">
         <v>251</v>
@@ -3146,13 +1469,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2">
         <v>227</v>
@@ -3175,13 +1498,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="2">
         <v>256</v>
@@ -3204,13 +1527,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2">
         <v>256</v>
@@ -3233,13 +1556,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2">
         <v>274</v>
@@ -3262,13 +1585,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
       </c>
       <c r="D7" s="2">
         <v>304</v>
@@ -3291,13 +1614,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
         <v>92</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
       </c>
       <c r="D8" s="2">
         <v>457</v>
@@ -3320,13 +1643,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2">
         <v>471</v>
@@ -3349,13 +1672,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2">
         <v>464</v>
@@ -3378,13 +1701,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2">
         <v>510</v>
@@ -3407,13 +1730,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2">
         <v>508</v>
@@ -3436,13 +1759,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2">
         <v>446</v>
@@ -3465,13 +1788,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2">
         <v>491</v>
@@ -3494,13 +1817,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2">
         <v>446</v>
@@ -3523,13 +1846,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2">
         <v>1358</v>
@@ -3552,13 +1875,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2">
         <v>1269</v>
@@ -3581,13 +1904,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
         <v>81</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>83</v>
       </c>
       <c r="D18" s="2">
         <v>1459</v>
@@ -3610,13 +1933,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2">
         <v>1896</v>
@@ -3639,13 +1962,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2">
         <v>1805</v>
@@ -3668,13 +1991,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2">
         <v>2048</v>
@@ -3697,13 +2020,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
         <v>112</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
       </c>
       <c r="D22" s="2">
         <v>2738</v>
@@ -3726,13 +2049,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2">
         <v>2710</v>
@@ -3755,13 +2078,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2">
         <v>2824</v>
@@ -3784,13 +2107,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
         <v>117</v>
-      </c>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>119</v>
       </c>
       <c r="D25" s="2">
         <v>2882</v>
@@ -3813,13 +2136,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
         <v>107</v>
-      </c>
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
       </c>
       <c r="D26" s="2">
         <v>3998</v>
@@ -3842,13 +2165,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D27" s="2">
         <v>4002</v>
@@ -3871,13 +2194,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" s="2">
         <v>4095</v>
@@ -3900,13 +2223,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="2">
         <v>4016</v>
@@ -3929,7 +2252,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"UNKNOWN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4024,17 +2347,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AFB179-3967-C04B-B20E-010BC5D1A776}">
   <dimension ref="A1:BC30"/>
   <sheetViews>
-    <sheetView zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="BC29" sqref="BC29"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:BC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="61" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="16381" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="16382" max="16384" width="3.6640625" customWidth="1"/>
+    <col min="2" max="55" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="60" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="16380" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="16381" max="16384" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
@@ -4042,223 +2367,223 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="R1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="AC1" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AE1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AK1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="AU1" s="3" t="s">
         <v>56</v>
       </c>
       <c r="AV1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BA1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="BC1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
       <c r="S2" s="4">
         <v>0</v>
       </c>
@@ -4296,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF2" s="4">
         <v>0</v>
@@ -4368,56 +2693,56 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
       <c r="P3" s="4">
         <v>0</v>
       </c>
@@ -4536,31 +2861,31 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
         <v>2</v>
@@ -4572,16 +2897,16 @@
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4">
         <v>0</v>
@@ -4704,49 +3029,49 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
@@ -4761,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="4">
         <v>0</v>
@@ -4872,34 +3197,34 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -4911,22 +3236,22 @@
         <v>2</v>
       </c>
       <c r="L6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
       <c r="P6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="4">
         <v>0</v>
@@ -4974,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH6" s="4">
         <v>0</v>
@@ -5040,64 +3365,64 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
         <v>2</v>
       </c>
       <c r="J7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
       </c>
       <c r="P7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
       </c>
       <c r="R7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4">
         <v>0</v>
@@ -5208,65 +3533,65 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>2</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>2</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
       <c r="S8" s="4">
         <v>0</v>
       </c>
@@ -5376,31 +3701,31 @@
         <v>0</v>
       </c>
       <c r="BC8">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
       </c>
       <c r="G9" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
         <v>2</v>
@@ -5415,13 +3740,13 @@
         <v>2</v>
       </c>
       <c r="L9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="4">
         <v>0</v>
@@ -5430,10 +3755,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="4">
         <v>0</v>
@@ -5478,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="4">
         <v>0</v>
@@ -5544,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -5574,37 +3899,37 @@
         <v>2</v>
       </c>
       <c r="I10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="4">
         <v>0</v>
       </c>
       <c r="P10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="4">
         <v>0</v>
       </c>
       <c r="R10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>
@@ -5712,25 +4037,25 @@
         <v>0</v>
       </c>
       <c r="BC10">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -5745,34 +4070,34 @@
         <v>2</v>
       </c>
       <c r="J11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="4">
         <v>0</v>
       </c>
       <c r="P11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
       </c>
       <c r="R11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -5880,70 +4205,70 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="4">
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>2</v>
-      </c>
-      <c r="L12" s="4">
-        <v>2</v>
-      </c>
-      <c r="M12" s="4">
-        <v>2</v>
-      </c>
       <c r="N12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" s="4">
         <v>1</v>
       </c>
       <c r="P12" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="4">
         <v>0</v>
       </c>
       <c r="R12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T12" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U12" s="4">
         <v>0</v>
@@ -6048,25 +4373,25 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -6087,13 +4412,13 @@
         <v>2</v>
       </c>
       <c r="L13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" s="4">
         <v>0</v>
@@ -6105,13 +4430,13 @@
         <v>0</v>
       </c>
       <c r="R13" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S13" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U13" s="4">
         <v>0</v>
@@ -6120,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X13" s="4">
         <v>0</v>
@@ -6216,73 +4541,73 @@
         <v>0</v>
       </c>
       <c r="BC13">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
         <v>1</v>
       </c>
-      <c r="C14" s="4">
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2</v>
+      </c>
+      <c r="O14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2</v>
-      </c>
-      <c r="J14" s="4">
-        <v>2</v>
-      </c>
-      <c r="K14" s="4">
-        <v>2</v>
-      </c>
-      <c r="L14" s="4">
-        <v>2</v>
-      </c>
-      <c r="M14" s="4">
-        <v>2</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>2</v>
-      </c>
-      <c r="P14" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0</v>
-      </c>
       <c r="S14" s="4">
         <v>0</v>
       </c>
       <c r="T14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V14" s="4">
         <v>0</v>
@@ -6300,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB14" s="4">
         <v>0</v>
@@ -6384,25 +4709,25 @@
         <v>0</v>
       </c>
       <c r="BC14">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -6414,7 +4739,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <v>2</v>
@@ -6423,13 +4748,13 @@
         <v>2</v>
       </c>
       <c r="L15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="4">
         <v>0</v>
@@ -6441,37 +4766,37 @@
         <v>0</v>
       </c>
       <c r="R15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X15" s="4">
         <v>2</v>
       </c>
       <c r="Y15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="4">
         <v>0</v>
       </c>
       <c r="AB15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC15" s="4">
         <v>0</v>
@@ -6552,31 +4877,31 @@
         <v>0</v>
       </c>
       <c r="BC15">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
       </c>
       <c r="G16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4">
         <v>2</v>
@@ -6585,31 +4910,31 @@
         <v>2</v>
       </c>
       <c r="J16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="4">
         <v>0</v>
       </c>
       <c r="P16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16" s="4">
         <v>0</v>
@@ -6624,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X16" s="4">
         <v>0</v>
@@ -6633,16 +4958,16 @@
         <v>0</v>
       </c>
       <c r="Z16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="4">
         <v>2</v>
       </c>
       <c r="AC16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="4">
         <v>0</v>
@@ -6657,10 +4982,10 @@
         <v>0</v>
       </c>
       <c r="AH16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ16" s="4">
         <v>0</v>
@@ -6720,70 +5045,70 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
+      <c r="J17" s="4">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2</v>
-      </c>
-      <c r="J17" s="4">
-        <v>2</v>
-      </c>
-      <c r="K17" s="4">
-        <v>2</v>
-      </c>
-      <c r="L17" s="4">
-        <v>2</v>
-      </c>
-      <c r="M17" s="4">
-        <v>2</v>
-      </c>
       <c r="N17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" s="4">
         <v>1</v>
       </c>
       <c r="P17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4">
         <v>0</v>
       </c>
       <c r="R17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="4">
         <v>0</v>
       </c>
       <c r="T17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17" s="4">
         <v>0</v>
@@ -6798,22 +5123,22 @@
         <v>0</v>
       </c>
       <c r="Y17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="4">
         <v>0</v>
       </c>
       <c r="AB17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="4">
         <v>0</v>
       </c>
       <c r="AD17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="4">
         <v>0</v>
@@ -6888,70 +5213,70 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B18" s="4">
         <v>2</v>
       </c>
       <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4">
-        <v>2</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>2</v>
-      </c>
-      <c r="L18" s="4">
-        <v>2</v>
-      </c>
-      <c r="M18" s="4">
-        <v>2</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
       <c r="P18" s="4">
         <v>2</v>
       </c>
       <c r="Q18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S18" s="4">
         <v>2</v>
       </c>
       <c r="T18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18" s="4">
         <v>0</v>
@@ -6963,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="4">
         <v>2</v>
@@ -6972,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="4">
         <v>0</v>
@@ -6981,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="AD18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="4">
         <v>0</v>
@@ -7056,82 +5381,82 @@
         <v>0</v>
       </c>
       <c r="BC18">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="4">
+      <c r="J19" s="4">
+        <v>2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>2</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>2</v>
-      </c>
-      <c r="I19" s="4">
-        <v>2</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>2</v>
-      </c>
-      <c r="L19" s="4">
-        <v>2</v>
-      </c>
-      <c r="M19" s="4">
-        <v>2</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>2</v>
-      </c>
       <c r="P19" s="4">
         <v>2</v>
       </c>
       <c r="Q19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19" s="4">
         <v>2</v>
       </c>
       <c r="T19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="4">
         <v>0</v>
       </c>
       <c r="X19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="4">
         <v>0</v>
@@ -7140,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="4">
         <v>0</v>
@@ -7224,25 +5549,25 @@
         <v>0</v>
       </c>
       <c r="BC19">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
       </c>
       <c r="E20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
@@ -7254,34 +5579,34 @@
         <v>2</v>
       </c>
       <c r="I20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="4">
         <v>2</v>
       </c>
       <c r="L20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" s="4">
         <v>2</v>
       </c>
       <c r="N20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S20" s="4">
         <v>2</v>
@@ -7308,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="4">
         <v>0</v>
@@ -7320,13 +5645,13 @@
         <v>0</v>
       </c>
       <c r="AE20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="4">
         <v>0</v>
@@ -7350,10 +5675,10 @@
         <v>0</v>
       </c>
       <c r="AO20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ20" s="4">
         <v>0</v>
@@ -7392,25 +5717,25 @@
         <v>0</v>
       </c>
       <c r="BC20">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" s="4">
         <v>2</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
@@ -7422,46 +5747,46 @@
         <v>2</v>
       </c>
       <c r="I21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="4">
         <v>2</v>
       </c>
       <c r="L21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="4">
         <v>2</v>
       </c>
       <c r="N21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21" s="4">
         <v>0</v>
       </c>
       <c r="S21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="4">
         <v>0</v>
@@ -7473,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA21" s="4">
         <v>2</v>
@@ -7482,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD21" s="4">
         <v>0</v>
@@ -7497,13 +5822,13 @@
         <v>0</v>
       </c>
       <c r="AH21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="4">
         <v>0</v>
@@ -7524,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR21" s="4">
         <v>0</v>
@@ -7560,91 +5885,91 @@
         <v>0</v>
       </c>
       <c r="BC21">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="4">
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2</v>
-      </c>
-      <c r="G22" s="4">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4">
-        <v>2</v>
-      </c>
-      <c r="I22" s="4">
-        <v>2</v>
-      </c>
-      <c r="J22" s="4">
-        <v>2</v>
-      </c>
-      <c r="K22" s="4">
-        <v>2</v>
-      </c>
-      <c r="L22" s="4">
-        <v>2</v>
-      </c>
-      <c r="M22" s="4">
-        <v>2</v>
-      </c>
       <c r="N22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22" s="4">
         <v>1</v>
       </c>
       <c r="P22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U22" s="4">
         <v>0</v>
       </c>
       <c r="V22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y22" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="4">
         <v>0</v>
       </c>
       <c r="AA22" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="4">
         <v>0</v>
@@ -7656,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="4">
         <v>0</v>
@@ -7728,25 +6053,25 @@
         <v>0</v>
       </c>
       <c r="BC22">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="4">
         <v>2</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -7758,10 +6083,10 @@
         <v>2</v>
       </c>
       <c r="I23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" s="4">
         <v>2</v>
@@ -7776,19 +6101,19 @@
         <v>2</v>
       </c>
       <c r="O23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" s="4">
         <v>2</v>
@@ -7797,10 +6122,10 @@
         <v>0</v>
       </c>
       <c r="V23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X23" s="4">
         <v>0</v>
@@ -7809,10 +6134,10 @@
         <v>0</v>
       </c>
       <c r="Z23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="4">
         <v>0</v>
@@ -7827,13 +6152,13 @@
         <v>0</v>
       </c>
       <c r="AF23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="4">
         <v>0</v>
       </c>
       <c r="AH23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="4">
         <v>0</v>
@@ -7842,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="4">
         <v>0</v>
@@ -7896,25 +6221,25 @@
         <v>0</v>
       </c>
       <c r="BC23">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -7926,40 +6251,40 @@
         <v>2</v>
       </c>
       <c r="I24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" s="4">
         <v>2</v>
       </c>
       <c r="N24" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S24" s="4">
         <v>2</v>
       </c>
       <c r="T24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U24" s="4">
         <v>0</v>
@@ -7971,28 +6296,28 @@
         <v>0</v>
       </c>
       <c r="X24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="4">
         <v>0</v>
       </c>
       <c r="AA24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="4">
         <v>0</v>
       </c>
       <c r="AC24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="4">
         <v>0</v>
@@ -8004,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="4">
         <v>0</v>
@@ -8013,16 +6338,16 @@
         <v>0</v>
       </c>
       <c r="AL24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="4">
         <v>0</v>
@@ -8031,13 +6356,13 @@
         <v>0</v>
       </c>
       <c r="AR24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU24" s="4">
         <v>0</v>
@@ -8064,88 +6389,88 @@
         <v>0</v>
       </c>
       <c r="BC24">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
       </c>
       <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4">
+        <v>2</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4">
+        <v>2</v>
+      </c>
+      <c r="O25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4">
-        <v>2</v>
-      </c>
-      <c r="H25" s="4">
-        <v>2</v>
-      </c>
-      <c r="I25" s="4">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4">
-        <v>2</v>
-      </c>
-      <c r="K25" s="4">
-        <v>2</v>
-      </c>
-      <c r="L25" s="4">
-        <v>2</v>
-      </c>
-      <c r="M25" s="4">
-        <v>2</v>
-      </c>
-      <c r="N25" s="4">
-        <v>2</v>
-      </c>
-      <c r="O25" s="4">
-        <v>2</v>
-      </c>
       <c r="P25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V25" s="4">
         <v>0</v>
       </c>
       <c r="W25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X25" s="4">
         <v>0</v>
       </c>
       <c r="Y25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA25" s="4">
         <v>2</v>
@@ -8157,19 +6482,19 @@
         <v>0</v>
       </c>
       <c r="AD25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="4">
         <v>0</v>
       </c>
       <c r="AF25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG25" s="4">
         <v>0</v>
       </c>
       <c r="AH25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="4">
         <v>0</v>
@@ -8178,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="4">
         <v>0</v>
@@ -8193,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="4">
         <v>0</v>
@@ -8208,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="AU25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV25" s="4">
         <v>0</v>
@@ -8232,64 +6557,64 @@
         <v>0</v>
       </c>
       <c r="BC25">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="4">
+      <c r="J26" s="4">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>2</v>
+      </c>
+      <c r="N26" s="4">
+        <v>2</v>
+      </c>
+      <c r="O26" s="4">
         <v>1</v>
       </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2</v>
-      </c>
-      <c r="G26" s="4">
-        <v>2</v>
-      </c>
-      <c r="H26" s="4">
-        <v>2</v>
-      </c>
-      <c r="I26" s="4">
-        <v>2</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <v>2</v>
-      </c>
-      <c r="L26" s="4">
-        <v>2</v>
-      </c>
-      <c r="M26" s="4">
-        <v>2</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26" s="4">
-        <v>2</v>
-      </c>
       <c r="P26" s="4">
         <v>2</v>
       </c>
       <c r="Q26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S26" s="4">
         <v>2</v>
@@ -8298,16 +6623,16 @@
         <v>2</v>
       </c>
       <c r="U26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="4">
         <v>0</v>
@@ -8316,16 +6641,16 @@
         <v>0</v>
       </c>
       <c r="AA26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE26" s="4">
         <v>0</v>
@@ -8337,19 +6662,19 @@
         <v>0</v>
       </c>
       <c r="AH26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK26" s="4">
         <v>0</v>
       </c>
       <c r="AL26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="4">
         <v>0</v>
@@ -8364,10 +6689,10 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="4">
         <v>0</v>
@@ -8379,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="AV26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW26" s="4">
         <v>0</v>
@@ -8400,70 +6725,70 @@
         <v>0</v>
       </c>
       <c r="BC26">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="4">
+      <c r="J27" s="4">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2</v>
+      </c>
+      <c r="L27" s="4">
+        <v>2</v>
+      </c>
+      <c r="M27" s="4">
+        <v>2</v>
+      </c>
+      <c r="N27" s="4">
+        <v>2</v>
+      </c>
+      <c r="O27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4">
-        <v>2</v>
-      </c>
-      <c r="H27" s="4">
-        <v>2</v>
-      </c>
-      <c r="I27" s="4">
-        <v>2</v>
-      </c>
-      <c r="J27" s="4">
-        <v>2</v>
-      </c>
-      <c r="K27" s="4">
-        <v>2</v>
-      </c>
-      <c r="L27" s="4">
-        <v>2</v>
-      </c>
-      <c r="M27" s="4">
-        <v>2</v>
-      </c>
-      <c r="N27" s="4">
-        <v>2</v>
-      </c>
-      <c r="O27" s="4">
-        <v>2</v>
-      </c>
       <c r="P27" s="4">
         <v>2</v>
       </c>
       <c r="Q27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S27" s="4">
         <v>2</v>
       </c>
       <c r="T27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="4">
         <v>2</v>
@@ -8472,16 +6797,16 @@
         <v>2</v>
       </c>
       <c r="W27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="4">
         <v>0</v>
       </c>
       <c r="Z27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA27" s="4">
         <v>2</v>
@@ -8505,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="4">
         <v>0</v>
@@ -8514,10 +6839,10 @@
         <v>0</v>
       </c>
       <c r="AK27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM27" s="4">
         <v>0</v>
@@ -8538,19 +6863,19 @@
         <v>0</v>
       </c>
       <c r="AS27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV27" s="4">
         <v>0</v>
       </c>
       <c r="AW27" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX27" s="4">
         <v>0</v>
@@ -8568,52 +6893,52 @@
         <v>0</v>
       </c>
       <c r="BC27">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28" s="4">
         <v>2</v>
       </c>
       <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2</v>
+      </c>
+      <c r="J28" s="4">
+        <v>2</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
         <v>1</v>
       </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2</v>
-      </c>
-      <c r="G28" s="4">
-        <v>2</v>
-      </c>
-      <c r="H28" s="4">
-        <v>2</v>
-      </c>
-      <c r="I28" s="4">
-        <v>2</v>
-      </c>
-      <c r="J28" s="4">
-        <v>2</v>
-      </c>
-      <c r="K28" s="4">
-        <v>2</v>
-      </c>
-      <c r="L28" s="4">
-        <v>2</v>
-      </c>
-      <c r="M28" s="4">
-        <v>2</v>
-      </c>
       <c r="N28" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O28" s="4">
         <v>1</v>
@@ -8622,10 +6947,10 @@
         <v>2</v>
       </c>
       <c r="Q28" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S28" s="4">
         <v>2</v>
@@ -8634,37 +6959,37 @@
         <v>2</v>
       </c>
       <c r="U28" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V28" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W28" s="4">
         <v>2</v>
       </c>
       <c r="X28" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z28" s="4">
         <v>0</v>
       </c>
       <c r="AA28" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="4">
         <v>0</v>
       </c>
       <c r="AC28" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="4">
         <v>2</v>
       </c>
       <c r="AE28" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF28" s="4">
         <v>0</v>
@@ -8676,22 +7001,22 @@
         <v>0</v>
       </c>
       <c r="AI28" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ28" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK28" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL28" s="4">
         <v>2</v>
       </c>
       <c r="AM28" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN28" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO28" s="4">
         <v>0</v>
@@ -8700,25 +7025,25 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="4">
         <v>0</v>
       </c>
       <c r="AS28" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="4">
         <v>0</v>
       </c>
       <c r="AV28" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="4">
         <v>2</v>
@@ -8736,13 +7061,13 @@
         <v>0</v>
       </c>
       <c r="BC28">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="4">
         <v>2</v>
@@ -8754,7 +7079,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
@@ -8787,28 +7112,28 @@
         <v>2</v>
       </c>
       <c r="P29" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29" s="4">
         <v>2</v>
       </c>
       <c r="U29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V29" s="4">
         <v>2</v>
       </c>
       <c r="W29" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X29" s="4">
         <v>2</v>
@@ -8820,46 +7145,46 @@
         <v>2</v>
       </c>
       <c r="AA29" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD29" s="4">
         <v>2</v>
       </c>
       <c r="AE29" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29" s="4">
         <v>0</v>
       </c>
       <c r="AH29" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="4">
         <v>0</v>
       </c>
       <c r="AK29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO29" s="4">
         <v>0</v>
@@ -8883,10 +7208,10 @@
         <v>0</v>
       </c>
       <c r="AV29" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW29" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="4">
         <v>0</v>
@@ -8904,237 +7229,237 @@
         <v>2</v>
       </c>
       <c r="BC29">
-        <f>COUNTIF(Features[[#This Row],[Quit]:[Visible center of rotation]], "&gt;0")</f>
+        <f>COUNTIF(Features[[#This Row],[Gravity]:[Visible center of rotation]], "&gt;0")</f>
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="6">
+        <v>122</v>
+      </c>
+      <c r="B30" s="4">
+        <f>COUNTIF(Features[Gravity], "&gt;0")</f>
+        <v>27</v>
+      </c>
+      <c r="C30" s="4">
+        <f>COUNTIF(Features[Horizontal movement], "&gt;0")</f>
+        <v>27</v>
+      </c>
+      <c r="D30" s="4">
+        <f>COUNTIF(Features[Line clearing], "&gt;0")</f>
+        <v>27</v>
+      </c>
+      <c r="E30" s="4">
+        <f>COUNTIF(Features[Rotation], "&gt;0")</f>
+        <v>24</v>
+      </c>
+      <c r="F30" s="4">
+        <f>COUNTIF(Features[Game over detection], "&gt;0")</f>
+        <v>24</v>
+      </c>
+      <c r="G30" s="4">
+        <f>COUNTIF(Features[Drop], "&gt;0")</f>
+        <v>22</v>
+      </c>
+      <c r="H30" s="4">
+        <f>COUNTIF(Features[All tetrominoes], "&gt;0")</f>
+        <v>22</v>
+      </c>
+      <c r="I30" s="4">
         <f>COUNTIF(Features[Quit], "&gt;0")</f>
         <v>21</v>
       </c>
-      <c r="C30" s="6">
+      <c r="J30" s="4">
+        <f>COUNTIF(Features[No bugs], "&gt;0")</f>
+        <v>20</v>
+      </c>
+      <c r="K30" s="4">
+        <f>COUNTIF(Features[Line clear points], "&gt;0")</f>
+        <v>17</v>
+      </c>
+      <c r="L30" s="4">
+        <f>COUNTIF(Features[Pause], "&gt;0")</f>
+        <v>16</v>
+      </c>
+      <c r="M30" s="4">
+        <f>COUNTIF(Features[Retry], "&gt;0")</f>
+        <v>16</v>
+      </c>
+      <c r="N30" s="4">
+        <f>COUNTIF(Features[Game over screen], "&gt;0")</f>
+        <v>16</v>
+      </c>
+      <c r="O30" s="4">
         <f>COUNTIF(Features[Sleep mode], "&gt;0")</f>
         <v>15</v>
       </c>
-      <c r="D30" s="6">
+      <c r="P30" s="4">
+        <f>COUNTIF(Features[Colored pieces], "&gt;0")</f>
+        <v>14</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>COUNTIF(Features[Piece preview], "&gt;0")</f>
+        <v>13</v>
+      </c>
+      <c r="R30" s="4">
         <f>COUNTIF(Features[Restart], "&gt;0")</f>
         <v>12</v>
       </c>
-      <c r="E30" s="6">
+      <c r="S30" s="4">
+        <f>COUNTIF(Features[Faster levels], "&gt;0")</f>
+        <v>11</v>
+      </c>
+      <c r="T30" s="4">
+        <f>COUNTIF(Features[Animations], "&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="U30" s="4">
+        <f>COUNTIF(Features[No ceiling], "&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="V30" s="4">
+        <f>COUNTIF(Features[Placement points], "&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="W30" s="4">
+        <f>COUNTIF(Features[Alternative drop], "&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="X30" s="4">
+        <f>COUNTIF(Features[Drop points], "&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="Y30" s="4">
+        <f>COUNTIF(Features[Alternative rotation], "&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="Z30" s="4">
+        <f>COUNTIF(Features[High scores], "&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="AA30" s="4">
+        <f>COUNTIF(Features[Title screen], "&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="AB30" s="4">
+        <f>COUNTIF(Features[Placement transition], "&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="AC30" s="4">
+        <f>COUNTIF(Features[Level selection], "&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="AD30" s="4">
+        <f>COUNTIF(Features[Level score multiplier], "&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="AE30" s="4">
         <f>COUNTIF(Features[Music], "&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="F30" s="6">
-        <f>COUNTIF(Features[Gravity], "&gt;0")</f>
-        <v>27</v>
-      </c>
-      <c r="G30" s="6">
-        <f>COUNTIF(Features[Horizontal movement], "&gt;0")</f>
-        <v>27</v>
-      </c>
-      <c r="H30" s="6">
-        <f>COUNTIF(Features[Line clearing], "&gt;0")</f>
-        <v>27</v>
-      </c>
-      <c r="I30" s="6">
-        <f>COUNTIF(Features[No bugs], "&gt;0")</f>
-        <v>20</v>
-      </c>
-      <c r="J30" s="6">
-        <f>COUNTIF(Features[Soft drop], "&gt;0")</f>
-        <v>14</v>
-      </c>
-      <c r="K30" s="6">
-        <f>COUNTIF(Features[Rotation], "&gt;0")</f>
-        <v>24</v>
-      </c>
-      <c r="L30" s="6">
-        <f>COUNTIF(Features[Game over detection], "&gt;0")</f>
-        <v>24</v>
-      </c>
-      <c r="M30" s="6">
-        <f>COUNTIF(Features[All tetrominoes], "&gt;0")</f>
-        <v>22</v>
-      </c>
-      <c r="N30" s="6">
-        <f>COUNTIF(Features[Pause], "&gt;0")</f>
-        <v>16</v>
-      </c>
-      <c r="O30" s="6">
-        <f>COUNTIF(Features[Retry], "&gt;0")</f>
-        <v>16</v>
-      </c>
-      <c r="P30" s="6">
-        <f>COUNTIF(Features[Line clear points], "&gt;0")</f>
-        <v>17</v>
-      </c>
-      <c r="Q30" s="6">
+      <c r="AF30" s="4">
+        <f>COUNTIF(Features[Persistent high scores], "&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="AG30" s="4">
         <f>COUNTIF(Features[Survival time points], "&gt;0")</f>
         <v>2</v>
       </c>
-      <c r="R30" s="6">
-        <f>COUNTIF(Features[Colored pieces], "&gt;0")</f>
-        <v>14</v>
-      </c>
-      <c r="S30" s="6">
-        <f>COUNTIF(Features[Hard drop], "&gt;0")</f>
-        <v>13</v>
-      </c>
-      <c r="T30" s="6">
-        <f>COUNTIF(Features[Game over screen], "&gt;0")</f>
-        <v>16</v>
-      </c>
-      <c r="U30" s="6">
-        <f>COUNTIF(Features[Title screen], "&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="V30" s="6">
-        <f>COUNTIF(Features[Faster levels], "&gt;0")</f>
-        <v>11</v>
-      </c>
-      <c r="W30" s="6">
-        <f>COUNTIF(Features[Animations], "&gt;0")</f>
-        <v>6</v>
-      </c>
-      <c r="X30" s="6">
-        <f>COUNTIF(Features[No ceiling], "&gt;0")</f>
-        <v>6</v>
-      </c>
-      <c r="Y30" s="6">
-        <f>COUNTIF(Features[Drop points], "&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="Z30" s="6">
-        <f>COUNTIF(Features[Placement transition], "&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="AA30" s="6">
-        <f>COUNTIF(Features[Piece preview], "&gt;0")</f>
-        <v>13</v>
-      </c>
-      <c r="AB30" s="6">
+      <c r="AH30" s="4">
         <f>COUNTIF(Features[Smooth gravity], "&gt;0")</f>
         <v>2</v>
       </c>
-      <c r="AC30" s="6">
+      <c r="AI30" s="4">
         <f>COUNTIF(Features[Controls guide], "&gt;0")</f>
         <v>2</v>
       </c>
-      <c r="AD30" s="6">
-        <f>COUNTIF(Features[Alternative rotation], "&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="AE30" s="6">
-        <f>COUNTIF(Features[Placement points], "&gt;0")</f>
-        <v>6</v>
-      </c>
-      <c r="AF30" s="6">
+      <c r="AJ30" s="4">
+        <f>COUNTIF(Features[SFX], "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="AK30" s="4">
+        <f>COUNTIF(Features[Wall kicks], "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="AL30" s="4">
+        <f>COUNTIF(Features[Toggleable music], "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="AM30" s="4">
+        <f>COUNTIF(Features[Drought prevention], "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="AN30" s="4">
+        <f>COUNTIF(Features[Easter eggs], "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="AO30" s="4">
         <f>COUNTIF(Features[Random background color], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="AG30" s="6">
+      <c r="AP30" s="4">
         <f>COUNTIF(Features[Height score multiplier], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="AH30" s="6">
-        <f>COUNTIF(Features[High scores], "&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="AI30" s="6">
-        <f>COUNTIF(Features[Level selection], "&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="AJ30" s="6">
+      <c r="AQ30" s="4">
         <f>COUNTIF(Features[Rotation direction selection], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="AK30" s="6">
-        <f>COUNTIF(Features[Persistent high scores], "&gt;0")</f>
-        <v>3</v>
-      </c>
-      <c r="AL30" s="6">
-        <f>COUNTIF(Features[Level score multiplier], "&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="AM30" s="6">
+      <c r="AR30" s="4">
         <f>COUNTIF(Features[Toggleable piece preview], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="AN30" s="6">
+      <c r="AS30" s="4">
         <f>COUNTIF(Features[Skip level], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="AO30" s="6">
+      <c r="AT30" s="4">
         <f>COUNTIF(Features[Piece preview selection], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="AP30" s="6">
+      <c r="AU30" s="4">
         <f>COUNTIF(Features[High scores with names], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="AQ30" s="6">
-        <f>COUNTIF(Features[SFX], "&gt;0")</f>
-        <v>2</v>
-      </c>
-      <c r="AR30" s="6">
+      <c r="AV30" s="4">
         <f>COUNTIF(Features[Shadows], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="AS30" s="6">
-        <f>COUNTIF(Features[Wall kicks], "&gt;0")</f>
-        <v>2</v>
-      </c>
-      <c r="AT30" s="6">
-        <f>COUNTIF(Features[Toggleable music], "&gt;0")</f>
-        <v>2</v>
-      </c>
-      <c r="AU30" s="6">
+      <c r="AW30" s="4">
         <f>COUNTIF(Features[Piece statistics], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="AV30" s="6">
-        <f>COUNTIF(Features[Drought prevention], "&gt;0")</f>
-        <v>2</v>
-      </c>
-      <c r="AW30" s="6">
-        <f>COUNTIF(Features[Easter eggs], "&gt;0")</f>
-        <v>2</v>
-      </c>
-      <c r="AX30" s="6">
+      <c r="AX30" s="4">
         <f>COUNTIF(Features[Lock delay], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="AY30" s="6">
+      <c r="AY30" s="4">
         <f>COUNTIF(Features[Ghost piece], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="AZ30" s="6">
+      <c r="AZ30" s="4">
         <f>COUNTIF(Features[Hold piece], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="BA30" s="6">
+      <c r="BA30" s="4">
         <f>COUNTIF(Features[Obstacle height selection], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="BB30" s="6">
+      <c r="BB30" s="4">
         <f>COUNTIF(Features[Visible center of rotation], "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="BC30" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:BB29">
-    <cfRule type="cellIs" dxfId="110" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tetris-4k-archive.xlsx
+++ b/tetris-4k-archive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/493d989091475df7/Personal/GitHub/tetris4karchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="14_{C793FAFD-FBF5-5E43-8744-8FDE773B4600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF56C894-4CE3-6B44-84B1-824215074025}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="14_{C793FAFD-FBF5-5E43-8744-8FDE773B4600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89D468B4-0F94-1F49-8B17-37247AAB14EF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" activeTab="1" xr2:uid="{D2C8731B-3CDA-F546-8437-4794B27A2701}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{D2C8731B-3CDA-F546-8437-4794B27A2701}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -904,7 +904,63 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7F871A6A-B10F-1E41-9D52-0FFC0EDAFD1B}" name="Features" displayName="Features" ref="A1:BC30" totalsRowCount="1" headerRowDxfId="111" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:BC29" xr:uid="{7F871A6A-B10F-1E41-9D52-0FFC0EDAFD1B}"/>
+  <autoFilter ref="A1:BC29" xr:uid="{7F871A6A-B10F-1E41-9D52-0FFC0EDAFD1B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
+    <filterColumn colId="22" hiddenButton="1"/>
+    <filterColumn colId="23" hiddenButton="1"/>
+    <filterColumn colId="24" hiddenButton="1"/>
+    <filterColumn colId="25" hiddenButton="1"/>
+    <filterColumn colId="26" hiddenButton="1"/>
+    <filterColumn colId="27" hiddenButton="1"/>
+    <filterColumn colId="28" hiddenButton="1"/>
+    <filterColumn colId="29" hiddenButton="1"/>
+    <filterColumn colId="30" hiddenButton="1"/>
+    <filterColumn colId="31" hiddenButton="1"/>
+    <filterColumn colId="32" hiddenButton="1"/>
+    <filterColumn colId="33" hiddenButton="1"/>
+    <filterColumn colId="34" hiddenButton="1"/>
+    <filterColumn colId="35" hiddenButton="1"/>
+    <filterColumn colId="36" hiddenButton="1"/>
+    <filterColumn colId="37" hiddenButton="1"/>
+    <filterColumn colId="38" hiddenButton="1"/>
+    <filterColumn colId="39" hiddenButton="1"/>
+    <filterColumn colId="40" hiddenButton="1"/>
+    <filterColumn colId="41" hiddenButton="1"/>
+    <filterColumn colId="42" hiddenButton="1"/>
+    <filterColumn colId="43" hiddenButton="1"/>
+    <filterColumn colId="44" hiddenButton="1"/>
+    <filterColumn colId="45" hiddenButton="1"/>
+    <filterColumn colId="46" hiddenButton="1"/>
+    <filterColumn colId="47" hiddenButton="1"/>
+    <filterColumn colId="48" hiddenButton="1"/>
+    <filterColumn colId="49" hiddenButton="1"/>
+    <filterColumn colId="50" hiddenButton="1"/>
+    <filterColumn colId="51" hiddenButton="1"/>
+    <filterColumn colId="52" hiddenButton="1"/>
+    <filterColumn colId="53" hiddenButton="1"/>
+    <filterColumn colId="54" hiddenButton="1"/>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BC29">
     <sortCondition ref="BC1:BC29"/>
   </sortState>
@@ -1396,7 +1452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5FEAAA-9E37-3942-934D-C30EB6EA013C}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -2347,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AFB179-3967-C04B-B20E-010BC5D1A776}">
   <dimension ref="A1:BC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:BC28"/>
+    <sheetView zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
